--- a/Database/08_06.xlsx
+++ b/Database/08_06.xlsx
@@ -503,6 +503,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -571,15 +580,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1076,26 +1076,26 @@
     </xf>
     <xf fillId="0" xfId="0" numFmtId="170" borderId="0" applyFont="1" fontId="28" applyNumberFormat="1"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="29"/>
-    <xf applyAlignment="1" fillId="16" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="30" applyNumberFormat="1" applyFill="1">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="30"/>
+    <xf applyAlignment="1" fillId="16" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="31" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" fillId="17" xfId="0" numFmtId="1" borderId="0" applyFont="1" fontId="31" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="17" xfId="0" numFmtId="1" borderId="0" applyFont="1" fontId="32" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" fillId="18" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="32" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="18" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="33" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="19" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="33" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="19" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="34" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="20" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="34" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="20" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="35" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="35" applyNumberFormat="1"/>
-    <xf applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="36" applyFill="1">
+    <xf fillId="0" xfId="0" numFmtId="11" borderId="0" applyFont="1" fontId="36" applyNumberFormat="1"/>
+    <xf applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="37" applyFill="1">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="37"/>
     <xf fillId="0" xfId="0" numFmtId="171" borderId="0" applyFont="1" fontId="38" applyNumberFormat="1"/>
     <xf applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="39" applyFill="1">
       <alignment vertical="bottom" horizontal="right"/>
@@ -1234,7 +1234,7 @@
       <c s="20" r="L3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
-      <c t="str" s="29" r="A4">
+      <c t="str" s="30" r="A4">
         <f>HYPERLINK("http://www.nist.gov/pml/data/asd.cfm","http://www.nist.gov/pml/data/asd.cfm")</f>
         <v>http://www.nist.gov/pml/data/asd.cfm</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c s="20" r="L5"/>
     </row>
     <row customHeight="1" r="6" ht="12.75">
-      <c t="str" s="29" r="A6">
+      <c t="str" s="30" r="A6">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2001CaJPh..79..955T","http://adsabs.harvard.edu/abs/2001CaJPh..79..955T")</f>
         <v>http://adsabs.harvard.edu/abs/2001CaJPh..79..955T</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c s="20" r="L7"/>
     </row>
     <row customHeight="1" r="8" ht="12.75">
-      <c t="str" s="29" r="A8">
+      <c t="str" s="30" r="A8">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/1999ApJS..123..311A","http://adsabs.harvard.edu/abs/1999ApJS..123..311A")</f>
         <v>http://adsabs.harvard.edu/abs/1999ApJS..123..311A</v>
       </c>
@@ -1351,16 +1351,16 @@
       </c>
     </row>
     <row r="11">
-      <c t="s" s="36" r="A11">
+      <c t="s" s="37" r="A11">
         <v>7</v>
       </c>
-      <c t="s" s="36" r="B11">
+      <c t="s" s="37" r="B11">
         <v>8</v>
       </c>
-      <c t="s" s="36" r="C11">
+      <c t="s" s="37" r="C11">
         <v>9</v>
       </c>
-      <c t="s" s="36" r="D11">
+      <c t="s" s="37" r="D11">
         <v>10</v>
       </c>
       <c t="s" s="10" r="E11">
@@ -3176,7 +3176,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="15.0">
-      <c t="s" s="37" r="A1">
+      <c t="s" s="29" r="A1">
         <v>38</v>
       </c>
       <c s="20" r="B1"/>
@@ -3237,7 +3237,7 @@
       <c s="20" r="Q3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
-      <c t="str" s="29" r="A4">
+      <c t="str" s="30" r="A4">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2001CaJPh..79..955T","http://adsabs.harvard.edu/abs/2001CaJPh..79..955T")</f>
         <v>http://adsabs.harvard.edu/abs/2001CaJPh..79..955T</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c s="20" r="Q5"/>
     </row>
     <row customHeight="1" r="6" ht="12.75">
-      <c t="str" s="29" r="A6">
+      <c t="str" s="30" r="A6">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/1997A%26AS..123..159G","http://adsabs.harvard.edu/abs/1997A%26AS..123..159G")</f>
         <v>http://adsabs.harvard.edu/abs/1997A%26AS..123..159G</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c s="20" r="Q7"/>
     </row>
     <row customHeight="1" r="8" ht="12.75">
-      <c t="str" s="29" r="A8">
+      <c t="str" s="30" r="A8">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2000MNRAS.312..813S","http://adsabs.harvard.edu/abs/2000MNRAS.312..813S")</f>
         <v>http://adsabs.harvard.edu/abs/2000MNRAS.312..813S</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c s="20" r="Q9"/>
     </row>
     <row customHeight="1" r="10" ht="12.75">
-      <c t="str" s="29" r="A10">
+      <c t="str" s="30" r="A10">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2001CaJPh..79..955T","http://adsabs.harvard.edu/abs/2001CaJPh..79..955T")</f>
         <v>http://adsabs.harvard.edu/abs/2001CaJPh..79..955T</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c s="20" r="Q11"/>
     </row>
     <row customHeight="1" r="12" ht="12.75">
-      <c t="str" s="29" r="A12">
+      <c t="str" s="30" r="A12">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/1997ApJS..108..393A","http://adsabs.harvard.edu/abs/1997ApJS..108..393A")</f>
         <v>http://adsabs.harvard.edu/abs/1997ApJS..108..393A</v>
       </c>
@@ -3470,10 +3470,10 @@
       <c t="s" s="24" r="N14">
         <v>45</v>
       </c>
-      <c t="s" s="34" r="O14">
+      <c t="s" s="35" r="O14">
         <v>46</v>
       </c>
-      <c s="34" r="P14"/>
+      <c s="35" r="P14"/>
       <c t="s" s="12" r="Q14">
         <v>47</v>
       </c>
@@ -3521,10 +3521,10 @@
       <c t="s" s="45" r="N15">
         <v>50</v>
       </c>
-      <c t="s" s="30" r="O15">
+      <c t="s" s="31" r="O15">
         <v>51</v>
       </c>
-      <c t="s" s="30" r="P15">
+      <c t="s" s="31" r="P15">
         <v>52</v>
       </c>
       <c t="s" s="43" r="Q15">
@@ -23014,7 +23014,7 @@
       <c s="20" r="AF3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
-      <c t="str" s="29" r="A4">
+      <c t="str" s="30" r="A4">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/1999ApJS..123..311A","http://adsabs.harvard.edu/abs/1999ApJS..123..311A")</f>
         <v>http://adsabs.harvard.edu/abs/1999ApJS..123..311A</v>
       </c>
@@ -23087,7 +23087,7 @@
       <c s="20" r="AF5"/>
     </row>
     <row customHeight="1" s="20" customFormat="1" r="6" ht="12.75">
-      <c t="str" s="29" r="A6">
+      <c t="str" s="30" r="A6">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2012MNRAS.423L..35P","http://adsabs.harvard.edu/abs/2012MNRAS.423L..35P")</f>
         <v>http://adsabs.harvard.edu/abs/2012MNRAS.423L..35P</v>
       </c>
@@ -23160,7 +23160,7 @@
       <c s="20" r="AF7"/>
     </row>
     <row customHeight="1" s="20" customFormat="1" r="8" ht="12.75">
-      <c t="str" s="29" r="A8">
+      <c t="str" s="30" r="A8">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/1994A%26AS..103..273L","http://adsabs.harvard.edu/abs/1994A%26AS..103..273L")</f>
         <v>http://adsabs.harvard.edu/abs/1994A%26AS..103..273L</v>
       </c>
@@ -23269,7 +23269,7 @@
       <c s="20" r="AF10"/>
     </row>
     <row customHeight="1" s="20" customFormat="1" r="11" ht="12.75">
-      <c s="29" r="A11"/>
+      <c s="30" r="A11"/>
       <c s="20" r="B11"/>
       <c s="20" r="C11"/>
       <c s="20" r="D11"/>
@@ -23312,10 +23312,10 @@
         <v>6</v>
       </c>
       <c s="54" r="G12"/>
-      <c t="s" s="33" r="H12">
+      <c t="s" s="34" r="H12">
         <v>45</v>
       </c>
-      <c s="33" r="I12"/>
+      <c s="34" r="I12"/>
       <c t="s" s="44" r="J12">
         <v>61</v>
       </c>
@@ -23351,10 +23351,10 @@
       <c t="s" s="39" r="B13">
         <v>8</v>
       </c>
-      <c t="s" s="31" r="C13">
+      <c t="s" s="32" r="C13">
         <v>48</v>
       </c>
-      <c t="s" s="31" r="D13">
+      <c t="s" s="32" r="D13">
         <v>9</v>
       </c>
       <c t="s" s="11" r="E13">
@@ -23372,10 +23372,10 @@
       <c t="s" s="27" r="I13">
         <v>65</v>
       </c>
-      <c t="s" s="32" r="J13">
+      <c t="s" s="33" r="J13">
         <v>64</v>
       </c>
-      <c t="s" s="32" r="K13">
+      <c t="s" s="33" r="K13">
         <v>65</v>
       </c>
       <c t="s" s="21" r="L13">
@@ -36069,7 +36069,7 @@
       <c s="7" r="H291"/>
       <c s="7" r="I291"/>
       <c s="7" r="J291"/>
-      <c s="35" r="K291"/>
+      <c s="36" r="K291"/>
       <c s="28" r="L291"/>
       <c s="20" r="M291"/>
       <c s="20" r="N291"/>
@@ -36103,7 +36103,7 @@
       <c s="7" r="H292"/>
       <c s="7" r="I292"/>
       <c s="7" r="J292"/>
-      <c s="35" r="K292"/>
+      <c s="36" r="K292"/>
       <c s="28" r="L292"/>
       <c s="20" r="M292"/>
       <c s="20" r="N292"/>
@@ -36137,7 +36137,7 @@
       <c s="7" r="H293"/>
       <c s="7" r="I293"/>
       <c s="7" r="J293"/>
-      <c s="35" r="K293"/>
+      <c s="36" r="K293"/>
       <c s="28" r="L293"/>
       <c s="20" r="M293"/>
       <c s="20" r="N293"/>
@@ -36171,7 +36171,7 @@
       <c s="7" r="H294"/>
       <c s="7" r="I294"/>
       <c s="7" r="J294"/>
-      <c s="35" r="K294"/>
+      <c s="36" r="K294"/>
       <c s="28" r="L294"/>
       <c s="20" r="M294"/>
       <c s="20" r="N294"/>
@@ -36205,7 +36205,7 @@
       <c s="7" r="H295"/>
       <c s="7" r="I295"/>
       <c s="7" r="J295"/>
-      <c s="35" r="K295"/>
+      <c s="36" r="K295"/>
       <c s="28" r="L295"/>
       <c s="20" r="M295"/>
       <c s="20" r="N295"/>
@@ -36239,7 +36239,7 @@
       <c s="7" r="H296"/>
       <c s="7" r="I296"/>
       <c s="7" r="J296"/>
-      <c s="35" r="K296"/>
+      <c s="36" r="K296"/>
       <c s="28" r="L296"/>
       <c s="20" r="M296"/>
       <c s="20" r="N296"/>
@@ -36273,7 +36273,7 @@
       <c s="7" r="H297"/>
       <c s="7" r="I297"/>
       <c s="7" r="J297"/>
-      <c s="35" r="K297"/>
+      <c s="36" r="K297"/>
       <c s="28" r="L297"/>
       <c s="20" r="M297"/>
       <c s="20" r="N297"/>
@@ -36307,7 +36307,7 @@
       <c s="7" r="H298"/>
       <c s="7" r="I298"/>
       <c s="7" r="J298"/>
-      <c s="35" r="K298"/>
+      <c s="36" r="K298"/>
       <c s="28" r="L298"/>
       <c s="20" r="M298"/>
       <c s="20" r="N298"/>
@@ -36341,7 +36341,7 @@
       <c s="7" r="H299"/>
       <c s="7" r="I299"/>
       <c s="7" r="J299"/>
-      <c s="35" r="K299"/>
+      <c s="36" r="K299"/>
       <c s="28" r="L299"/>
       <c s="20" r="M299"/>
       <c s="20" r="N299"/>
@@ -36375,7 +36375,7 @@
       <c s="7" r="H300"/>
       <c s="7" r="I300"/>
       <c s="7" r="J300"/>
-      <c s="35" r="K300"/>
+      <c s="36" r="K300"/>
       <c s="28" r="L300"/>
       <c s="20" r="M300"/>
       <c s="20" r="N300"/>
@@ -36409,7 +36409,7 @@
       <c s="7" r="H301"/>
       <c s="7" r="I301"/>
       <c s="7" r="J301"/>
-      <c s="35" r="K301"/>
+      <c s="36" r="K301"/>
       <c s="28" r="L301"/>
       <c s="20" r="M301"/>
       <c s="20" r="N301"/>
@@ -36443,7 +36443,7 @@
       <c s="7" r="H302"/>
       <c s="7" r="I302"/>
       <c s="7" r="J302"/>
-      <c s="35" r="K302"/>
+      <c s="36" r="K302"/>
       <c s="28" r="L302"/>
       <c s="20" r="M302"/>
       <c s="20" r="N302"/>
@@ -36477,7 +36477,7 @@
       <c s="7" r="H303"/>
       <c s="7" r="I303"/>
       <c s="7" r="J303"/>
-      <c s="35" r="K303"/>
+      <c s="36" r="K303"/>
       <c s="28" r="L303"/>
       <c s="20" r="M303"/>
       <c s="20" r="N303"/>
@@ -36511,7 +36511,7 @@
       <c s="7" r="H304"/>
       <c s="7" r="I304"/>
       <c s="7" r="J304"/>
-      <c s="35" r="K304"/>
+      <c s="36" r="K304"/>
       <c s="28" r="L304"/>
       <c s="20" r="M304"/>
       <c s="20" r="N304"/>
@@ -36545,7 +36545,7 @@
       <c s="7" r="H305"/>
       <c s="7" r="I305"/>
       <c s="7" r="J305"/>
-      <c s="35" r="K305"/>
+      <c s="36" r="K305"/>
       <c s="28" r="L305"/>
       <c s="20" r="M305"/>
       <c s="20" r="N305"/>
@@ -36579,7 +36579,7 @@
       <c s="7" r="H306"/>
       <c s="7" r="I306"/>
       <c s="7" r="J306"/>
-      <c s="35" r="K306"/>
+      <c s="36" r="K306"/>
       <c s="28" r="L306"/>
       <c s="20" r="M306"/>
       <c s="20" r="N306"/>
@@ -36613,7 +36613,7 @@
       <c s="7" r="H307"/>
       <c s="7" r="I307"/>
       <c s="7" r="J307"/>
-      <c s="35" r="K307"/>
+      <c s="36" r="K307"/>
       <c s="28" r="L307"/>
       <c s="20" r="M307"/>
       <c s="20" r="N307"/>
@@ -36647,7 +36647,7 @@
       <c s="7" r="H308"/>
       <c s="7" r="I308"/>
       <c s="7" r="J308"/>
-      <c s="35" r="K308"/>
+      <c s="36" r="K308"/>
       <c s="28" r="L308"/>
       <c s="20" r="M308"/>
       <c s="20" r="N308"/>
@@ -36681,7 +36681,7 @@
       <c s="7" r="H309"/>
       <c s="7" r="I309"/>
       <c s="7" r="J309"/>
-      <c s="35" r="K309"/>
+      <c s="36" r="K309"/>
       <c s="28" r="L309"/>
       <c s="20" r="M309"/>
       <c s="20" r="N309"/>
@@ -36715,7 +36715,7 @@
       <c s="7" r="H310"/>
       <c s="7" r="I310"/>
       <c s="7" r="J310"/>
-      <c s="35" r="K310"/>
+      <c s="36" r="K310"/>
       <c s="28" r="L310"/>
       <c s="20" r="M310"/>
       <c s="20" r="N310"/>
@@ -36749,7 +36749,7 @@
       <c s="7" r="H311"/>
       <c s="7" r="I311"/>
       <c s="7" r="J311"/>
-      <c s="35" r="K311"/>
+      <c s="36" r="K311"/>
       <c s="28" r="L311"/>
       <c s="20" r="M311"/>
       <c s="20" r="N311"/>
@@ -36783,7 +36783,7 @@
       <c s="7" r="H312"/>
       <c s="7" r="I312"/>
       <c s="7" r="J312"/>
-      <c s="35" r="K312"/>
+      <c s="36" r="K312"/>
       <c s="28" r="L312"/>
       <c s="20" r="M312"/>
       <c s="20" r="N312"/>
@@ -36817,7 +36817,7 @@
       <c s="7" r="H313"/>
       <c s="7" r="I313"/>
       <c s="7" r="J313"/>
-      <c s="35" r="K313"/>
+      <c s="36" r="K313"/>
       <c s="28" r="L313"/>
       <c s="20" r="M313"/>
       <c s="20" r="N313"/>
@@ -36851,7 +36851,7 @@
       <c s="7" r="H314"/>
       <c s="7" r="I314"/>
       <c s="7" r="J314"/>
-      <c s="35" r="K314"/>
+      <c s="36" r="K314"/>
       <c s="28" r="L314"/>
       <c s="20" r="M314"/>
       <c s="20" r="N314"/>
@@ -36885,7 +36885,7 @@
       <c s="7" r="H315"/>
       <c s="7" r="I315"/>
       <c s="7" r="J315"/>
-      <c s="35" r="K315"/>
+      <c s="36" r="K315"/>
       <c s="28" r="L315"/>
       <c s="20" r="M315"/>
       <c s="20" r="N315"/>
@@ -36919,7 +36919,7 @@
       <c s="7" r="H316"/>
       <c s="7" r="I316"/>
       <c s="7" r="J316"/>
-      <c s="35" r="K316"/>
+      <c s="36" r="K316"/>
       <c s="28" r="L316"/>
       <c s="20" r="M316"/>
       <c s="20" r="N316"/>
@@ -36953,7 +36953,7 @@
       <c s="7" r="H317"/>
       <c s="7" r="I317"/>
       <c s="7" r="J317"/>
-      <c s="35" r="K317"/>
+      <c s="36" r="K317"/>
       <c s="28" r="L317"/>
       <c s="20" r="M317"/>
       <c s="20" r="N317"/>
@@ -36987,7 +36987,7 @@
       <c s="7" r="H318"/>
       <c s="7" r="I318"/>
       <c s="7" r="J318"/>
-      <c s="35" r="K318"/>
+      <c s="36" r="K318"/>
       <c s="28" r="L318"/>
       <c s="20" r="M318"/>
       <c s="20" r="N318"/>
@@ -37021,7 +37021,7 @@
       <c s="7" r="H319"/>
       <c s="7" r="I319"/>
       <c s="7" r="J319"/>
-      <c s="35" r="K319"/>
+      <c s="36" r="K319"/>
       <c s="28" r="L319"/>
       <c s="20" r="M319"/>
       <c s="20" r="N319"/>
@@ -37055,7 +37055,7 @@
       <c s="7" r="H320"/>
       <c s="7" r="I320"/>
       <c s="7" r="J320"/>
-      <c s="35" r="K320"/>
+      <c s="36" r="K320"/>
       <c s="28" r="L320"/>
       <c s="20" r="M320"/>
       <c s="20" r="N320"/>
@@ -37089,7 +37089,7 @@
       <c s="7" r="H321"/>
       <c s="7" r="I321"/>
       <c s="7" r="J321"/>
-      <c s="35" r="K321"/>
+      <c s="36" r="K321"/>
       <c s="28" r="L321"/>
       <c s="20" r="M321"/>
       <c s="20" r="N321"/>
@@ -37123,7 +37123,7 @@
       <c s="7" r="H322"/>
       <c s="7" r="I322"/>
       <c s="7" r="J322"/>
-      <c s="35" r="K322"/>
+      <c s="36" r="K322"/>
       <c s="28" r="L322"/>
       <c s="20" r="M322"/>
       <c s="20" r="N322"/>
@@ -37157,7 +37157,7 @@
       <c s="7" r="H323"/>
       <c s="7" r="I323"/>
       <c s="7" r="J323"/>
-      <c s="35" r="K323"/>
+      <c s="36" r="K323"/>
       <c s="28" r="L323"/>
       <c s="20" r="M323"/>
       <c s="20" r="N323"/>
@@ -37191,7 +37191,7 @@
       <c s="7" r="H324"/>
       <c s="7" r="I324"/>
       <c s="7" r="J324"/>
-      <c s="35" r="K324"/>
+      <c s="36" r="K324"/>
       <c s="28" r="L324"/>
       <c s="20" r="M324"/>
       <c s="20" r="N324"/>
@@ -37225,7 +37225,7 @@
       <c s="7" r="H325"/>
       <c s="7" r="I325"/>
       <c s="7" r="J325"/>
-      <c s="35" r="K325"/>
+      <c s="36" r="K325"/>
       <c s="28" r="L325"/>
       <c s="20" r="M325"/>
       <c s="20" r="N325"/>
@@ -37259,7 +37259,7 @@
       <c s="7" r="H326"/>
       <c s="7" r="I326"/>
       <c s="7" r="J326"/>
-      <c s="35" r="K326"/>
+      <c s="36" r="K326"/>
       <c s="28" r="L326"/>
       <c s="20" r="M326"/>
       <c s="20" r="N326"/>
@@ -37293,7 +37293,7 @@
       <c s="7" r="H327"/>
       <c s="7" r="I327"/>
       <c s="7" r="J327"/>
-      <c s="35" r="K327"/>
+      <c s="36" r="K327"/>
       <c s="28" r="L327"/>
       <c s="20" r="M327"/>
       <c s="20" r="N327"/>
@@ -37327,7 +37327,7 @@
       <c s="7" r="H328"/>
       <c s="7" r="I328"/>
       <c s="7" r="J328"/>
-      <c s="35" r="K328"/>
+      <c s="36" r="K328"/>
       <c s="28" r="L328"/>
       <c s="20" r="M328"/>
       <c s="20" r="N328"/>
@@ -37361,7 +37361,7 @@
       <c s="7" r="H329"/>
       <c s="7" r="I329"/>
       <c s="7" r="J329"/>
-      <c s="35" r="K329"/>
+      <c s="36" r="K329"/>
       <c s="28" r="L329"/>
       <c s="20" r="M329"/>
       <c s="20" r="N329"/>
@@ -37395,7 +37395,7 @@
       <c s="7" r="H330"/>
       <c s="7" r="I330"/>
       <c s="7" r="J330"/>
-      <c s="35" r="K330"/>
+      <c s="36" r="K330"/>
       <c s="28" r="L330"/>
       <c s="20" r="M330"/>
       <c s="20" r="N330"/>
@@ -37429,7 +37429,7 @@
       <c s="7" r="H331"/>
       <c s="7" r="I331"/>
       <c s="7" r="J331"/>
-      <c s="35" r="K331"/>
+      <c s="36" r="K331"/>
       <c s="28" r="L331"/>
       <c s="20" r="M331"/>
       <c s="20" r="N331"/>
@@ -37463,7 +37463,7 @@
       <c s="7" r="H332"/>
       <c s="7" r="I332"/>
       <c s="7" r="J332"/>
-      <c s="35" r="K332"/>
+      <c s="36" r="K332"/>
       <c s="28" r="L332"/>
       <c s="20" r="M332"/>
       <c s="20" r="N332"/>
@@ -37497,7 +37497,7 @@
       <c s="7" r="H333"/>
       <c s="7" r="I333"/>
       <c s="7" r="J333"/>
-      <c s="35" r="K333"/>
+      <c s="36" r="K333"/>
       <c s="28" r="L333"/>
       <c s="20" r="M333"/>
       <c s="20" r="N333"/>
@@ -37531,7 +37531,7 @@
       <c s="7" r="H334"/>
       <c s="7" r="I334"/>
       <c s="7" r="J334"/>
-      <c s="35" r="K334"/>
+      <c s="36" r="K334"/>
       <c s="28" r="L334"/>
       <c s="20" r="M334"/>
       <c s="20" r="N334"/>
@@ -37565,7 +37565,7 @@
       <c s="7" r="H335"/>
       <c s="7" r="I335"/>
       <c s="7" r="J335"/>
-      <c s="35" r="K335"/>
+      <c s="36" r="K335"/>
       <c s="28" r="L335"/>
       <c s="20" r="M335"/>
       <c s="20" r="N335"/>
@@ -37599,7 +37599,7 @@
       <c s="7" r="H336"/>
       <c s="7" r="I336"/>
       <c s="7" r="J336"/>
-      <c s="35" r="K336"/>
+      <c s="36" r="K336"/>
       <c s="28" r="L336"/>
       <c s="20" r="M336"/>
       <c s="20" r="N336"/>
@@ -37633,7 +37633,7 @@
       <c s="7" r="H337"/>
       <c s="7" r="I337"/>
       <c s="7" r="J337"/>
-      <c s="35" r="K337"/>
+      <c s="36" r="K337"/>
       <c s="28" r="L337"/>
       <c s="20" r="M337"/>
       <c s="20" r="N337"/>
@@ -37667,7 +37667,7 @@
       <c s="7" r="H338"/>
       <c s="7" r="I338"/>
       <c s="7" r="J338"/>
-      <c s="35" r="K338"/>
+      <c s="36" r="K338"/>
       <c s="28" r="L338"/>
       <c s="20" r="M338"/>
       <c s="20" r="N338"/>
@@ -37701,7 +37701,7 @@
       <c s="7" r="H339"/>
       <c s="7" r="I339"/>
       <c s="7" r="J339"/>
-      <c s="35" r="K339"/>
+      <c s="36" r="K339"/>
       <c s="28" r="L339"/>
       <c s="20" r="M339"/>
       <c s="20" r="N339"/>
@@ -37735,7 +37735,7 @@
       <c s="7" r="H340"/>
       <c s="7" r="I340"/>
       <c s="7" r="J340"/>
-      <c s="35" r="K340"/>
+      <c s="36" r="K340"/>
       <c s="28" r="L340"/>
       <c s="20" r="M340"/>
       <c s="20" r="N340"/>
@@ -37769,7 +37769,7 @@
       <c s="7" r="H341"/>
       <c s="7" r="I341"/>
       <c s="7" r="J341"/>
-      <c s="35" r="K341"/>
+      <c s="36" r="K341"/>
       <c s="28" r="L341"/>
       <c s="20" r="M341"/>
       <c s="20" r="N341"/>
@@ -37803,7 +37803,7 @@
       <c s="7" r="H342"/>
       <c s="7" r="I342"/>
       <c s="7" r="J342"/>
-      <c s="35" r="K342"/>
+      <c s="36" r="K342"/>
       <c s="28" r="L342"/>
       <c s="20" r="M342"/>
       <c s="20" r="N342"/>
@@ -37837,7 +37837,7 @@
       <c s="7" r="H343"/>
       <c s="7" r="I343"/>
       <c s="7" r="J343"/>
-      <c s="35" r="K343"/>
+      <c s="36" r="K343"/>
       <c s="28" r="L343"/>
       <c s="20" r="M343"/>
       <c s="20" r="N343"/>
@@ -37871,7 +37871,7 @@
       <c s="7" r="H344"/>
       <c s="7" r="I344"/>
       <c s="7" r="J344"/>
-      <c s="35" r="K344"/>
+      <c s="36" r="K344"/>
       <c s="28" r="L344"/>
       <c s="20" r="M344"/>
       <c s="20" r="N344"/>
@@ -37905,7 +37905,7 @@
       <c s="7" r="H345"/>
       <c s="7" r="I345"/>
       <c s="7" r="J345"/>
-      <c s="35" r="K345"/>
+      <c s="36" r="K345"/>
       <c s="28" r="L345"/>
       <c s="20" r="M345"/>
       <c s="20" r="N345"/>
@@ -37939,7 +37939,7 @@
       <c s="7" r="H346"/>
       <c s="7" r="I346"/>
       <c s="7" r="J346"/>
-      <c s="35" r="K346"/>
+      <c s="36" r="K346"/>
       <c s="28" r="L346"/>
       <c s="20" r="M346"/>
       <c s="20" r="N346"/>
@@ -37973,7 +37973,7 @@
       <c s="7" r="H347"/>
       <c s="7" r="I347"/>
       <c s="7" r="J347"/>
-      <c s="35" r="K347"/>
+      <c s="36" r="K347"/>
       <c s="28" r="L347"/>
       <c s="20" r="M347"/>
       <c s="20" r="N347"/>
@@ -38007,7 +38007,7 @@
       <c s="7" r="H348"/>
       <c s="7" r="I348"/>
       <c s="7" r="J348"/>
-      <c s="35" r="K348"/>
+      <c s="36" r="K348"/>
       <c s="28" r="L348"/>
       <c s="20" r="M348"/>
       <c s="20" r="N348"/>
@@ -38041,7 +38041,7 @@
       <c s="7" r="H349"/>
       <c s="7" r="I349"/>
       <c s="7" r="J349"/>
-      <c s="35" r="K349"/>
+      <c s="36" r="K349"/>
       <c s="28" r="L349"/>
       <c s="20" r="M349"/>
       <c s="20" r="N349"/>
@@ -38075,7 +38075,7 @@
       <c s="7" r="H350"/>
       <c s="7" r="I350"/>
       <c s="7" r="J350"/>
-      <c s="35" r="K350"/>
+      <c s="36" r="K350"/>
       <c s="28" r="L350"/>
       <c s="20" r="M350"/>
       <c s="20" r="N350"/>
@@ -38109,7 +38109,7 @@
       <c s="7" r="H351"/>
       <c s="7" r="I351"/>
       <c s="7" r="J351"/>
-      <c s="35" r="K351"/>
+      <c s="36" r="K351"/>
       <c s="28" r="L351"/>
       <c s="20" r="M351"/>
       <c s="20" r="N351"/>
@@ -38143,7 +38143,7 @@
       <c s="7" r="H352"/>
       <c s="7" r="I352"/>
       <c s="7" r="J352"/>
-      <c s="35" r="K352"/>
+      <c s="36" r="K352"/>
       <c s="28" r="L352"/>
       <c s="20" r="M352"/>
       <c s="20" r="N352"/>
@@ -38177,7 +38177,7 @@
       <c s="7" r="H353"/>
       <c s="7" r="I353"/>
       <c s="7" r="J353"/>
-      <c s="35" r="K353"/>
+      <c s="36" r="K353"/>
       <c s="28" r="L353"/>
       <c s="20" r="M353"/>
       <c s="20" r="N353"/>
@@ -38211,7 +38211,7 @@
       <c s="7" r="H354"/>
       <c s="7" r="I354"/>
       <c s="7" r="J354"/>
-      <c s="35" r="K354"/>
+      <c s="36" r="K354"/>
       <c s="28" r="L354"/>
       <c s="20" r="M354"/>
       <c s="20" r="N354"/>
@@ -38245,7 +38245,7 @@
       <c s="7" r="H355"/>
       <c s="7" r="I355"/>
       <c s="7" r="J355"/>
-      <c s="35" r="K355"/>
+      <c s="36" r="K355"/>
       <c s="28" r="L355"/>
       <c s="20" r="M355"/>
       <c s="20" r="N355"/>
@@ -38279,7 +38279,7 @@
       <c s="7" r="H356"/>
       <c s="7" r="I356"/>
       <c s="7" r="J356"/>
-      <c s="35" r="K356"/>
+      <c s="36" r="K356"/>
       <c s="28" r="L356"/>
       <c s="20" r="M356"/>
       <c s="20" r="N356"/>
@@ -38313,7 +38313,7 @@
       <c s="7" r="H357"/>
       <c s="7" r="I357"/>
       <c s="7" r="J357"/>
-      <c s="35" r="K357"/>
+      <c s="36" r="K357"/>
       <c s="28" r="L357"/>
       <c s="20" r="M357"/>
       <c s="20" r="N357"/>
@@ -38347,7 +38347,7 @@
       <c s="7" r="H358"/>
       <c s="7" r="I358"/>
       <c s="7" r="J358"/>
-      <c s="35" r="K358"/>
+      <c s="36" r="K358"/>
       <c s="28" r="L358"/>
       <c s="20" r="M358"/>
       <c s="20" r="N358"/>
@@ -38381,7 +38381,7 @@
       <c s="7" r="H359"/>
       <c s="7" r="I359"/>
       <c s="7" r="J359"/>
-      <c s="35" r="K359"/>
+      <c s="36" r="K359"/>
       <c s="28" r="L359"/>
       <c s="20" r="M359"/>
       <c s="20" r="N359"/>
@@ -38415,7 +38415,7 @@
       <c s="7" r="H360"/>
       <c s="7" r="I360"/>
       <c s="7" r="J360"/>
-      <c s="35" r="K360"/>
+      <c s="36" r="K360"/>
       <c s="28" r="L360"/>
       <c s="20" r="M360"/>
       <c s="20" r="N360"/>
@@ -38449,7 +38449,7 @@
       <c s="7" r="H361"/>
       <c s="7" r="I361"/>
       <c s="7" r="J361"/>
-      <c s="35" r="K361"/>
+      <c s="36" r="K361"/>
       <c s="28" r="L361"/>
       <c s="20" r="M361"/>
       <c s="20" r="N361"/>
@@ -38483,7 +38483,7 @@
       <c s="7" r="H362"/>
       <c s="7" r="I362"/>
       <c s="7" r="J362"/>
-      <c s="35" r="K362"/>
+      <c s="36" r="K362"/>
       <c s="28" r="L362"/>
       <c s="20" r="M362"/>
       <c s="20" r="N362"/>
@@ -38517,7 +38517,7 @@
       <c s="7" r="H363"/>
       <c s="7" r="I363"/>
       <c s="7" r="J363"/>
-      <c s="35" r="K363"/>
+      <c s="36" r="K363"/>
       <c s="28" r="L363"/>
       <c s="20" r="M363"/>
       <c s="20" r="N363"/>
@@ -38551,7 +38551,7 @@
       <c s="7" r="H364"/>
       <c s="7" r="I364"/>
       <c s="7" r="J364"/>
-      <c s="35" r="K364"/>
+      <c s="36" r="K364"/>
       <c s="28" r="L364"/>
       <c s="20" r="M364"/>
       <c s="20" r="N364"/>
@@ -38585,7 +38585,7 @@
       <c s="7" r="H365"/>
       <c s="7" r="I365"/>
       <c s="7" r="J365"/>
-      <c s="35" r="K365"/>
+      <c s="36" r="K365"/>
       <c s="28" r="L365"/>
       <c s="20" r="M365"/>
       <c s="20" r="N365"/>
@@ -38619,7 +38619,7 @@
       <c s="7" r="H366"/>
       <c s="7" r="I366"/>
       <c s="7" r="J366"/>
-      <c s="35" r="K366"/>
+      <c s="36" r="K366"/>
       <c s="28" r="L366"/>
       <c s="20" r="M366"/>
       <c s="20" r="N366"/>
@@ -38653,7 +38653,7 @@
       <c s="7" r="H367"/>
       <c s="7" r="I367"/>
       <c s="7" r="J367"/>
-      <c s="35" r="K367"/>
+      <c s="36" r="K367"/>
       <c s="28" r="L367"/>
       <c s="20" r="M367"/>
       <c s="20" r="N367"/>
@@ -38687,7 +38687,7 @@
       <c s="7" r="H368"/>
       <c s="7" r="I368"/>
       <c s="7" r="J368"/>
-      <c s="35" r="K368"/>
+      <c s="36" r="K368"/>
       <c s="28" r="L368"/>
       <c s="20" r="M368"/>
       <c s="20" r="N368"/>
@@ -38721,7 +38721,7 @@
       <c s="7" r="H369"/>
       <c s="7" r="I369"/>
       <c s="7" r="J369"/>
-      <c s="35" r="K369"/>
+      <c s="36" r="K369"/>
       <c s="28" r="L369"/>
       <c s="20" r="M369"/>
       <c s="20" r="N369"/>
@@ -38755,7 +38755,7 @@
       <c s="7" r="H370"/>
       <c s="7" r="I370"/>
       <c s="7" r="J370"/>
-      <c s="35" r="K370"/>
+      <c s="36" r="K370"/>
       <c s="28" r="L370"/>
       <c s="20" r="M370"/>
       <c s="20" r="N370"/>
@@ -38789,7 +38789,7 @@
       <c s="7" r="H371"/>
       <c s="7" r="I371"/>
       <c s="7" r="J371"/>
-      <c s="35" r="K371"/>
+      <c s="36" r="K371"/>
       <c s="28" r="L371"/>
       <c s="20" r="M371"/>
       <c s="20" r="N371"/>
@@ -38823,7 +38823,7 @@
       <c s="7" r="H372"/>
       <c s="7" r="I372"/>
       <c s="7" r="J372"/>
-      <c s="35" r="K372"/>
+      <c s="36" r="K372"/>
       <c s="28" r="L372"/>
       <c s="20" r="M372"/>
       <c s="20" r="N372"/>
@@ -38857,7 +38857,7 @@
       <c s="7" r="H373"/>
       <c s="7" r="I373"/>
       <c s="7" r="J373"/>
-      <c s="35" r="K373"/>
+      <c s="36" r="K373"/>
       <c s="28" r="L373"/>
       <c s="20" r="M373"/>
       <c s="20" r="N373"/>
@@ -38891,7 +38891,7 @@
       <c s="7" r="H374"/>
       <c s="7" r="I374"/>
       <c s="7" r="J374"/>
-      <c s="35" r="K374"/>
+      <c s="36" r="K374"/>
       <c s="28" r="L374"/>
       <c s="20" r="M374"/>
       <c s="20" r="N374"/>
@@ -38925,7 +38925,7 @@
       <c s="7" r="H375"/>
       <c s="7" r="I375"/>
       <c s="7" r="J375"/>
-      <c s="35" r="K375"/>
+      <c s="36" r="K375"/>
       <c s="28" r="L375"/>
       <c s="20" r="M375"/>
       <c s="20" r="N375"/>
@@ -38959,7 +38959,7 @@
       <c s="7" r="H376"/>
       <c s="7" r="I376"/>
       <c s="7" r="J376"/>
-      <c s="35" r="K376"/>
+      <c s="36" r="K376"/>
       <c s="28" r="L376"/>
       <c s="20" r="M376"/>
       <c s="20" r="N376"/>
@@ -38993,7 +38993,7 @@
       <c s="7" r="H377"/>
       <c s="7" r="I377"/>
       <c s="7" r="J377"/>
-      <c s="35" r="K377"/>
+      <c s="36" r="K377"/>
       <c s="28" r="L377"/>
       <c s="20" r="M377"/>
       <c s="20" r="N377"/>
@@ -39027,7 +39027,7 @@
       <c s="7" r="H378"/>
       <c s="7" r="I378"/>
       <c s="7" r="J378"/>
-      <c s="35" r="K378"/>
+      <c s="36" r="K378"/>
       <c s="28" r="L378"/>
       <c s="20" r="M378"/>
       <c s="20" r="N378"/>
@@ -39061,7 +39061,7 @@
       <c s="7" r="H379"/>
       <c s="7" r="I379"/>
       <c s="7" r="J379"/>
-      <c s="35" r="K379"/>
+      <c s="36" r="K379"/>
       <c s="28" r="L379"/>
       <c s="20" r="M379"/>
       <c s="20" r="N379"/>
@@ -39095,7 +39095,7 @@
       <c s="7" r="H380"/>
       <c s="7" r="I380"/>
       <c s="7" r="J380"/>
-      <c s="35" r="K380"/>
+      <c s="36" r="K380"/>
       <c s="28" r="L380"/>
       <c s="20" r="M380"/>
       <c s="20" r="N380"/>
@@ -39129,7 +39129,7 @@
       <c s="7" r="H381"/>
       <c s="7" r="I381"/>
       <c s="7" r="J381"/>
-      <c s="35" r="K381"/>
+      <c s="36" r="K381"/>
       <c s="28" r="L381"/>
       <c s="20" r="M381"/>
       <c s="20" r="N381"/>
@@ -39163,7 +39163,7 @@
       <c s="7" r="H382"/>
       <c s="7" r="I382"/>
       <c s="7" r="J382"/>
-      <c s="35" r="K382"/>
+      <c s="36" r="K382"/>
       <c s="28" r="L382"/>
       <c s="20" r="M382"/>
       <c s="20" r="N382"/>
@@ -39197,7 +39197,7 @@
       <c s="7" r="H383"/>
       <c s="7" r="I383"/>
       <c s="7" r="J383"/>
-      <c s="35" r="K383"/>
+      <c s="36" r="K383"/>
       <c s="28" r="L383"/>
       <c s="20" r="M383"/>
       <c s="20" r="N383"/>
@@ -39231,7 +39231,7 @@
       <c s="7" r="H384"/>
       <c s="7" r="I384"/>
       <c s="7" r="J384"/>
-      <c s="35" r="K384"/>
+      <c s="36" r="K384"/>
       <c s="28" r="L384"/>
       <c s="20" r="M384"/>
       <c s="20" r="N384"/>
@@ -39265,7 +39265,7 @@
       <c s="7" r="H385"/>
       <c s="7" r="I385"/>
       <c s="7" r="J385"/>
-      <c s="35" r="K385"/>
+      <c s="36" r="K385"/>
       <c s="28" r="L385"/>
       <c s="20" r="M385"/>
       <c s="20" r="N385"/>
@@ -39299,7 +39299,7 @@
       <c s="7" r="H386"/>
       <c s="7" r="I386"/>
       <c s="7" r="J386"/>
-      <c s="35" r="K386"/>
+      <c s="36" r="K386"/>
       <c s="28" r="L386"/>
       <c s="20" r="M386"/>
       <c s="20" r="N386"/>
@@ -39333,7 +39333,7 @@
       <c s="7" r="H387"/>
       <c s="7" r="I387"/>
       <c s="7" r="J387"/>
-      <c s="35" r="K387"/>
+      <c s="36" r="K387"/>
       <c s="28" r="L387"/>
       <c s="20" r="M387"/>
       <c s="20" r="N387"/>
@@ -39367,7 +39367,7 @@
       <c s="7" r="H388"/>
       <c s="7" r="I388"/>
       <c s="7" r="J388"/>
-      <c s="35" r="K388"/>
+      <c s="36" r="K388"/>
       <c s="28" r="L388"/>
       <c s="20" r="M388"/>
       <c s="20" r="N388"/>
@@ -39401,7 +39401,7 @@
       <c s="7" r="H389"/>
       <c s="7" r="I389"/>
       <c s="7" r="J389"/>
-      <c s="35" r="K389"/>
+      <c s="36" r="K389"/>
       <c s="28" r="L389"/>
       <c s="20" r="M389"/>
       <c s="20" r="N389"/>
@@ -39435,7 +39435,7 @@
       <c s="7" r="H390"/>
       <c s="7" r="I390"/>
       <c s="7" r="J390"/>
-      <c s="35" r="K390"/>
+      <c s="36" r="K390"/>
       <c s="28" r="L390"/>
       <c s="20" r="M390"/>
       <c s="20" r="N390"/>
@@ -39469,7 +39469,7 @@
       <c s="7" r="H391"/>
       <c s="7" r="I391"/>
       <c s="7" r="J391"/>
-      <c s="35" r="K391"/>
+      <c s="36" r="K391"/>
       <c s="28" r="L391"/>
       <c s="20" r="M391"/>
       <c s="20" r="N391"/>
@@ -39503,7 +39503,7 @@
       <c s="7" r="H392"/>
       <c s="7" r="I392"/>
       <c s="7" r="J392"/>
-      <c s="35" r="K392"/>
+      <c s="36" r="K392"/>
       <c s="28" r="L392"/>
       <c s="20" r="M392"/>
       <c s="20" r="N392"/>
@@ -39537,7 +39537,7 @@
       <c s="7" r="H393"/>
       <c s="7" r="I393"/>
       <c s="7" r="J393"/>
-      <c s="35" r="K393"/>
+      <c s="36" r="K393"/>
       <c s="28" r="L393"/>
       <c s="20" r="M393"/>
       <c s="20" r="N393"/>
@@ -39571,7 +39571,7 @@
       <c s="7" r="H394"/>
       <c s="7" r="I394"/>
       <c s="7" r="J394"/>
-      <c s="35" r="K394"/>
+      <c s="36" r="K394"/>
       <c s="28" r="L394"/>
       <c s="20" r="M394"/>
       <c s="20" r="N394"/>
@@ -39605,7 +39605,7 @@
       <c s="7" r="H395"/>
       <c s="7" r="I395"/>
       <c s="7" r="J395"/>
-      <c s="35" r="K395"/>
+      <c s="36" r="K395"/>
       <c s="28" r="L395"/>
       <c s="20" r="M395"/>
       <c s="20" r="N395"/>
@@ -39639,7 +39639,7 @@
       <c s="7" r="H396"/>
       <c s="7" r="I396"/>
       <c s="7" r="J396"/>
-      <c s="35" r="K396"/>
+      <c s="36" r="K396"/>
       <c s="28" r="L396"/>
       <c s="20" r="M396"/>
       <c s="20" r="N396"/>
@@ -39673,7 +39673,7 @@
       <c s="7" r="H397"/>
       <c s="7" r="I397"/>
       <c s="7" r="J397"/>
-      <c s="35" r="K397"/>
+      <c s="36" r="K397"/>
       <c s="28" r="L397"/>
       <c s="20" r="M397"/>
       <c s="20" r="N397"/>
@@ -39707,7 +39707,7 @@
       <c s="7" r="H398"/>
       <c s="7" r="I398"/>
       <c s="7" r="J398"/>
-      <c s="35" r="K398"/>
+      <c s="36" r="K398"/>
       <c s="28" r="L398"/>
       <c s="20" r="M398"/>
       <c s="20" r="N398"/>
@@ -39741,7 +39741,7 @@
       <c s="7" r="H399"/>
       <c s="7" r="I399"/>
       <c s="7" r="J399"/>
-      <c s="35" r="K399"/>
+      <c s="36" r="K399"/>
       <c s="28" r="L399"/>
       <c s="20" r="M399"/>
       <c s="20" r="N399"/>
@@ -39775,7 +39775,7 @@
       <c s="7" r="H400"/>
       <c s="7" r="I400"/>
       <c s="7" r="J400"/>
-      <c s="35" r="K400"/>
+      <c s="36" r="K400"/>
       <c s="28" r="L400"/>
       <c s="20" r="M400"/>
       <c s="20" r="N400"/>
@@ -39809,7 +39809,7 @@
       <c s="7" r="H401"/>
       <c s="7" r="I401"/>
       <c s="7" r="J401"/>
-      <c s="35" r="K401"/>
+      <c s="36" r="K401"/>
       <c s="28" r="L401"/>
       <c s="20" r="M401"/>
       <c s="20" r="N401"/>
@@ -39843,7 +39843,7 @@
       <c s="7" r="H402"/>
       <c s="7" r="I402"/>
       <c s="7" r="J402"/>
-      <c s="35" r="K402"/>
+      <c s="36" r="K402"/>
       <c s="28" r="L402"/>
       <c s="20" r="M402"/>
       <c s="20" r="N402"/>
@@ -39877,7 +39877,7 @@
       <c s="7" r="H403"/>
       <c s="7" r="I403"/>
       <c s="7" r="J403"/>
-      <c s="35" r="K403"/>
+      <c s="36" r="K403"/>
       <c s="28" r="L403"/>
       <c s="20" r="M403"/>
       <c s="20" r="N403"/>
@@ -39911,7 +39911,7 @@
       <c s="7" r="H404"/>
       <c s="7" r="I404"/>
       <c s="7" r="J404"/>
-      <c s="35" r="K404"/>
+      <c s="36" r="K404"/>
       <c s="28" r="L404"/>
       <c s="20" r="M404"/>
       <c s="20" r="N404"/>
@@ -39945,7 +39945,7 @@
       <c s="7" r="H405"/>
       <c s="7" r="I405"/>
       <c s="7" r="J405"/>
-      <c s="35" r="K405"/>
+      <c s="36" r="K405"/>
       <c s="28" r="L405"/>
       <c s="20" r="M405"/>
       <c s="20" r="N405"/>
@@ -39979,7 +39979,7 @@
       <c s="7" r="H406"/>
       <c s="7" r="I406"/>
       <c s="7" r="J406"/>
-      <c s="35" r="K406"/>
+      <c s="36" r="K406"/>
       <c s="28" r="L406"/>
       <c s="20" r="M406"/>
       <c s="20" r="N406"/>
@@ -40013,7 +40013,7 @@
       <c s="7" r="H407"/>
       <c s="7" r="I407"/>
       <c s="7" r="J407"/>
-      <c s="35" r="K407"/>
+      <c s="36" r="K407"/>
       <c s="28" r="L407"/>
       <c s="20" r="M407"/>
       <c s="20" r="N407"/>
@@ -40047,7 +40047,7 @@
       <c s="7" r="H408"/>
       <c s="7" r="I408"/>
       <c s="7" r="J408"/>
-      <c s="35" r="K408"/>
+      <c s="36" r="K408"/>
       <c s="28" r="L408"/>
       <c s="20" r="M408"/>
       <c s="20" r="N408"/>
@@ -40081,7 +40081,7 @@
       <c s="7" r="H409"/>
       <c s="7" r="I409"/>
       <c s="7" r="J409"/>
-      <c s="35" r="K409"/>
+      <c s="36" r="K409"/>
       <c s="28" r="L409"/>
       <c s="20" r="M409"/>
       <c s="20" r="N409"/>
@@ -40115,7 +40115,7 @@
       <c s="7" r="H410"/>
       <c s="7" r="I410"/>
       <c s="7" r="J410"/>
-      <c s="35" r="K410"/>
+      <c s="36" r="K410"/>
       <c s="28" r="L410"/>
       <c s="20" r="M410"/>
       <c s="20" r="N410"/>
@@ -40149,7 +40149,7 @@
       <c s="7" r="H411"/>
       <c s="7" r="I411"/>
       <c s="7" r="J411"/>
-      <c s="35" r="K411"/>
+      <c s="36" r="K411"/>
       <c s="28" r="L411"/>
       <c s="20" r="M411"/>
       <c s="20" r="N411"/>
@@ -40183,7 +40183,7 @@
       <c s="7" r="H412"/>
       <c s="7" r="I412"/>
       <c s="7" r="J412"/>
-      <c s="35" r="K412"/>
+      <c s="36" r="K412"/>
       <c s="28" r="L412"/>
       <c s="20" r="M412"/>
       <c s="20" r="N412"/>
@@ -40217,7 +40217,7 @@
       <c s="7" r="H413"/>
       <c s="7" r="I413"/>
       <c s="7" r="J413"/>
-      <c s="35" r="K413"/>
+      <c s="36" r="K413"/>
       <c s="28" r="L413"/>
       <c s="20" r="M413"/>
       <c s="20" r="N413"/>
@@ -40251,7 +40251,7 @@
       <c s="7" r="H414"/>
       <c s="7" r="I414"/>
       <c s="7" r="J414"/>
-      <c s="35" r="K414"/>
+      <c s="36" r="K414"/>
       <c s="28" r="L414"/>
       <c s="20" r="M414"/>
       <c s="20" r="N414"/>
@@ -40285,7 +40285,7 @@
       <c s="7" r="H415"/>
       <c s="7" r="I415"/>
       <c s="7" r="J415"/>
-      <c s="35" r="K415"/>
+      <c s="36" r="K415"/>
       <c s="28" r="L415"/>
       <c s="20" r="M415"/>
       <c s="20" r="N415"/>
@@ -40319,7 +40319,7 @@
       <c s="7" r="H416"/>
       <c s="7" r="I416"/>
       <c s="7" r="J416"/>
-      <c s="35" r="K416"/>
+      <c s="36" r="K416"/>
       <c s="28" r="L416"/>
       <c s="20" r="M416"/>
       <c s="20" r="N416"/>
@@ -40353,7 +40353,7 @@
       <c s="7" r="H417"/>
       <c s="7" r="I417"/>
       <c s="7" r="J417"/>
-      <c s="35" r="K417"/>
+      <c s="36" r="K417"/>
       <c s="28" r="L417"/>
       <c s="20" r="M417"/>
       <c s="20" r="N417"/>
@@ -40387,7 +40387,7 @@
       <c s="7" r="H418"/>
       <c s="7" r="I418"/>
       <c s="7" r="J418"/>
-      <c s="35" r="K418"/>
+      <c s="36" r="K418"/>
       <c s="28" r="L418"/>
       <c s="20" r="M418"/>
       <c s="20" r="N418"/>
@@ -40421,7 +40421,7 @@
       <c s="7" r="H419"/>
       <c s="7" r="I419"/>
       <c s="7" r="J419"/>
-      <c s="35" r="K419"/>
+      <c s="36" r="K419"/>
       <c s="28" r="L419"/>
       <c s="20" r="M419"/>
       <c s="20" r="N419"/>
@@ -40455,7 +40455,7 @@
       <c s="7" r="H420"/>
       <c s="7" r="I420"/>
       <c s="7" r="J420"/>
-      <c s="35" r="K420"/>
+      <c s="36" r="K420"/>
       <c s="28" r="L420"/>
       <c s="20" r="M420"/>
       <c s="20" r="N420"/>
@@ -40489,7 +40489,7 @@
       <c s="7" r="H421"/>
       <c s="7" r="I421"/>
       <c s="7" r="J421"/>
-      <c s="35" r="K421"/>
+      <c s="36" r="K421"/>
       <c s="28" r="L421"/>
       <c s="20" r="M421"/>
       <c s="20" r="N421"/>
@@ -40523,7 +40523,7 @@
       <c s="7" r="H422"/>
       <c s="7" r="I422"/>
       <c s="7" r="J422"/>
-      <c s="35" r="K422"/>
+      <c s="36" r="K422"/>
       <c s="28" r="L422"/>
       <c s="20" r="M422"/>
       <c s="20" r="N422"/>
@@ -40557,7 +40557,7 @@
       <c s="7" r="H423"/>
       <c s="7" r="I423"/>
       <c s="7" r="J423"/>
-      <c s="35" r="K423"/>
+      <c s="36" r="K423"/>
       <c s="28" r="L423"/>
       <c s="20" r="M423"/>
       <c s="20" r="N423"/>
@@ -40591,7 +40591,7 @@
       <c s="7" r="H424"/>
       <c s="7" r="I424"/>
       <c s="7" r="J424"/>
-      <c s="35" r="K424"/>
+      <c s="36" r="K424"/>
       <c s="28" r="L424"/>
       <c s="20" r="M424"/>
       <c s="20" r="N424"/>
@@ -40625,7 +40625,7 @@
       <c s="7" r="H425"/>
       <c s="7" r="I425"/>
       <c s="7" r="J425"/>
-      <c s="35" r="K425"/>
+      <c s="36" r="K425"/>
       <c s="28" r="L425"/>
       <c s="20" r="M425"/>
       <c s="20" r="N425"/>
@@ -40659,7 +40659,7 @@
       <c s="7" r="H426"/>
       <c s="7" r="I426"/>
       <c s="7" r="J426"/>
-      <c s="35" r="K426"/>
+      <c s="36" r="K426"/>
       <c s="28" r="L426"/>
       <c s="20" r="M426"/>
       <c s="20" r="N426"/>
@@ -40693,7 +40693,7 @@
       <c s="7" r="H427"/>
       <c s="7" r="I427"/>
       <c s="7" r="J427"/>
-      <c s="35" r="K427"/>
+      <c s="36" r="K427"/>
       <c s="28" r="L427"/>
       <c s="20" r="M427"/>
       <c s="20" r="N427"/>
@@ -40727,7 +40727,7 @@
       <c s="7" r="H428"/>
       <c s="7" r="I428"/>
       <c s="7" r="J428"/>
-      <c s="35" r="K428"/>
+      <c s="36" r="K428"/>
       <c s="28" r="L428"/>
       <c s="20" r="M428"/>
       <c s="20" r="N428"/>
@@ -40761,7 +40761,7 @@
       <c s="7" r="H429"/>
       <c s="7" r="I429"/>
       <c s="7" r="J429"/>
-      <c s="35" r="K429"/>
+      <c s="36" r="K429"/>
       <c s="28" r="L429"/>
       <c s="20" r="M429"/>
       <c s="20" r="N429"/>
@@ -40795,7 +40795,7 @@
       <c s="7" r="H430"/>
       <c s="7" r="I430"/>
       <c s="7" r="J430"/>
-      <c s="35" r="K430"/>
+      <c s="36" r="K430"/>
       <c s="28" r="L430"/>
       <c s="20" r="M430"/>
       <c s="20" r="N430"/>
@@ -40829,7 +40829,7 @@
       <c s="7" r="H431"/>
       <c s="7" r="I431"/>
       <c s="7" r="J431"/>
-      <c s="35" r="K431"/>
+      <c s="36" r="K431"/>
       <c s="28" r="L431"/>
       <c s="20" r="M431"/>
       <c s="20" r="N431"/>
@@ -40863,7 +40863,7 @@
       <c s="7" r="H432"/>
       <c s="7" r="I432"/>
       <c s="7" r="J432"/>
-      <c s="35" r="K432"/>
+      <c s="36" r="K432"/>
       <c s="28" r="L432"/>
       <c s="20" r="M432"/>
       <c s="20" r="N432"/>
@@ -40897,7 +40897,7 @@
       <c s="7" r="H433"/>
       <c s="7" r="I433"/>
       <c s="7" r="J433"/>
-      <c s="35" r="K433"/>
+      <c s="36" r="K433"/>
       <c s="28" r="L433"/>
       <c s="20" r="M433"/>
       <c s="20" r="N433"/>
@@ -40931,7 +40931,7 @@
       <c s="7" r="H434"/>
       <c s="7" r="I434"/>
       <c s="7" r="J434"/>
-      <c s="35" r="K434"/>
+      <c s="36" r="K434"/>
       <c s="28" r="L434"/>
       <c s="20" r="M434"/>
       <c s="20" r="N434"/>
@@ -40965,7 +40965,7 @@
       <c s="7" r="H435"/>
       <c s="7" r="I435"/>
       <c s="7" r="J435"/>
-      <c s="35" r="K435"/>
+      <c s="36" r="K435"/>
       <c s="28" r="L435"/>
       <c s="20" r="M435"/>
       <c s="20" r="N435"/>
@@ -40999,7 +40999,7 @@
       <c s="7" r="H436"/>
       <c s="7" r="I436"/>
       <c s="7" r="J436"/>
-      <c s="35" r="K436"/>
+      <c s="36" r="K436"/>
       <c s="28" r="L436"/>
       <c s="20" r="M436"/>
       <c s="20" r="N436"/>
@@ -41033,7 +41033,7 @@
       <c s="7" r="H437"/>
       <c s="7" r="I437"/>
       <c s="7" r="J437"/>
-      <c s="35" r="K437"/>
+      <c s="36" r="K437"/>
       <c s="28" r="L437"/>
       <c s="20" r="M437"/>
       <c s="20" r="N437"/>
@@ -41067,7 +41067,7 @@
       <c s="7" r="H438"/>
       <c s="7" r="I438"/>
       <c s="7" r="J438"/>
-      <c s="35" r="K438"/>
+      <c s="36" r="K438"/>
       <c s="28" r="L438"/>
       <c s="20" r="M438"/>
       <c s="20" r="N438"/>
@@ -41101,7 +41101,7 @@
       <c s="7" r="H439"/>
       <c s="7" r="I439"/>
       <c s="7" r="J439"/>
-      <c s="35" r="K439"/>
+      <c s="36" r="K439"/>
       <c s="28" r="L439"/>
       <c s="20" r="M439"/>
       <c s="20" r="N439"/>
@@ -41135,7 +41135,7 @@
       <c s="7" r="H440"/>
       <c s="7" r="I440"/>
       <c s="7" r="J440"/>
-      <c s="35" r="K440"/>
+      <c s="36" r="K440"/>
       <c s="28" r="L440"/>
       <c s="20" r="M440"/>
       <c s="20" r="N440"/>
@@ -41169,7 +41169,7 @@
       <c s="7" r="H441"/>
       <c s="7" r="I441"/>
       <c s="7" r="J441"/>
-      <c s="35" r="K441"/>
+      <c s="36" r="K441"/>
       <c s="28" r="L441"/>
       <c s="20" r="M441"/>
       <c s="20" r="N441"/>
@@ -41203,7 +41203,7 @@
       <c s="7" r="H442"/>
       <c s="7" r="I442"/>
       <c s="7" r="J442"/>
-      <c s="35" r="K442"/>
+      <c s="36" r="K442"/>
       <c s="28" r="L442"/>
       <c s="20" r="M442"/>
       <c s="20" r="N442"/>
@@ -41237,7 +41237,7 @@
       <c s="7" r="H443"/>
       <c s="7" r="I443"/>
       <c s="7" r="J443"/>
-      <c s="35" r="K443"/>
+      <c s="36" r="K443"/>
       <c s="28" r="L443"/>
       <c s="20" r="M443"/>
       <c s="20" r="N443"/>
@@ -41271,7 +41271,7 @@
       <c s="7" r="H444"/>
       <c s="7" r="I444"/>
       <c s="7" r="J444"/>
-      <c s="35" r="K444"/>
+      <c s="36" r="K444"/>
       <c s="28" r="L444"/>
       <c s="20" r="M444"/>
       <c s="20" r="N444"/>
@@ -41305,7 +41305,7 @@
       <c s="7" r="H445"/>
       <c s="7" r="I445"/>
       <c s="7" r="J445"/>
-      <c s="35" r="K445"/>
+      <c s="36" r="K445"/>
       <c s="28" r="L445"/>
       <c s="20" r="M445"/>
       <c s="20" r="N445"/>
@@ -41339,7 +41339,7 @@
       <c s="7" r="H446"/>
       <c s="7" r="I446"/>
       <c s="7" r="J446"/>
-      <c s="35" r="K446"/>
+      <c s="36" r="K446"/>
       <c s="28" r="L446"/>
       <c s="20" r="M446"/>
       <c s="20" r="N446"/>
@@ -41373,7 +41373,7 @@
       <c s="7" r="H447"/>
       <c s="7" r="I447"/>
       <c s="7" r="J447"/>
-      <c s="35" r="K447"/>
+      <c s="36" r="K447"/>
       <c s="28" r="L447"/>
       <c s="20" r="M447"/>
       <c s="20" r="N447"/>
@@ -41407,7 +41407,7 @@
       <c s="7" r="H448"/>
       <c s="7" r="I448"/>
       <c s="7" r="J448"/>
-      <c s="35" r="K448"/>
+      <c s="36" r="K448"/>
       <c s="28" r="L448"/>
       <c s="20" r="M448"/>
       <c s="20" r="N448"/>
@@ -41441,7 +41441,7 @@
       <c s="7" r="H449"/>
       <c s="7" r="I449"/>
       <c s="7" r="J449"/>
-      <c s="35" r="K449"/>
+      <c s="36" r="K449"/>
       <c s="28" r="L449"/>
       <c s="20" r="M449"/>
       <c s="20" r="N449"/>
@@ -41475,7 +41475,7 @@
       <c s="7" r="H450"/>
       <c s="7" r="I450"/>
       <c s="7" r="J450"/>
-      <c s="35" r="K450"/>
+      <c s="36" r="K450"/>
       <c s="28" r="L450"/>
       <c s="20" r="M450"/>
       <c s="20" r="N450"/>
@@ -41509,7 +41509,7 @@
       <c s="7" r="H451"/>
       <c s="7" r="I451"/>
       <c s="7" r="J451"/>
-      <c s="35" r="K451"/>
+      <c s="36" r="K451"/>
       <c s="28" r="L451"/>
       <c s="20" r="M451"/>
       <c s="20" r="N451"/>
@@ -41543,7 +41543,7 @@
       <c s="7" r="H452"/>
       <c s="7" r="I452"/>
       <c s="7" r="J452"/>
-      <c s="35" r="K452"/>
+      <c s="36" r="K452"/>
       <c s="28" r="L452"/>
       <c s="20" r="M452"/>
       <c s="20" r="N452"/>
@@ -41577,7 +41577,7 @@
       <c s="7" r="H453"/>
       <c s="7" r="I453"/>
       <c s="7" r="J453"/>
-      <c s="35" r="K453"/>
+      <c s="36" r="K453"/>
       <c s="28" r="L453"/>
       <c s="20" r="M453"/>
       <c s="20" r="N453"/>
@@ -41611,7 +41611,7 @@
       <c s="7" r="H454"/>
       <c s="7" r="I454"/>
       <c s="7" r="J454"/>
-      <c s="35" r="K454"/>
+      <c s="36" r="K454"/>
       <c s="28" r="L454"/>
       <c s="20" r="M454"/>
       <c s="20" r="N454"/>
@@ -41645,7 +41645,7 @@
       <c s="7" r="H455"/>
       <c s="7" r="I455"/>
       <c s="7" r="J455"/>
-      <c s="35" r="K455"/>
+      <c s="36" r="K455"/>
       <c s="28" r="L455"/>
       <c s="20" r="M455"/>
       <c s="20" r="N455"/>
@@ -41679,7 +41679,7 @@
       <c s="7" r="H456"/>
       <c s="7" r="I456"/>
       <c s="7" r="J456"/>
-      <c s="35" r="K456"/>
+      <c s="36" r="K456"/>
       <c s="28" r="L456"/>
       <c s="20" r="M456"/>
       <c s="20" r="N456"/>
@@ -41713,7 +41713,7 @@
       <c s="7" r="H457"/>
       <c s="7" r="I457"/>
       <c s="7" r="J457"/>
-      <c s="35" r="K457"/>
+      <c s="36" r="K457"/>
       <c s="28" r="L457"/>
       <c s="20" r="M457"/>
       <c s="20" r="N457"/>
@@ -41747,7 +41747,7 @@
       <c s="7" r="H458"/>
       <c s="7" r="I458"/>
       <c s="7" r="J458"/>
-      <c s="35" r="K458"/>
+      <c s="36" r="K458"/>
       <c s="28" r="L458"/>
       <c s="20" r="M458"/>
       <c s="20" r="N458"/>
@@ -41781,7 +41781,7 @@
       <c s="7" r="H459"/>
       <c s="7" r="I459"/>
       <c s="7" r="J459"/>
-      <c s="35" r="K459"/>
+      <c s="36" r="K459"/>
       <c s="28" r="L459"/>
       <c s="20" r="M459"/>
       <c s="20" r="N459"/>
@@ -41815,7 +41815,7 @@
       <c s="7" r="H460"/>
       <c s="7" r="I460"/>
       <c s="7" r="J460"/>
-      <c s="35" r="K460"/>
+      <c s="36" r="K460"/>
       <c s="28" r="L460"/>
       <c s="20" r="M460"/>
       <c s="20" r="N460"/>
@@ -41849,7 +41849,7 @@
       <c s="7" r="H461"/>
       <c s="7" r="I461"/>
       <c s="7" r="J461"/>
-      <c s="35" r="K461"/>
+      <c s="36" r="K461"/>
       <c s="28" r="L461"/>
       <c s="20" r="M461"/>
       <c s="20" r="N461"/>
@@ -41883,7 +41883,7 @@
       <c s="7" r="H462"/>
       <c s="7" r="I462"/>
       <c s="7" r="J462"/>
-      <c s="35" r="K462"/>
+      <c s="36" r="K462"/>
       <c s="28" r="L462"/>
       <c s="20" r="M462"/>
       <c s="20" r="N462"/>
@@ -41917,7 +41917,7 @@
       <c s="7" r="H463"/>
       <c s="7" r="I463"/>
       <c s="7" r="J463"/>
-      <c s="35" r="K463"/>
+      <c s="36" r="K463"/>
       <c s="28" r="L463"/>
       <c s="20" r="M463"/>
       <c s="20" r="N463"/>
@@ -41951,7 +41951,7 @@
       <c s="7" r="H464"/>
       <c s="7" r="I464"/>
       <c s="7" r="J464"/>
-      <c s="35" r="K464"/>
+      <c s="36" r="K464"/>
       <c s="28" r="L464"/>
       <c s="20" r="M464"/>
       <c s="20" r="N464"/>
@@ -41985,7 +41985,7 @@
       <c s="7" r="H465"/>
       <c s="7" r="I465"/>
       <c s="7" r="J465"/>
-      <c s="35" r="K465"/>
+      <c s="36" r="K465"/>
       <c s="28" r="L465"/>
       <c s="20" r="M465"/>
       <c s="20" r="N465"/>
@@ -42019,7 +42019,7 @@
       <c s="7" r="H466"/>
       <c s="7" r="I466"/>
       <c s="7" r="J466"/>
-      <c s="35" r="K466"/>
+      <c s="36" r="K466"/>
       <c s="28" r="L466"/>
       <c s="20" r="M466"/>
       <c s="20" r="N466"/>
@@ -42053,7 +42053,7 @@
       <c s="7" r="H467"/>
       <c s="7" r="I467"/>
       <c s="7" r="J467"/>
-      <c s="35" r="K467"/>
+      <c s="36" r="K467"/>
       <c s="28" r="L467"/>
       <c s="20" r="M467"/>
       <c s="20" r="N467"/>
@@ -42087,7 +42087,7 @@
       <c s="7" r="H468"/>
       <c s="7" r="I468"/>
       <c s="7" r="J468"/>
-      <c s="35" r="K468"/>
+      <c s="36" r="K468"/>
       <c s="28" r="L468"/>
       <c s="20" r="M468"/>
       <c s="20" r="N468"/>
@@ -42121,7 +42121,7 @@
       <c s="7" r="H469"/>
       <c s="7" r="I469"/>
       <c s="7" r="J469"/>
-      <c s="35" r="K469"/>
+      <c s="36" r="K469"/>
       <c s="28" r="L469"/>
       <c s="20" r="M469"/>
       <c s="20" r="N469"/>
@@ -42155,7 +42155,7 @@
       <c s="7" r="H470"/>
       <c s="7" r="I470"/>
       <c s="7" r="J470"/>
-      <c s="35" r="K470"/>
+      <c s="36" r="K470"/>
       <c s="28" r="L470"/>
       <c s="20" r="M470"/>
       <c s="20" r="N470"/>
@@ -42189,7 +42189,7 @@
       <c s="7" r="H471"/>
       <c s="7" r="I471"/>
       <c s="7" r="J471"/>
-      <c s="35" r="K471"/>
+      <c s="36" r="K471"/>
       <c s="28" r="L471"/>
       <c s="20" r="M471"/>
       <c s="20" r="N471"/>
@@ -42223,7 +42223,7 @@
       <c s="7" r="H472"/>
       <c s="7" r="I472"/>
       <c s="7" r="J472"/>
-      <c s="35" r="K472"/>
+      <c s="36" r="K472"/>
       <c s="28" r="L472"/>
       <c s="20" r="M472"/>
       <c s="20" r="N472"/>
@@ -42257,7 +42257,7 @@
       <c s="7" r="H473"/>
       <c s="7" r="I473"/>
       <c s="7" r="J473"/>
-      <c s="35" r="K473"/>
+      <c s="36" r="K473"/>
       <c s="28" r="L473"/>
       <c s="20" r="M473"/>
       <c s="20" r="N473"/>
@@ -42291,7 +42291,7 @@
       <c s="7" r="H474"/>
       <c s="7" r="I474"/>
       <c s="7" r="J474"/>
-      <c s="35" r="K474"/>
+      <c s="36" r="K474"/>
       <c s="28" r="L474"/>
       <c s="20" r="M474"/>
       <c s="20" r="N474"/>
@@ -42325,7 +42325,7 @@
       <c s="7" r="H475"/>
       <c s="7" r="I475"/>
       <c s="7" r="J475"/>
-      <c s="35" r="K475"/>
+      <c s="36" r="K475"/>
       <c s="28" r="L475"/>
       <c s="20" r="M475"/>
       <c s="20" r="N475"/>
@@ -42359,7 +42359,7 @@
       <c s="7" r="H476"/>
       <c s="7" r="I476"/>
       <c s="7" r="J476"/>
-      <c s="35" r="K476"/>
+      <c s="36" r="K476"/>
       <c s="28" r="L476"/>
       <c s="20" r="M476"/>
       <c s="20" r="N476"/>
@@ -42393,7 +42393,7 @@
       <c s="7" r="H477"/>
       <c s="7" r="I477"/>
       <c s="7" r="J477"/>
-      <c s="35" r="K477"/>
+      <c s="36" r="K477"/>
       <c s="28" r="L477"/>
       <c s="20" r="M477"/>
       <c s="20" r="N477"/>
@@ -42427,7 +42427,7 @@
       <c s="7" r="H478"/>
       <c s="7" r="I478"/>
       <c s="7" r="J478"/>
-      <c s="35" r="K478"/>
+      <c s="36" r="K478"/>
       <c s="28" r="L478"/>
       <c s="20" r="M478"/>
       <c s="20" r="N478"/>
@@ -42461,7 +42461,7 @@
       <c s="7" r="H479"/>
       <c s="7" r="I479"/>
       <c s="7" r="J479"/>
-      <c s="35" r="K479"/>
+      <c s="36" r="K479"/>
       <c s="28" r="L479"/>
       <c s="20" r="M479"/>
       <c s="20" r="N479"/>
@@ -42495,7 +42495,7 @@
       <c s="7" r="H480"/>
       <c s="7" r="I480"/>
       <c s="7" r="J480"/>
-      <c s="35" r="K480"/>
+      <c s="36" r="K480"/>
       <c s="28" r="L480"/>
       <c s="20" r="M480"/>
       <c s="20" r="N480"/>
@@ -42529,7 +42529,7 @@
       <c s="7" r="H481"/>
       <c s="7" r="I481"/>
       <c s="7" r="J481"/>
-      <c s="35" r="K481"/>
+      <c s="36" r="K481"/>
       <c s="28" r="L481"/>
       <c s="20" r="M481"/>
       <c s="20" r="N481"/>
@@ -42563,7 +42563,7 @@
       <c s="7" r="H482"/>
       <c s="7" r="I482"/>
       <c s="7" r="J482"/>
-      <c s="35" r="K482"/>
+      <c s="36" r="K482"/>
       <c s="28" r="L482"/>
       <c s="20" r="M482"/>
       <c s="20" r="N482"/>
@@ -42597,7 +42597,7 @@
       <c s="7" r="H483"/>
       <c s="7" r="I483"/>
       <c s="7" r="J483"/>
-      <c s="35" r="K483"/>
+      <c s="36" r="K483"/>
       <c s="28" r="L483"/>
       <c s="20" r="M483"/>
       <c s="20" r="N483"/>
@@ -42631,7 +42631,7 @@
       <c s="7" r="H484"/>
       <c s="7" r="I484"/>
       <c s="7" r="J484"/>
-      <c s="35" r="K484"/>
+      <c s="36" r="K484"/>
       <c s="28" r="L484"/>
       <c s="20" r="M484"/>
       <c s="20" r="N484"/>
@@ -42665,7 +42665,7 @@
       <c s="7" r="H485"/>
       <c s="7" r="I485"/>
       <c s="7" r="J485"/>
-      <c s="35" r="K485"/>
+      <c s="36" r="K485"/>
       <c s="28" r="L485"/>
       <c s="20" r="M485"/>
       <c s="20" r="N485"/>
@@ -42699,7 +42699,7 @@
       <c s="7" r="H486"/>
       <c s="7" r="I486"/>
       <c s="7" r="J486"/>
-      <c s="35" r="K486"/>
+      <c s="36" r="K486"/>
       <c s="28" r="L486"/>
       <c s="20" r="M486"/>
       <c s="20" r="N486"/>
@@ -42733,7 +42733,7 @@
       <c s="7" r="H487"/>
       <c s="7" r="I487"/>
       <c s="7" r="J487"/>
-      <c s="35" r="K487"/>
+      <c s="36" r="K487"/>
       <c s="28" r="L487"/>
       <c s="20" r="M487"/>
       <c s="20" r="N487"/>
@@ -42767,7 +42767,7 @@
       <c s="7" r="H488"/>
       <c s="7" r="I488"/>
       <c s="7" r="J488"/>
-      <c s="35" r="K488"/>
+      <c s="36" r="K488"/>
       <c s="28" r="L488"/>
       <c s="20" r="M488"/>
       <c s="20" r="N488"/>
@@ -42801,7 +42801,7 @@
       <c s="7" r="H489"/>
       <c s="7" r="I489"/>
       <c s="7" r="J489"/>
-      <c s="35" r="K489"/>
+      <c s="36" r="K489"/>
       <c s="28" r="L489"/>
       <c s="20" r="M489"/>
       <c s="20" r="N489"/>
@@ -42835,7 +42835,7 @@
       <c s="7" r="H490"/>
       <c s="7" r="I490"/>
       <c s="7" r="J490"/>
-      <c s="35" r="K490"/>
+      <c s="36" r="K490"/>
       <c s="28" r="L490"/>
       <c s="20" r="M490"/>
       <c s="20" r="N490"/>
@@ -42869,7 +42869,7 @@
       <c s="7" r="H491"/>
       <c s="7" r="I491"/>
       <c s="7" r="J491"/>
-      <c s="35" r="K491"/>
+      <c s="36" r="K491"/>
       <c s="28" r="L491"/>
       <c s="20" r="M491"/>
       <c s="20" r="N491"/>
@@ -42903,7 +42903,7 @@
       <c s="7" r="H492"/>
       <c s="7" r="I492"/>
       <c s="7" r="J492"/>
-      <c s="35" r="K492"/>
+      <c s="36" r="K492"/>
       <c s="28" r="L492"/>
       <c s="20" r="M492"/>
       <c s="20" r="N492"/>
@@ -42937,7 +42937,7 @@
       <c s="7" r="H493"/>
       <c s="7" r="I493"/>
       <c s="7" r="J493"/>
-      <c s="35" r="K493"/>
+      <c s="36" r="K493"/>
       <c s="28" r="L493"/>
       <c s="20" r="M493"/>
       <c s="20" r="N493"/>
@@ -42971,7 +42971,7 @@
       <c s="7" r="H494"/>
       <c s="7" r="I494"/>
       <c s="7" r="J494"/>
-      <c s="35" r="K494"/>
+      <c s="36" r="K494"/>
       <c s="28" r="L494"/>
       <c s="20" r="M494"/>
       <c s="20" r="N494"/>
@@ -43005,7 +43005,7 @@
       <c s="7" r="H495"/>
       <c s="7" r="I495"/>
       <c s="7" r="J495"/>
-      <c s="35" r="K495"/>
+      <c s="36" r="K495"/>
       <c s="28" r="L495"/>
       <c s="20" r="M495"/>
       <c s="20" r="N495"/>
@@ -43039,7 +43039,7 @@
       <c s="7" r="H496"/>
       <c s="7" r="I496"/>
       <c s="7" r="J496"/>
-      <c s="35" r="K496"/>
+      <c s="36" r="K496"/>
       <c s="28" r="L496"/>
       <c s="20" r="M496"/>
       <c s="20" r="N496"/>
@@ -43073,7 +43073,7 @@
       <c s="7" r="H497"/>
       <c s="7" r="I497"/>
       <c s="7" r="J497"/>
-      <c s="35" r="K497"/>
+      <c s="36" r="K497"/>
       <c s="28" r="L497"/>
       <c s="20" r="M497"/>
       <c s="20" r="N497"/>
@@ -43107,7 +43107,7 @@
       <c s="7" r="H498"/>
       <c s="7" r="I498"/>
       <c s="7" r="J498"/>
-      <c s="35" r="K498"/>
+      <c s="36" r="K498"/>
       <c s="28" r="L498"/>
       <c s="20" r="M498"/>
       <c s="20" r="N498"/>
@@ -43141,7 +43141,7 @@
       <c s="7" r="H499"/>
       <c s="7" r="I499"/>
       <c s="7" r="J499"/>
-      <c s="35" r="K499"/>
+      <c s="36" r="K499"/>
       <c s="28" r="L499"/>
       <c s="20" r="M499"/>
       <c s="20" r="N499"/>
@@ -43175,7 +43175,7 @@
       <c s="7" r="H500"/>
       <c s="7" r="I500"/>
       <c s="7" r="J500"/>
-      <c s="35" r="K500"/>
+      <c s="36" r="K500"/>
       <c s="28" r="L500"/>
       <c s="20" r="M500"/>
       <c s="20" r="N500"/>
@@ -43209,7 +43209,7 @@
       <c s="7" r="H501"/>
       <c s="7" r="I501"/>
       <c s="7" r="J501"/>
-      <c s="35" r="K501"/>
+      <c s="36" r="K501"/>
       <c s="28" r="L501"/>
       <c s="20" r="M501"/>
       <c s="20" r="N501"/>
@@ -43243,7 +43243,7 @@
       <c s="7" r="H502"/>
       <c s="7" r="I502"/>
       <c s="7" r="J502"/>
-      <c s="35" r="K502"/>
+      <c s="36" r="K502"/>
       <c s="28" r="L502"/>
       <c s="20" r="M502"/>
       <c s="20" r="N502"/>
@@ -43277,7 +43277,7 @@
       <c s="7" r="H503"/>
       <c s="7" r="I503"/>
       <c s="7" r="J503"/>
-      <c s="35" r="K503"/>
+      <c s="36" r="K503"/>
       <c s="28" r="L503"/>
       <c s="20" r="M503"/>
       <c s="20" r="N503"/>
@@ -43311,7 +43311,7 @@
       <c s="7" r="H504"/>
       <c s="7" r="I504"/>
       <c s="7" r="J504"/>
-      <c s="35" r="K504"/>
+      <c s="36" r="K504"/>
       <c s="28" r="L504"/>
       <c s="20" r="M504"/>
       <c s="20" r="N504"/>
@@ -43345,7 +43345,7 @@
       <c s="7" r="H505"/>
       <c s="7" r="I505"/>
       <c s="7" r="J505"/>
-      <c s="35" r="K505"/>
+      <c s="36" r="K505"/>
       <c s="28" r="L505"/>
       <c s="20" r="M505"/>
       <c s="20" r="N505"/>
@@ -43379,7 +43379,7 @@
       <c s="7" r="H506"/>
       <c s="7" r="I506"/>
       <c s="7" r="J506"/>
-      <c s="35" r="K506"/>
+      <c s="36" r="K506"/>
       <c s="28" r="L506"/>
       <c s="20" r="M506"/>
       <c s="20" r="N506"/>
@@ -43413,7 +43413,7 @@
       <c s="7" r="H507"/>
       <c s="7" r="I507"/>
       <c s="7" r="J507"/>
-      <c s="35" r="K507"/>
+      <c s="36" r="K507"/>
       <c s="28" r="L507"/>
       <c s="20" r="M507"/>
       <c s="20" r="N507"/>
@@ -43447,7 +43447,7 @@
       <c s="7" r="H508"/>
       <c s="7" r="I508"/>
       <c s="7" r="J508"/>
-      <c s="35" r="K508"/>
+      <c s="36" r="K508"/>
       <c s="28" r="L508"/>
       <c s="20" r="M508"/>
       <c s="20" r="N508"/>
@@ -43481,7 +43481,7 @@
       <c s="7" r="H509"/>
       <c s="7" r="I509"/>
       <c s="7" r="J509"/>
-      <c s="35" r="K509"/>
+      <c s="36" r="K509"/>
       <c s="28" r="L509"/>
       <c s="20" r="M509"/>
       <c s="20" r="N509"/>
@@ -43515,7 +43515,7 @@
       <c s="7" r="H510"/>
       <c s="7" r="I510"/>
       <c s="7" r="J510"/>
-      <c s="35" r="K510"/>
+      <c s="36" r="K510"/>
       <c s="28" r="L510"/>
       <c s="20" r="M510"/>
       <c s="20" r="N510"/>
@@ -43549,7 +43549,7 @@
       <c s="7" r="H511"/>
       <c s="7" r="I511"/>
       <c s="7" r="J511"/>
-      <c s="35" r="K511"/>
+      <c s="36" r="K511"/>
       <c s="28" r="L511"/>
       <c s="20" r="M511"/>
       <c s="20" r="N511"/>
@@ -43583,7 +43583,7 @@
       <c s="7" r="H512"/>
       <c s="7" r="I512"/>
       <c s="7" r="J512"/>
-      <c s="35" r="K512"/>
+      <c s="36" r="K512"/>
       <c s="28" r="L512"/>
       <c s="20" r="M512"/>
       <c s="20" r="N512"/>
@@ -43617,7 +43617,7 @@
       <c s="7" r="H513"/>
       <c s="7" r="I513"/>
       <c s="7" r="J513"/>
-      <c s="35" r="K513"/>
+      <c s="36" r="K513"/>
       <c s="28" r="L513"/>
       <c s="20" r="M513"/>
       <c s="20" r="N513"/>
@@ -43651,7 +43651,7 @@
       <c s="7" r="H514"/>
       <c s="7" r="I514"/>
       <c s="7" r="J514"/>
-      <c s="35" r="K514"/>
+      <c s="36" r="K514"/>
       <c s="28" r="L514"/>
       <c s="20" r="M514"/>
       <c s="20" r="N514"/>
@@ -43685,7 +43685,7 @@
       <c s="7" r="H515"/>
       <c s="7" r="I515"/>
       <c s="7" r="J515"/>
-      <c s="35" r="K515"/>
+      <c s="36" r="K515"/>
       <c s="28" r="L515"/>
       <c s="20" r="M515"/>
       <c s="20" r="N515"/>
@@ -43719,7 +43719,7 @@
       <c s="7" r="H516"/>
       <c s="7" r="I516"/>
       <c s="7" r="J516"/>
-      <c s="35" r="K516"/>
+      <c s="36" r="K516"/>
       <c s="28" r="L516"/>
       <c s="20" r="M516"/>
       <c s="20" r="N516"/>
@@ -43753,7 +43753,7 @@
       <c s="7" r="H517"/>
       <c s="7" r="I517"/>
       <c s="7" r="J517"/>
-      <c s="35" r="K517"/>
+      <c s="36" r="K517"/>
       <c s="28" r="L517"/>
       <c s="20" r="M517"/>
       <c s="20" r="N517"/>
@@ -43787,7 +43787,7 @@
       <c s="7" r="H518"/>
       <c s="7" r="I518"/>
       <c s="7" r="J518"/>
-      <c s="35" r="K518"/>
+      <c s="36" r="K518"/>
       <c s="28" r="L518"/>
       <c s="20" r="M518"/>
       <c s="20" r="N518"/>
@@ -43821,7 +43821,7 @@
       <c s="7" r="H519"/>
       <c s="7" r="I519"/>
       <c s="7" r="J519"/>
-      <c s="35" r="K519"/>
+      <c s="36" r="K519"/>
       <c s="28" r="L519"/>
       <c s="20" r="M519"/>
       <c s="20" r="N519"/>
@@ -43855,7 +43855,7 @@
       <c s="7" r="H520"/>
       <c s="7" r="I520"/>
       <c s="7" r="J520"/>
-      <c s="35" r="K520"/>
+      <c s="36" r="K520"/>
       <c s="28" r="L520"/>
       <c s="20" r="M520"/>
       <c s="20" r="N520"/>
@@ -43889,7 +43889,7 @@
       <c s="7" r="H521"/>
       <c s="7" r="I521"/>
       <c s="7" r="J521"/>
-      <c s="35" r="K521"/>
+      <c s="36" r="K521"/>
       <c s="28" r="L521"/>
       <c s="20" r="M521"/>
       <c s="20" r="N521"/>
@@ -43923,7 +43923,7 @@
       <c s="7" r="H522"/>
       <c s="7" r="I522"/>
       <c s="7" r="J522"/>
-      <c s="35" r="K522"/>
+      <c s="36" r="K522"/>
       <c s="28" r="L522"/>
       <c s="20" r="M522"/>
       <c s="20" r="N522"/>
@@ -43957,7 +43957,7 @@
       <c s="7" r="H523"/>
       <c s="7" r="I523"/>
       <c s="7" r="J523"/>
-      <c s="35" r="K523"/>
+      <c s="36" r="K523"/>
       <c s="28" r="L523"/>
       <c s="20" r="M523"/>
       <c s="20" r="N523"/>
@@ -43991,7 +43991,7 @@
       <c s="7" r="H524"/>
       <c s="7" r="I524"/>
       <c s="7" r="J524"/>
-      <c s="35" r="K524"/>
+      <c s="36" r="K524"/>
       <c s="28" r="L524"/>
       <c s="20" r="M524"/>
       <c s="20" r="N524"/>
@@ -44025,7 +44025,7 @@
       <c s="7" r="H525"/>
       <c s="7" r="I525"/>
       <c s="7" r="J525"/>
-      <c s="35" r="K525"/>
+      <c s="36" r="K525"/>
       <c s="28" r="L525"/>
       <c s="20" r="M525"/>
       <c s="20" r="N525"/>
@@ -44059,7 +44059,7 @@
       <c s="7" r="H526"/>
       <c s="7" r="I526"/>
       <c s="7" r="J526"/>
-      <c s="35" r="K526"/>
+      <c s="36" r="K526"/>
       <c s="28" r="L526"/>
       <c s="20" r="M526"/>
       <c s="20" r="N526"/>
@@ -44093,7 +44093,7 @@
       <c s="7" r="H527"/>
       <c s="7" r="I527"/>
       <c s="7" r="J527"/>
-      <c s="35" r="K527"/>
+      <c s="36" r="K527"/>
       <c s="28" r="L527"/>
       <c s="20" r="M527"/>
       <c s="20" r="N527"/>
@@ -44127,7 +44127,7 @@
       <c s="7" r="H528"/>
       <c s="7" r="I528"/>
       <c s="7" r="J528"/>
-      <c s="35" r="K528"/>
+      <c s="36" r="K528"/>
       <c s="28" r="L528"/>
       <c s="20" r="M528"/>
       <c s="20" r="N528"/>
@@ -44161,7 +44161,7 @@
       <c s="7" r="H529"/>
       <c s="7" r="I529"/>
       <c s="7" r="J529"/>
-      <c s="35" r="K529"/>
+      <c s="36" r="K529"/>
       <c s="28" r="L529"/>
       <c s="20" r="M529"/>
       <c s="20" r="N529"/>
@@ -44195,7 +44195,7 @@
       <c s="7" r="H530"/>
       <c s="7" r="I530"/>
       <c s="7" r="J530"/>
-      <c s="35" r="K530"/>
+      <c s="36" r="K530"/>
       <c s="28" r="L530"/>
       <c s="20" r="M530"/>
       <c s="20" r="N530"/>
@@ -44229,7 +44229,7 @@
       <c s="7" r="H531"/>
       <c s="7" r="I531"/>
       <c s="7" r="J531"/>
-      <c s="35" r="K531"/>
+      <c s="36" r="K531"/>
       <c s="28" r="L531"/>
       <c s="20" r="M531"/>
       <c s="20" r="N531"/>
@@ -44263,7 +44263,7 @@
       <c s="7" r="H532"/>
       <c s="7" r="I532"/>
       <c s="7" r="J532"/>
-      <c s="35" r="K532"/>
+      <c s="36" r="K532"/>
       <c s="28" r="L532"/>
       <c s="20" r="M532"/>
       <c s="20" r="N532"/>
@@ -44297,7 +44297,7 @@
       <c s="7" r="H533"/>
       <c s="7" r="I533"/>
       <c s="7" r="J533"/>
-      <c s="35" r="K533"/>
+      <c s="36" r="K533"/>
       <c s="28" r="L533"/>
       <c s="20" r="M533"/>
       <c s="20" r="N533"/>
@@ -44331,7 +44331,7 @@
       <c s="7" r="H534"/>
       <c s="7" r="I534"/>
       <c s="7" r="J534"/>
-      <c s="35" r="K534"/>
+      <c s="36" r="K534"/>
       <c s="28" r="L534"/>
       <c s="20" r="M534"/>
       <c s="20" r="N534"/>
@@ -44365,7 +44365,7 @@
       <c s="7" r="H535"/>
       <c s="7" r="I535"/>
       <c s="7" r="J535"/>
-      <c s="35" r="K535"/>
+      <c s="36" r="K535"/>
       <c s="28" r="L535"/>
       <c s="20" r="M535"/>
       <c s="20" r="N535"/>
@@ -44399,7 +44399,7 @@
       <c s="7" r="H536"/>
       <c s="7" r="I536"/>
       <c s="7" r="J536"/>
-      <c s="35" r="K536"/>
+      <c s="36" r="K536"/>
       <c s="28" r="L536"/>
       <c s="20" r="M536"/>
       <c s="20" r="N536"/>
@@ -44433,7 +44433,7 @@
       <c s="7" r="H537"/>
       <c s="7" r="I537"/>
       <c s="7" r="J537"/>
-      <c s="35" r="K537"/>
+      <c s="36" r="K537"/>
       <c s="28" r="L537"/>
       <c s="20" r="M537"/>
       <c s="20" r="N537"/>
@@ -44467,7 +44467,7 @@
       <c s="7" r="H538"/>
       <c s="7" r="I538"/>
       <c s="7" r="J538"/>
-      <c s="35" r="K538"/>
+      <c s="36" r="K538"/>
       <c s="28" r="L538"/>
       <c s="20" r="M538"/>
       <c s="20" r="N538"/>
@@ -44501,7 +44501,7 @@
       <c s="7" r="H539"/>
       <c s="7" r="I539"/>
       <c s="7" r="J539"/>
-      <c s="35" r="K539"/>
+      <c s="36" r="K539"/>
       <c s="28" r="L539"/>
       <c s="20" r="M539"/>
       <c s="20" r="N539"/>
@@ -44535,7 +44535,7 @@
       <c s="7" r="H540"/>
       <c s="7" r="I540"/>
       <c s="7" r="J540"/>
-      <c s="35" r="K540"/>
+      <c s="36" r="K540"/>
       <c s="28" r="L540"/>
       <c s="20" r="M540"/>
       <c s="20" r="N540"/>
@@ -44569,7 +44569,7 @@
       <c s="7" r="H541"/>
       <c s="7" r="I541"/>
       <c s="7" r="J541"/>
-      <c s="35" r="K541"/>
+      <c s="36" r="K541"/>
       <c s="28" r="L541"/>
       <c s="20" r="M541"/>
       <c s="20" r="N541"/>
@@ -44603,7 +44603,7 @@
       <c s="7" r="H542"/>
       <c s="7" r="I542"/>
       <c s="7" r="J542"/>
-      <c s="35" r="K542"/>
+      <c s="36" r="K542"/>
       <c s="28" r="L542"/>
       <c s="20" r="M542"/>
       <c s="20" r="N542"/>
@@ -44637,7 +44637,7 @@
       <c s="7" r="H543"/>
       <c s="7" r="I543"/>
       <c s="7" r="J543"/>
-      <c s="35" r="K543"/>
+      <c s="36" r="K543"/>
       <c s="28" r="L543"/>
       <c s="20" r="M543"/>
       <c s="20" r="N543"/>
@@ -44671,7 +44671,7 @@
       <c s="7" r="H544"/>
       <c s="7" r="I544"/>
       <c s="7" r="J544"/>
-      <c s="35" r="K544"/>
+      <c s="36" r="K544"/>
       <c s="28" r="L544"/>
       <c s="20" r="M544"/>
       <c s="20" r="N544"/>
@@ -44705,7 +44705,7 @@
       <c s="7" r="H545"/>
       <c s="7" r="I545"/>
       <c s="7" r="J545"/>
-      <c s="35" r="K545"/>
+      <c s="36" r="K545"/>
       <c s="28" r="L545"/>
       <c s="20" r="M545"/>
       <c s="20" r="N545"/>
@@ -44739,7 +44739,7 @@
       <c s="7" r="H546"/>
       <c s="7" r="I546"/>
       <c s="7" r="J546"/>
-      <c s="35" r="K546"/>
+      <c s="36" r="K546"/>
       <c s="28" r="L546"/>
       <c s="20" r="M546"/>
       <c s="20" r="N546"/>
@@ -44773,7 +44773,7 @@
       <c s="7" r="H547"/>
       <c s="7" r="I547"/>
       <c s="7" r="J547"/>
-      <c s="35" r="K547"/>
+      <c s="36" r="K547"/>
       <c s="28" r="L547"/>
       <c s="20" r="M547"/>
       <c s="20" r="N547"/>
@@ -44807,7 +44807,7 @@
       <c s="7" r="H548"/>
       <c s="7" r="I548"/>
       <c s="7" r="J548"/>
-      <c s="35" r="K548"/>
+      <c s="36" r="K548"/>
       <c s="28" r="L548"/>
       <c s="20" r="M548"/>
       <c s="20" r="N548"/>
@@ -44841,7 +44841,7 @@
       <c s="7" r="H549"/>
       <c s="7" r="I549"/>
       <c s="7" r="J549"/>
-      <c s="35" r="K549"/>
+      <c s="36" r="K549"/>
       <c s="28" r="L549"/>
       <c s="20" r="M549"/>
       <c s="20" r="N549"/>
@@ -44875,7 +44875,7 @@
       <c s="7" r="H550"/>
       <c s="7" r="I550"/>
       <c s="7" r="J550"/>
-      <c s="35" r="K550"/>
+      <c s="36" r="K550"/>
       <c s="28" r="L550"/>
       <c s="20" r="M550"/>
       <c s="20" r="N550"/>
@@ -44909,7 +44909,7 @@
       <c s="7" r="H551"/>
       <c s="7" r="I551"/>
       <c s="7" r="J551"/>
-      <c s="35" r="K551"/>
+      <c s="36" r="K551"/>
       <c s="28" r="L551"/>
       <c s="20" r="M551"/>
       <c s="20" r="N551"/>
@@ -44943,7 +44943,7 @@
       <c s="7" r="H552"/>
       <c s="7" r="I552"/>
       <c s="7" r="J552"/>
-      <c s="35" r="K552"/>
+      <c s="36" r="K552"/>
       <c s="28" r="L552"/>
       <c s="20" r="M552"/>
       <c s="20" r="N552"/>
@@ -44977,7 +44977,7 @@
       <c s="7" r="H553"/>
       <c s="7" r="I553"/>
       <c s="7" r="J553"/>
-      <c s="35" r="K553"/>
+      <c s="36" r="K553"/>
       <c s="28" r="L553"/>
       <c s="20" r="M553"/>
       <c s="20" r="N553"/>
@@ -45011,7 +45011,7 @@
       <c s="7" r="H554"/>
       <c s="7" r="I554"/>
       <c s="7" r="J554"/>
-      <c s="35" r="K554"/>
+      <c s="36" r="K554"/>
       <c s="28" r="L554"/>
       <c s="20" r="M554"/>
       <c s="20" r="N554"/>
@@ -45045,7 +45045,7 @@
       <c s="7" r="H555"/>
       <c s="7" r="I555"/>
       <c s="7" r="J555"/>
-      <c s="35" r="K555"/>
+      <c s="36" r="K555"/>
       <c s="28" r="L555"/>
       <c s="20" r="M555"/>
       <c s="20" r="N555"/>
@@ -45079,7 +45079,7 @@
       <c s="7" r="H556"/>
       <c s="7" r="I556"/>
       <c s="7" r="J556"/>
-      <c s="35" r="K556"/>
+      <c s="36" r="K556"/>
       <c s="28" r="L556"/>
       <c s="20" r="M556"/>
       <c s="20" r="N556"/>
@@ -45113,7 +45113,7 @@
       <c s="7" r="H557"/>
       <c s="7" r="I557"/>
       <c s="7" r="J557"/>
-      <c s="35" r="K557"/>
+      <c s="36" r="K557"/>
       <c s="28" r="L557"/>
       <c s="20" r="M557"/>
       <c s="20" r="N557"/>
@@ -45147,7 +45147,7 @@
       <c s="7" r="H558"/>
       <c s="7" r="I558"/>
       <c s="7" r="J558"/>
-      <c s="35" r="K558"/>
+      <c s="36" r="K558"/>
       <c s="28" r="L558"/>
       <c s="20" r="M558"/>
       <c s="20" r="N558"/>
@@ -45181,7 +45181,7 @@
       <c s="7" r="H559"/>
       <c s="7" r="I559"/>
       <c s="7" r="J559"/>
-      <c s="35" r="K559"/>
+      <c s="36" r="K559"/>
       <c s="28" r="L559"/>
       <c s="20" r="M559"/>
       <c s="20" r="N559"/>
@@ -45215,7 +45215,7 @@
       <c s="7" r="H560"/>
       <c s="7" r="I560"/>
       <c s="7" r="J560"/>
-      <c s="35" r="K560"/>
+      <c s="36" r="K560"/>
       <c s="28" r="L560"/>
       <c s="20" r="M560"/>
       <c s="20" r="N560"/>
@@ -45249,7 +45249,7 @@
       <c s="7" r="H561"/>
       <c s="7" r="I561"/>
       <c s="7" r="J561"/>
-      <c s="35" r="K561"/>
+      <c s="36" r="K561"/>
       <c s="28" r="L561"/>
       <c s="20" r="M561"/>
       <c s="20" r="N561"/>
@@ -45283,7 +45283,7 @@
       <c s="7" r="H562"/>
       <c s="7" r="I562"/>
       <c s="7" r="J562"/>
-      <c s="35" r="K562"/>
+      <c s="36" r="K562"/>
       <c s="28" r="L562"/>
       <c s="20" r="M562"/>
       <c s="20" r="N562"/>
@@ -45317,7 +45317,7 @@
       <c s="7" r="H563"/>
       <c s="7" r="I563"/>
       <c s="7" r="J563"/>
-      <c s="35" r="K563"/>
+      <c s="36" r="K563"/>
       <c s="28" r="L563"/>
       <c s="20" r="M563"/>
       <c s="20" r="N563"/>
@@ -45351,7 +45351,7 @@
       <c s="7" r="H564"/>
       <c s="7" r="I564"/>
       <c s="7" r="J564"/>
-      <c s="35" r="K564"/>
+      <c s="36" r="K564"/>
       <c s="28" r="L564"/>
       <c s="20" r="M564"/>
       <c s="20" r="N564"/>
@@ -45385,7 +45385,7 @@
       <c s="7" r="H565"/>
       <c s="7" r="I565"/>
       <c s="7" r="J565"/>
-      <c s="35" r="K565"/>
+      <c s="36" r="K565"/>
       <c s="28" r="L565"/>
       <c s="20" r="M565"/>
       <c s="20" r="N565"/>
@@ -45419,7 +45419,7 @@
       <c s="7" r="H566"/>
       <c s="7" r="I566"/>
       <c s="7" r="J566"/>
-      <c s="35" r="K566"/>
+      <c s="36" r="K566"/>
       <c s="28" r="L566"/>
       <c s="20" r="M566"/>
       <c s="20" r="N566"/>
@@ -45453,7 +45453,7 @@
       <c s="7" r="H567"/>
       <c s="7" r="I567"/>
       <c s="7" r="J567"/>
-      <c s="35" r="K567"/>
+      <c s="36" r="K567"/>
       <c s="28" r="L567"/>
       <c s="20" r="M567"/>
       <c s="20" r="N567"/>
@@ -45487,7 +45487,7 @@
       <c s="7" r="H568"/>
       <c s="7" r="I568"/>
       <c s="7" r="J568"/>
-      <c s="35" r="K568"/>
+      <c s="36" r="K568"/>
       <c s="28" r="L568"/>
       <c s="20" r="M568"/>
       <c s="20" r="N568"/>
@@ -45521,7 +45521,7 @@
       <c s="7" r="H569"/>
       <c s="7" r="I569"/>
       <c s="7" r="J569"/>
-      <c s="35" r="K569"/>
+      <c s="36" r="K569"/>
       <c s="28" r="L569"/>
       <c s="20" r="M569"/>
       <c s="20" r="N569"/>
@@ -45555,7 +45555,7 @@
       <c s="7" r="H570"/>
       <c s="7" r="I570"/>
       <c s="7" r="J570"/>
-      <c s="35" r="K570"/>
+      <c s="36" r="K570"/>
       <c s="28" r="L570"/>
       <c s="20" r="M570"/>
       <c s="20" r="N570"/>
@@ -45589,7 +45589,7 @@
       <c s="7" r="H571"/>
       <c s="7" r="I571"/>
       <c s="7" r="J571"/>
-      <c s="35" r="K571"/>
+      <c s="36" r="K571"/>
       <c s="28" r="L571"/>
       <c s="20" r="M571"/>
       <c s="20" r="N571"/>
@@ -45623,7 +45623,7 @@
       <c s="7" r="H572"/>
       <c s="7" r="I572"/>
       <c s="7" r="J572"/>
-      <c s="35" r="K572"/>
+      <c s="36" r="K572"/>
       <c s="28" r="L572"/>
       <c s="20" r="M572"/>
       <c s="20" r="N572"/>
@@ -45657,7 +45657,7 @@
       <c s="7" r="H573"/>
       <c s="7" r="I573"/>
       <c s="7" r="J573"/>
-      <c s="35" r="K573"/>
+      <c s="36" r="K573"/>
       <c s="28" r="L573"/>
       <c s="20" r="M573"/>
       <c s="20" r="N573"/>
@@ -45691,7 +45691,7 @@
       <c s="7" r="H574"/>
       <c s="7" r="I574"/>
       <c s="7" r="J574"/>
-      <c s="35" r="K574"/>
+      <c s="36" r="K574"/>
       <c s="28" r="L574"/>
       <c s="20" r="M574"/>
       <c s="20" r="N574"/>
@@ -45725,7 +45725,7 @@
       <c s="7" r="H575"/>
       <c s="7" r="I575"/>
       <c s="7" r="J575"/>
-      <c s="35" r="K575"/>
+      <c s="36" r="K575"/>
       <c s="28" r="L575"/>
       <c s="20" r="M575"/>
       <c s="20" r="N575"/>
@@ -45759,7 +45759,7 @@
       <c s="7" r="H576"/>
       <c s="7" r="I576"/>
       <c s="7" r="J576"/>
-      <c s="35" r="K576"/>
+      <c s="36" r="K576"/>
       <c s="28" r="L576"/>
       <c s="20" r="M576"/>
       <c s="20" r="N576"/>
@@ -45793,7 +45793,7 @@
       <c s="7" r="H577"/>
       <c s="7" r="I577"/>
       <c s="7" r="J577"/>
-      <c s="35" r="K577"/>
+      <c s="36" r="K577"/>
       <c s="28" r="L577"/>
       <c s="20" r="M577"/>
       <c s="20" r="N577"/>
@@ -45827,7 +45827,7 @@
       <c s="7" r="H578"/>
       <c s="7" r="I578"/>
       <c s="7" r="J578"/>
-      <c s="35" r="K578"/>
+      <c s="36" r="K578"/>
       <c s="28" r="L578"/>
       <c s="20" r="M578"/>
       <c s="20" r="N578"/>
@@ -45861,7 +45861,7 @@
       <c s="7" r="H579"/>
       <c s="7" r="I579"/>
       <c s="7" r="J579"/>
-      <c s="35" r="K579"/>
+      <c s="36" r="K579"/>
       <c s="28" r="L579"/>
       <c s="20" r="M579"/>
       <c s="20" r="N579"/>
@@ -45895,7 +45895,7 @@
       <c s="7" r="H580"/>
       <c s="7" r="I580"/>
       <c s="7" r="J580"/>
-      <c s="35" r="K580"/>
+      <c s="36" r="K580"/>
       <c s="28" r="L580"/>
       <c s="20" r="M580"/>
       <c s="20" r="N580"/>
@@ -45929,7 +45929,7 @@
       <c s="7" r="H581"/>
       <c s="7" r="I581"/>
       <c s="7" r="J581"/>
-      <c s="35" r="K581"/>
+      <c s="36" r="K581"/>
       <c s="28" r="L581"/>
       <c s="20" r="M581"/>
       <c s="20" r="N581"/>
@@ -45963,7 +45963,7 @@
       <c s="7" r="H582"/>
       <c s="7" r="I582"/>
       <c s="7" r="J582"/>
-      <c s="35" r="K582"/>
+      <c s="36" r="K582"/>
       <c s="28" r="L582"/>
       <c s="20" r="M582"/>
       <c s="20" r="N582"/>
@@ -45997,7 +45997,7 @@
       <c s="7" r="H583"/>
       <c s="7" r="I583"/>
       <c s="7" r="J583"/>
-      <c s="35" r="K583"/>
+      <c s="36" r="K583"/>
       <c s="28" r="L583"/>
       <c s="20" r="M583"/>
       <c s="20" r="N583"/>
@@ -46031,7 +46031,7 @@
       <c s="7" r="H584"/>
       <c s="7" r="I584"/>
       <c s="7" r="J584"/>
-      <c s="35" r="K584"/>
+      <c s="36" r="K584"/>
       <c s="28" r="L584"/>
       <c s="20" r="M584"/>
       <c s="20" r="N584"/>
@@ -46065,7 +46065,7 @@
       <c s="7" r="H585"/>
       <c s="7" r="I585"/>
       <c s="7" r="J585"/>
-      <c s="35" r="K585"/>
+      <c s="36" r="K585"/>
       <c s="28" r="L585"/>
       <c s="20" r="M585"/>
       <c s="20" r="N585"/>
@@ -46099,7 +46099,7 @@
       <c s="7" r="H586"/>
       <c s="7" r="I586"/>
       <c s="7" r="J586"/>
-      <c s="35" r="K586"/>
+      <c s="36" r="K586"/>
       <c s="28" r="L586"/>
       <c s="20" r="M586"/>
       <c s="20" r="N586"/>
@@ -46133,7 +46133,7 @@
       <c s="7" r="H587"/>
       <c s="7" r="I587"/>
       <c s="7" r="J587"/>
-      <c s="35" r="K587"/>
+      <c s="36" r="K587"/>
       <c s="28" r="L587"/>
       <c s="20" r="M587"/>
       <c s="20" r="N587"/>
@@ -46167,7 +46167,7 @@
       <c s="7" r="H588"/>
       <c s="7" r="I588"/>
       <c s="7" r="J588"/>
-      <c s="35" r="K588"/>
+      <c s="36" r="K588"/>
       <c s="28" r="L588"/>
       <c s="20" r="M588"/>
       <c s="20" r="N588"/>
@@ -46201,7 +46201,7 @@
       <c s="7" r="H589"/>
       <c s="7" r="I589"/>
       <c s="7" r="J589"/>
-      <c s="35" r="K589"/>
+      <c s="36" r="K589"/>
       <c s="28" r="L589"/>
       <c s="20" r="M589"/>
       <c s="20" r="N589"/>
@@ -46235,7 +46235,7 @@
       <c s="7" r="H590"/>
       <c s="7" r="I590"/>
       <c s="7" r="J590"/>
-      <c s="35" r="K590"/>
+      <c s="36" r="K590"/>
       <c s="28" r="L590"/>
       <c s="20" r="M590"/>
       <c s="20" r="N590"/>
@@ -46269,7 +46269,7 @@
       <c s="7" r="H591"/>
       <c s="7" r="I591"/>
       <c s="7" r="J591"/>
-      <c s="35" r="K591"/>
+      <c s="36" r="K591"/>
       <c s="28" r="L591"/>
       <c s="20" r="M591"/>
       <c s="20" r="N591"/>
@@ -46303,7 +46303,7 @@
       <c s="7" r="H592"/>
       <c s="7" r="I592"/>
       <c s="7" r="J592"/>
-      <c s="35" r="K592"/>
+      <c s="36" r="K592"/>
       <c s="28" r="L592"/>
       <c s="20" r="M592"/>
       <c s="20" r="N592"/>
@@ -46337,7 +46337,7 @@
       <c s="7" r="H593"/>
       <c s="7" r="I593"/>
       <c s="7" r="J593"/>
-      <c s="35" r="K593"/>
+      <c s="36" r="K593"/>
       <c s="28" r="L593"/>
       <c s="20" r="M593"/>
       <c s="20" r="N593"/>
@@ -46371,7 +46371,7 @@
       <c s="7" r="H594"/>
       <c s="7" r="I594"/>
       <c s="7" r="J594"/>
-      <c s="35" r="K594"/>
+      <c s="36" r="K594"/>
       <c s="28" r="L594"/>
       <c s="20" r="M594"/>
       <c s="20" r="N594"/>
@@ -46405,7 +46405,7 @@
       <c s="7" r="H595"/>
       <c s="7" r="I595"/>
       <c s="7" r="J595"/>
-      <c s="35" r="K595"/>
+      <c s="36" r="K595"/>
       <c s="28" r="L595"/>
       <c s="20" r="M595"/>
       <c s="20" r="N595"/>
@@ -46439,7 +46439,7 @@
       <c s="7" r="H596"/>
       <c s="7" r="I596"/>
       <c s="7" r="J596"/>
-      <c s="35" r="K596"/>
+      <c s="36" r="K596"/>
       <c s="28" r="L596"/>
       <c s="20" r="M596"/>
       <c s="20" r="N596"/>
@@ -46473,7 +46473,7 @@
       <c s="7" r="H597"/>
       <c s="7" r="I597"/>
       <c s="7" r="J597"/>
-      <c s="35" r="K597"/>
+      <c s="36" r="K597"/>
       <c s="28" r="L597"/>
       <c s="20" r="M597"/>
       <c s="20" r="N597"/>
@@ -46507,7 +46507,7 @@
       <c s="7" r="H598"/>
       <c s="7" r="I598"/>
       <c s="7" r="J598"/>
-      <c s="35" r="K598"/>
+      <c s="36" r="K598"/>
       <c s="28" r="L598"/>
       <c s="20" r="M598"/>
       <c s="20" r="N598"/>
@@ -46541,7 +46541,7 @@
       <c s="7" r="H599"/>
       <c s="7" r="I599"/>
       <c s="7" r="J599"/>
-      <c s="35" r="K599"/>
+      <c s="36" r="K599"/>
       <c s="28" r="L599"/>
       <c s="20" r="M599"/>
       <c s="20" r="N599"/>
@@ -46575,7 +46575,7 @@
       <c s="7" r="H600"/>
       <c s="7" r="I600"/>
       <c s="7" r="J600"/>
-      <c s="35" r="K600"/>
+      <c s="36" r="K600"/>
       <c s="28" r="L600"/>
       <c s="20" r="M600"/>
       <c s="20" r="N600"/>
@@ -46609,7 +46609,7 @@
       <c s="7" r="H601"/>
       <c s="7" r="I601"/>
       <c s="7" r="J601"/>
-      <c s="35" r="K601"/>
+      <c s="36" r="K601"/>
       <c s="28" r="L601"/>
       <c s="20" r="M601"/>
       <c s="20" r="N601"/>
@@ -46643,7 +46643,7 @@
       <c s="7" r="H602"/>
       <c s="7" r="I602"/>
       <c s="7" r="J602"/>
-      <c s="35" r="K602"/>
+      <c s="36" r="K602"/>
       <c s="28" r="L602"/>
       <c s="20" r="M602"/>
       <c s="20" r="N602"/>
@@ -46677,7 +46677,7 @@
       <c s="7" r="H603"/>
       <c s="7" r="I603"/>
       <c s="7" r="J603"/>
-      <c s="35" r="K603"/>
+      <c s="36" r="K603"/>
       <c s="28" r="L603"/>
       <c s="20" r="M603"/>
       <c s="20" r="N603"/>
@@ -46711,7 +46711,7 @@
       <c s="7" r="H604"/>
       <c s="7" r="I604"/>
       <c s="7" r="J604"/>
-      <c s="35" r="K604"/>
+      <c s="36" r="K604"/>
       <c s="28" r="L604"/>
       <c s="20" r="M604"/>
       <c s="20" r="N604"/>
@@ -46745,7 +46745,7 @@
       <c s="7" r="H605"/>
       <c s="7" r="I605"/>
       <c s="7" r="J605"/>
-      <c s="35" r="K605"/>
+      <c s="36" r="K605"/>
       <c s="28" r="L605"/>
       <c s="20" r="M605"/>
       <c s="20" r="N605"/>
@@ -46779,7 +46779,7 @@
       <c s="7" r="H606"/>
       <c s="7" r="I606"/>
       <c s="7" r="J606"/>
-      <c s="35" r="K606"/>
+      <c s="36" r="K606"/>
       <c s="28" r="L606"/>
       <c s="20" r="M606"/>
       <c s="20" r="N606"/>
@@ -46813,7 +46813,7 @@
       <c s="7" r="H607"/>
       <c s="7" r="I607"/>
       <c s="7" r="J607"/>
-      <c s="35" r="K607"/>
+      <c s="36" r="K607"/>
       <c s="28" r="L607"/>
       <c s="20" r="M607"/>
       <c s="20" r="N607"/>
@@ -46847,7 +46847,7 @@
       <c s="7" r="H608"/>
       <c s="7" r="I608"/>
       <c s="7" r="J608"/>
-      <c s="35" r="K608"/>
+      <c s="36" r="K608"/>
       <c s="28" r="L608"/>
       <c s="20" r="M608"/>
       <c s="20" r="N608"/>
@@ -46881,7 +46881,7 @@
       <c s="7" r="H609"/>
       <c s="7" r="I609"/>
       <c s="7" r="J609"/>
-      <c s="35" r="K609"/>
+      <c s="36" r="K609"/>
       <c s="28" r="L609"/>
       <c s="20" r="M609"/>
       <c s="20" r="N609"/>
@@ -46915,7 +46915,7 @@
       <c s="7" r="H610"/>
       <c s="7" r="I610"/>
       <c s="7" r="J610"/>
-      <c s="35" r="K610"/>
+      <c s="36" r="K610"/>
       <c s="28" r="L610"/>
       <c s="20" r="M610"/>
       <c s="20" r="N610"/>
@@ -46949,7 +46949,7 @@
       <c s="7" r="H611"/>
       <c s="7" r="I611"/>
       <c s="7" r="J611"/>
-      <c s="35" r="K611"/>
+      <c s="36" r="K611"/>
       <c s="28" r="L611"/>
       <c s="20" r="M611"/>
       <c s="20" r="N611"/>
@@ -46983,7 +46983,7 @@
       <c s="7" r="H612"/>
       <c s="7" r="I612"/>
       <c s="7" r="J612"/>
-      <c s="35" r="K612"/>
+      <c s="36" r="K612"/>
       <c s="28" r="L612"/>
       <c s="20" r="M612"/>
       <c s="20" r="N612"/>
@@ -47017,7 +47017,7 @@
       <c s="7" r="H613"/>
       <c s="7" r="I613"/>
       <c s="7" r="J613"/>
-      <c s="35" r="K613"/>
+      <c s="36" r="K613"/>
       <c s="28" r="L613"/>
       <c s="20" r="M613"/>
       <c s="20" r="N613"/>
@@ -47051,7 +47051,7 @@
       <c s="7" r="H614"/>
       <c s="7" r="I614"/>
       <c s="7" r="J614"/>
-      <c s="35" r="K614"/>
+      <c s="36" r="K614"/>
       <c s="28" r="L614"/>
       <c s="20" r="M614"/>
       <c s="20" r="N614"/>
@@ -47085,7 +47085,7 @@
       <c s="7" r="H615"/>
       <c s="7" r="I615"/>
       <c s="7" r="J615"/>
-      <c s="35" r="K615"/>
+      <c s="36" r="K615"/>
       <c s="28" r="L615"/>
       <c s="20" r="M615"/>
       <c s="20" r="N615"/>
@@ -47119,7 +47119,7 @@
       <c s="7" r="H616"/>
       <c s="7" r="I616"/>
       <c s="7" r="J616"/>
-      <c s="35" r="K616"/>
+      <c s="36" r="K616"/>
       <c s="28" r="L616"/>
       <c s="20" r="M616"/>
       <c s="20" r="N616"/>
@@ -47153,7 +47153,7 @@
       <c s="7" r="H617"/>
       <c s="7" r="I617"/>
       <c s="7" r="J617"/>
-      <c s="35" r="K617"/>
+      <c s="36" r="K617"/>
       <c s="28" r="L617"/>
       <c s="20" r="M617"/>
       <c s="20" r="N617"/>
@@ -47187,7 +47187,7 @@
       <c s="7" r="H618"/>
       <c s="7" r="I618"/>
       <c s="7" r="J618"/>
-      <c s="35" r="K618"/>
+      <c s="36" r="K618"/>
       <c s="28" r="L618"/>
       <c s="20" r="M618"/>
       <c s="20" r="N618"/>
@@ -47221,7 +47221,7 @@
       <c s="7" r="H619"/>
       <c s="7" r="I619"/>
       <c s="7" r="J619"/>
-      <c s="35" r="K619"/>
+      <c s="36" r="K619"/>
       <c s="28" r="L619"/>
       <c s="20" r="M619"/>
       <c s="20" r="N619"/>
@@ -47255,7 +47255,7 @@
       <c s="7" r="H620"/>
       <c s="7" r="I620"/>
       <c s="7" r="J620"/>
-      <c s="35" r="K620"/>
+      <c s="36" r="K620"/>
       <c s="28" r="L620"/>
       <c s="20" r="M620"/>
       <c s="20" r="N620"/>
@@ -47289,7 +47289,7 @@
       <c s="7" r="H621"/>
       <c s="7" r="I621"/>
       <c s="7" r="J621"/>
-      <c s="35" r="K621"/>
+      <c s="36" r="K621"/>
       <c s="28" r="L621"/>
       <c s="20" r="M621"/>
       <c s="20" r="N621"/>
@@ -47323,7 +47323,7 @@
       <c s="7" r="H622"/>
       <c s="7" r="I622"/>
       <c s="7" r="J622"/>
-      <c s="35" r="K622"/>
+      <c s="36" r="K622"/>
       <c s="28" r="L622"/>
       <c s="20" r="M622"/>
       <c s="20" r="N622"/>
@@ -47357,7 +47357,7 @@
       <c s="7" r="H623"/>
       <c s="7" r="I623"/>
       <c s="7" r="J623"/>
-      <c s="35" r="K623"/>
+      <c s="36" r="K623"/>
       <c s="28" r="L623"/>
       <c s="20" r="M623"/>
       <c s="20" r="N623"/>
@@ -47391,7 +47391,7 @@
       <c s="7" r="H624"/>
       <c s="7" r="I624"/>
       <c s="7" r="J624"/>
-      <c s="35" r="K624"/>
+      <c s="36" r="K624"/>
       <c s="28" r="L624"/>
       <c s="20" r="M624"/>
       <c s="20" r="N624"/>
@@ -47425,7 +47425,7 @@
       <c s="7" r="H625"/>
       <c s="7" r="I625"/>
       <c s="7" r="J625"/>
-      <c s="35" r="K625"/>
+      <c s="36" r="K625"/>
       <c s="28" r="L625"/>
       <c s="20" r="M625"/>
       <c s="20" r="N625"/>
@@ -47459,7 +47459,7 @@
       <c s="7" r="H626"/>
       <c s="7" r="I626"/>
       <c s="7" r="J626"/>
-      <c s="35" r="K626"/>
+      <c s="36" r="K626"/>
       <c s="28" r="L626"/>
       <c s="20" r="M626"/>
       <c s="20" r="N626"/>
@@ -47493,7 +47493,7 @@
       <c s="7" r="H627"/>
       <c s="7" r="I627"/>
       <c s="7" r="J627"/>
-      <c s="35" r="K627"/>
+      <c s="36" r="K627"/>
       <c s="28" r="L627"/>
       <c s="20" r="M627"/>
       <c s="20" r="N627"/>
@@ -47527,7 +47527,7 @@
       <c s="7" r="H628"/>
       <c s="7" r="I628"/>
       <c s="7" r="J628"/>
-      <c s="35" r="K628"/>
+      <c s="36" r="K628"/>
       <c s="28" r="L628"/>
       <c s="20" r="M628"/>
       <c s="20" r="N628"/>
@@ -47561,7 +47561,7 @@
       <c s="7" r="H629"/>
       <c s="7" r="I629"/>
       <c s="7" r="J629"/>
-      <c s="35" r="K629"/>
+      <c s="36" r="K629"/>
       <c s="28" r="L629"/>
       <c s="20" r="M629"/>
       <c s="20" r="N629"/>
@@ -47595,7 +47595,7 @@
       <c s="7" r="H630"/>
       <c s="7" r="I630"/>
       <c s="7" r="J630"/>
-      <c s="35" r="K630"/>
+      <c s="36" r="K630"/>
       <c s="28" r="L630"/>
       <c s="20" r="M630"/>
       <c s="20" r="N630"/>
@@ -47629,7 +47629,7 @@
       <c s="7" r="H631"/>
       <c s="7" r="I631"/>
       <c s="7" r="J631"/>
-      <c s="35" r="K631"/>
+      <c s="36" r="K631"/>
       <c s="28" r="L631"/>
       <c s="20" r="M631"/>
       <c s="20" r="N631"/>
@@ -47663,7 +47663,7 @@
       <c s="7" r="H632"/>
       <c s="7" r="I632"/>
       <c s="7" r="J632"/>
-      <c s="35" r="K632"/>
+      <c s="36" r="K632"/>
       <c s="28" r="L632"/>
       <c s="20" r="M632"/>
       <c s="20" r="N632"/>
@@ -47697,7 +47697,7 @@
       <c s="7" r="H633"/>
       <c s="7" r="I633"/>
       <c s="7" r="J633"/>
-      <c s="35" r="K633"/>
+      <c s="36" r="K633"/>
       <c s="28" r="L633"/>
       <c s="20" r="M633"/>
       <c s="20" r="N633"/>
@@ -47731,7 +47731,7 @@
       <c s="7" r="H634"/>
       <c s="7" r="I634"/>
       <c s="7" r="J634"/>
-      <c s="35" r="K634"/>
+      <c s="36" r="K634"/>
       <c s="28" r="L634"/>
       <c s="20" r="M634"/>
       <c s="20" r="N634"/>
@@ -47765,7 +47765,7 @@
       <c s="7" r="H635"/>
       <c s="7" r="I635"/>
       <c s="7" r="J635"/>
-      <c s="35" r="K635"/>
+      <c s="36" r="K635"/>
       <c s="28" r="L635"/>
       <c s="20" r="M635"/>
       <c s="20" r="N635"/>
@@ -47799,7 +47799,7 @@
       <c s="7" r="H636"/>
       <c s="7" r="I636"/>
       <c s="7" r="J636"/>
-      <c s="35" r="K636"/>
+      <c s="36" r="K636"/>
       <c s="28" r="L636"/>
       <c s="20" r="M636"/>
       <c s="20" r="N636"/>
@@ -47833,7 +47833,7 @@
       <c s="7" r="H637"/>
       <c s="7" r="I637"/>
       <c s="7" r="J637"/>
-      <c s="35" r="K637"/>
+      <c s="36" r="K637"/>
       <c s="28" r="L637"/>
       <c s="20" r="M637"/>
       <c s="20" r="N637"/>
@@ -47867,7 +47867,7 @@
       <c s="7" r="H638"/>
       <c s="7" r="I638"/>
       <c s="7" r="J638"/>
-      <c s="35" r="K638"/>
+      <c s="36" r="K638"/>
       <c s="28" r="L638"/>
       <c s="20" r="M638"/>
       <c s="20" r="N638"/>
@@ -47901,7 +47901,7 @@
       <c s="7" r="H639"/>
       <c s="7" r="I639"/>
       <c s="7" r="J639"/>
-      <c s="35" r="K639"/>
+      <c s="36" r="K639"/>
       <c s="28" r="L639"/>
       <c s="20" r="M639"/>
       <c s="20" r="N639"/>
@@ -47935,7 +47935,7 @@
       <c s="7" r="H640"/>
       <c s="7" r="I640"/>
       <c s="7" r="J640"/>
-      <c s="35" r="K640"/>
+      <c s="36" r="K640"/>
       <c s="28" r="L640"/>
       <c s="20" r="M640"/>
       <c s="20" r="N640"/>
@@ -47969,7 +47969,7 @@
       <c s="7" r="H641"/>
       <c s="7" r="I641"/>
       <c s="7" r="J641"/>
-      <c s="35" r="K641"/>
+      <c s="36" r="K641"/>
       <c s="28" r="L641"/>
       <c s="20" r="M641"/>
       <c s="20" r="N641"/>
@@ -48003,7 +48003,7 @@
       <c s="7" r="H642"/>
       <c s="7" r="I642"/>
       <c s="7" r="J642"/>
-      <c s="35" r="K642"/>
+      <c s="36" r="K642"/>
       <c s="28" r="L642"/>
       <c s="20" r="M642"/>
       <c s="20" r="N642"/>
@@ -48037,7 +48037,7 @@
       <c s="7" r="H643"/>
       <c s="7" r="I643"/>
       <c s="7" r="J643"/>
-      <c s="35" r="K643"/>
+      <c s="36" r="K643"/>
       <c s="28" r="L643"/>
       <c s="20" r="M643"/>
       <c s="20" r="N643"/>
@@ -48071,7 +48071,7 @@
       <c s="7" r="H644"/>
       <c s="7" r="I644"/>
       <c s="7" r="J644"/>
-      <c s="35" r="K644"/>
+      <c s="36" r="K644"/>
       <c s="28" r="L644"/>
       <c s="20" r="M644"/>
       <c s="20" r="N644"/>
@@ -48105,7 +48105,7 @@
       <c s="7" r="H645"/>
       <c s="7" r="I645"/>
       <c s="7" r="J645"/>
-      <c s="35" r="K645"/>
+      <c s="36" r="K645"/>
       <c s="28" r="L645"/>
       <c s="20" r="M645"/>
       <c s="20" r="N645"/>
@@ -48139,7 +48139,7 @@
       <c s="7" r="H646"/>
       <c s="7" r="I646"/>
       <c s="7" r="J646"/>
-      <c s="35" r="K646"/>
+      <c s="36" r="K646"/>
       <c s="28" r="L646"/>
       <c s="20" r="M646"/>
       <c s="20" r="N646"/>
@@ -48173,7 +48173,7 @@
       <c s="7" r="H647"/>
       <c s="7" r="I647"/>
       <c s="7" r="J647"/>
-      <c s="35" r="K647"/>
+      <c s="36" r="K647"/>
       <c s="28" r="L647"/>
       <c s="20" r="M647"/>
       <c s="20" r="N647"/>
@@ -48207,7 +48207,7 @@
       <c s="7" r="H648"/>
       <c s="7" r="I648"/>
       <c s="7" r="J648"/>
-      <c s="35" r="K648"/>
+      <c s="36" r="K648"/>
       <c s="28" r="L648"/>
       <c s="20" r="M648"/>
       <c s="20" r="N648"/>
@@ -48241,7 +48241,7 @@
       <c s="7" r="H649"/>
       <c s="7" r="I649"/>
       <c s="7" r="J649"/>
-      <c s="35" r="K649"/>
+      <c s="36" r="K649"/>
       <c s="28" r="L649"/>
       <c s="20" r="M649"/>
       <c s="20" r="N649"/>
@@ -48275,7 +48275,7 @@
       <c s="7" r="H650"/>
       <c s="7" r="I650"/>
       <c s="7" r="J650"/>
-      <c s="35" r="K650"/>
+      <c s="36" r="K650"/>
       <c s="28" r="L650"/>
       <c s="20" r="M650"/>
       <c s="20" r="N650"/>
@@ -48309,7 +48309,7 @@
       <c s="7" r="H651"/>
       <c s="7" r="I651"/>
       <c s="7" r="J651"/>
-      <c s="35" r="K651"/>
+      <c s="36" r="K651"/>
       <c s="28" r="L651"/>
       <c s="20" r="M651"/>
       <c s="20" r="N651"/>
@@ -48343,7 +48343,7 @@
       <c s="7" r="H652"/>
       <c s="7" r="I652"/>
       <c s="7" r="J652"/>
-      <c s="35" r="K652"/>
+      <c s="36" r="K652"/>
       <c s="28" r="L652"/>
       <c s="20" r="M652"/>
       <c s="20" r="N652"/>
@@ -48377,7 +48377,7 @@
       <c s="7" r="H653"/>
       <c s="7" r="I653"/>
       <c s="7" r="J653"/>
-      <c s="35" r="K653"/>
+      <c s="36" r="K653"/>
       <c s="28" r="L653"/>
       <c s="20" r="M653"/>
       <c s="20" r="N653"/>
@@ -48411,7 +48411,7 @@
       <c s="7" r="H654"/>
       <c s="7" r="I654"/>
       <c s="7" r="J654"/>
-      <c s="35" r="K654"/>
+      <c s="36" r="K654"/>
       <c s="28" r="L654"/>
       <c s="20" r="M654"/>
       <c s="20" r="N654"/>
@@ -48445,7 +48445,7 @@
       <c s="7" r="H655"/>
       <c s="7" r="I655"/>
       <c s="7" r="J655"/>
-      <c s="35" r="K655"/>
+      <c s="36" r="K655"/>
       <c s="28" r="L655"/>
       <c s="20" r="M655"/>
       <c s="20" r="N655"/>
@@ -48479,7 +48479,7 @@
       <c s="7" r="H656"/>
       <c s="7" r="I656"/>
       <c s="7" r="J656"/>
-      <c s="35" r="K656"/>
+      <c s="36" r="K656"/>
       <c s="28" r="L656"/>
       <c s="20" r="M656"/>
       <c s="20" r="N656"/>
@@ -48513,7 +48513,7 @@
       <c s="7" r="H657"/>
       <c s="7" r="I657"/>
       <c s="7" r="J657"/>
-      <c s="35" r="K657"/>
+      <c s="36" r="K657"/>
       <c s="28" r="L657"/>
       <c s="20" r="M657"/>
       <c s="20" r="N657"/>
@@ -48547,7 +48547,7 @@
       <c s="7" r="H658"/>
       <c s="7" r="I658"/>
       <c s="7" r="J658"/>
-      <c s="35" r="K658"/>
+      <c s="36" r="K658"/>
       <c s="28" r="L658"/>
       <c s="20" r="M658"/>
       <c s="20" r="N658"/>
@@ -48581,7 +48581,7 @@
       <c s="7" r="H659"/>
       <c s="7" r="I659"/>
       <c s="7" r="J659"/>
-      <c s="35" r="K659"/>
+      <c s="36" r="K659"/>
       <c s="28" r="L659"/>
       <c s="20" r="M659"/>
       <c s="20" r="N659"/>
@@ -48615,7 +48615,7 @@
       <c s="7" r="H660"/>
       <c s="7" r="I660"/>
       <c s="7" r="J660"/>
-      <c s="35" r="K660"/>
+      <c s="36" r="K660"/>
       <c s="28" r="L660"/>
       <c s="20" r="M660"/>
       <c s="20" r="N660"/>
@@ -48649,7 +48649,7 @@
       <c s="7" r="H661"/>
       <c s="7" r="I661"/>
       <c s="7" r="J661"/>
-      <c s="35" r="K661"/>
+      <c s="36" r="K661"/>
       <c s="28" r="L661"/>
       <c s="20" r="M661"/>
       <c s="20" r="N661"/>
@@ -48683,7 +48683,7 @@
       <c s="7" r="H662"/>
       <c s="7" r="I662"/>
       <c s="7" r="J662"/>
-      <c s="35" r="K662"/>
+      <c s="36" r="K662"/>
       <c s="28" r="L662"/>
       <c s="20" r="M662"/>
       <c s="20" r="N662"/>
@@ -48717,7 +48717,7 @@
       <c s="7" r="H663"/>
       <c s="7" r="I663"/>
       <c s="7" r="J663"/>
-      <c s="35" r="K663"/>
+      <c s="36" r="K663"/>
       <c s="28" r="L663"/>
       <c s="20" r="M663"/>
       <c s="20" r="N663"/>
@@ -48751,7 +48751,7 @@
       <c s="7" r="H664"/>
       <c s="7" r="I664"/>
       <c s="7" r="J664"/>
-      <c s="35" r="K664"/>
+      <c s="36" r="K664"/>
       <c s="28" r="L664"/>
       <c s="20" r="M664"/>
       <c s="20" r="N664"/>
@@ -48785,7 +48785,7 @@
       <c s="7" r="H665"/>
       <c s="7" r="I665"/>
       <c s="7" r="J665"/>
-      <c s="35" r="K665"/>
+      <c s="36" r="K665"/>
       <c s="28" r="L665"/>
       <c s="20" r="M665"/>
       <c s="20" r="N665"/>
@@ -48819,7 +48819,7 @@
       <c s="7" r="H666"/>
       <c s="7" r="I666"/>
       <c s="7" r="J666"/>
-      <c s="35" r="K666"/>
+      <c s="36" r="K666"/>
       <c s="28" r="L666"/>
       <c s="20" r="M666"/>
       <c s="20" r="N666"/>
@@ -48853,7 +48853,7 @@
       <c s="7" r="H667"/>
       <c s="7" r="I667"/>
       <c s="7" r="J667"/>
-      <c s="35" r="K667"/>
+      <c s="36" r="K667"/>
       <c s="28" r="L667"/>
       <c s="20" r="M667"/>
       <c s="20" r="N667"/>
@@ -48887,7 +48887,7 @@
       <c s="7" r="H668"/>
       <c s="7" r="I668"/>
       <c s="7" r="J668"/>
-      <c s="35" r="K668"/>
+      <c s="36" r="K668"/>
       <c s="28" r="L668"/>
       <c s="20" r="M668"/>
       <c s="20" r="N668"/>
@@ -48921,7 +48921,7 @@
       <c s="7" r="H669"/>
       <c s="7" r="I669"/>
       <c s="7" r="J669"/>
-      <c s="35" r="K669"/>
+      <c s="36" r="K669"/>
       <c s="28" r="L669"/>
       <c s="20" r="M669"/>
       <c s="20" r="N669"/>
@@ -48955,7 +48955,7 @@
       <c s="7" r="H670"/>
       <c s="7" r="I670"/>
       <c s="7" r="J670"/>
-      <c s="35" r="K670"/>
+      <c s="36" r="K670"/>
       <c s="28" r="L670"/>
       <c s="20" r="M670"/>
       <c s="20" r="N670"/>
@@ -48989,7 +48989,7 @@
       <c s="7" r="H671"/>
       <c s="7" r="I671"/>
       <c s="7" r="J671"/>
-      <c s="35" r="K671"/>
+      <c s="36" r="K671"/>
       <c s="28" r="L671"/>
       <c s="20" r="M671"/>
       <c s="20" r="N671"/>
@@ -49023,7 +49023,7 @@
       <c s="7" r="H672"/>
       <c s="7" r="I672"/>
       <c s="7" r="J672"/>
-      <c s="35" r="K672"/>
+      <c s="36" r="K672"/>
       <c s="28" r="L672"/>
       <c s="20" r="M672"/>
       <c s="20" r="N672"/>
@@ -49057,7 +49057,7 @@
       <c s="7" r="H673"/>
       <c s="7" r="I673"/>
       <c s="7" r="J673"/>
-      <c s="35" r="K673"/>
+      <c s="36" r="K673"/>
       <c s="28" r="L673"/>
       <c s="20" r="M673"/>
       <c s="20" r="N673"/>
@@ -49091,7 +49091,7 @@
       <c s="7" r="H674"/>
       <c s="7" r="I674"/>
       <c s="7" r="J674"/>
-      <c s="35" r="K674"/>
+      <c s="36" r="K674"/>
       <c s="28" r="L674"/>
       <c s="20" r="M674"/>
       <c s="20" r="N674"/>
@@ -49125,7 +49125,7 @@
       <c s="7" r="H675"/>
       <c s="7" r="I675"/>
       <c s="7" r="J675"/>
-      <c s="35" r="K675"/>
+      <c s="36" r="K675"/>
       <c s="28" r="L675"/>
       <c s="20" r="M675"/>
       <c s="20" r="N675"/>
@@ -49159,7 +49159,7 @@
       <c s="7" r="H676"/>
       <c s="7" r="I676"/>
       <c s="7" r="J676"/>
-      <c s="35" r="K676"/>
+      <c s="36" r="K676"/>
       <c s="28" r="L676"/>
       <c s="20" r="M676"/>
       <c s="20" r="N676"/>
@@ -49193,7 +49193,7 @@
       <c s="7" r="H677"/>
       <c s="7" r="I677"/>
       <c s="7" r="J677"/>
-      <c s="35" r="K677"/>
+      <c s="36" r="K677"/>
       <c s="28" r="L677"/>
       <c s="20" r="M677"/>
       <c s="20" r="N677"/>
@@ -49227,7 +49227,7 @@
       <c s="7" r="H678"/>
       <c s="7" r="I678"/>
       <c s="7" r="J678"/>
-      <c s="35" r="K678"/>
+      <c s="36" r="K678"/>
       <c s="28" r="L678"/>
       <c s="20" r="M678"/>
       <c s="20" r="N678"/>
@@ -49261,7 +49261,7 @@
       <c s="7" r="H679"/>
       <c s="7" r="I679"/>
       <c s="7" r="J679"/>
-      <c s="35" r="K679"/>
+      <c s="36" r="K679"/>
       <c s="28" r="L679"/>
       <c s="20" r="M679"/>
       <c s="20" r="N679"/>
@@ -49295,7 +49295,7 @@
       <c s="7" r="H680"/>
       <c s="7" r="I680"/>
       <c s="7" r="J680"/>
-      <c s="35" r="K680"/>
+      <c s="36" r="K680"/>
       <c s="28" r="L680"/>
       <c s="20" r="M680"/>
       <c s="20" r="N680"/>
@@ -49329,7 +49329,7 @@
       <c s="7" r="H681"/>
       <c s="7" r="I681"/>
       <c s="7" r="J681"/>
-      <c s="35" r="K681"/>
+      <c s="36" r="K681"/>
       <c s="28" r="L681"/>
       <c s="20" r="M681"/>
       <c s="20" r="N681"/>
@@ -49363,7 +49363,7 @@
       <c s="7" r="H682"/>
       <c s="7" r="I682"/>
       <c s="7" r="J682"/>
-      <c s="35" r="K682"/>
+      <c s="36" r="K682"/>
       <c s="28" r="L682"/>
       <c s="20" r="M682"/>
       <c s="20" r="N682"/>
@@ -49397,7 +49397,7 @@
       <c s="7" r="H683"/>
       <c s="7" r="I683"/>
       <c s="7" r="J683"/>
-      <c s="35" r="K683"/>
+      <c s="36" r="K683"/>
       <c s="28" r="L683"/>
       <c s="20" r="M683"/>
       <c s="20" r="N683"/>
@@ -49431,7 +49431,7 @@
       <c s="7" r="H684"/>
       <c s="7" r="I684"/>
       <c s="7" r="J684"/>
-      <c s="35" r="K684"/>
+      <c s="36" r="K684"/>
       <c s="28" r="L684"/>
       <c s="20" r="M684"/>
       <c s="20" r="N684"/>
@@ -49465,7 +49465,7 @@
       <c s="7" r="H685"/>
       <c s="7" r="I685"/>
       <c s="7" r="J685"/>
-      <c s="35" r="K685"/>
+      <c s="36" r="K685"/>
       <c s="28" r="L685"/>
       <c s="20" r="M685"/>
       <c s="20" r="N685"/>
@@ -49499,7 +49499,7 @@
       <c s="7" r="H686"/>
       <c s="7" r="I686"/>
       <c s="7" r="J686"/>
-      <c s="35" r="K686"/>
+      <c s="36" r="K686"/>
       <c s="28" r="L686"/>
       <c s="20" r="M686"/>
       <c s="20" r="N686"/>
@@ -49533,7 +49533,7 @@
       <c s="7" r="H687"/>
       <c s="7" r="I687"/>
       <c s="7" r="J687"/>
-      <c s="35" r="K687"/>
+      <c s="36" r="K687"/>
       <c s="28" r="L687"/>
       <c s="20" r="M687"/>
       <c s="20" r="N687"/>
@@ -49567,7 +49567,7 @@
       <c s="7" r="H688"/>
       <c s="7" r="I688"/>
       <c s="7" r="J688"/>
-      <c s="35" r="K688"/>
+      <c s="36" r="K688"/>
       <c s="28" r="L688"/>
       <c s="20" r="M688"/>
       <c s="20" r="N688"/>
@@ -49601,7 +49601,7 @@
       <c s="7" r="H689"/>
       <c s="7" r="I689"/>
       <c s="7" r="J689"/>
-      <c s="35" r="K689"/>
+      <c s="36" r="K689"/>
       <c s="28" r="L689"/>
       <c s="20" r="M689"/>
       <c s="20" r="N689"/>
@@ -49635,7 +49635,7 @@
       <c s="7" r="H690"/>
       <c s="7" r="I690"/>
       <c s="7" r="J690"/>
-      <c s="35" r="K690"/>
+      <c s="36" r="K690"/>
       <c s="28" r="L690"/>
       <c s="20" r="M690"/>
       <c s="20" r="N690"/>
@@ -49669,7 +49669,7 @@
       <c s="7" r="H691"/>
       <c s="7" r="I691"/>
       <c s="7" r="J691"/>
-      <c s="35" r="K691"/>
+      <c s="36" r="K691"/>
       <c s="28" r="L691"/>
       <c s="20" r="M691"/>
       <c s="20" r="N691"/>
@@ -49703,7 +49703,7 @@
       <c s="7" r="H692"/>
       <c s="7" r="I692"/>
       <c s="7" r="J692"/>
-      <c s="35" r="K692"/>
+      <c s="36" r="K692"/>
       <c s="28" r="L692"/>
       <c s="20" r="M692"/>
       <c s="20" r="N692"/>
@@ -49737,7 +49737,7 @@
       <c s="7" r="H693"/>
       <c s="7" r="I693"/>
       <c s="7" r="J693"/>
-      <c s="35" r="K693"/>
+      <c s="36" r="K693"/>
       <c s="28" r="L693"/>
       <c s="20" r="M693"/>
       <c s="20" r="N693"/>
@@ -49771,7 +49771,7 @@
       <c s="7" r="H694"/>
       <c s="7" r="I694"/>
       <c s="7" r="J694"/>
-      <c s="35" r="K694"/>
+      <c s="36" r="K694"/>
       <c s="28" r="L694"/>
       <c s="20" r="M694"/>
       <c s="20" r="N694"/>
@@ -49805,7 +49805,7 @@
       <c s="7" r="H695"/>
       <c s="7" r="I695"/>
       <c s="7" r="J695"/>
-      <c s="35" r="K695"/>
+      <c s="36" r="K695"/>
       <c s="28" r="L695"/>
       <c s="20" r="M695"/>
       <c s="20" r="N695"/>
@@ -49839,7 +49839,7 @@
       <c s="7" r="H696"/>
       <c s="7" r="I696"/>
       <c s="7" r="J696"/>
-      <c s="35" r="K696"/>
+      <c s="36" r="K696"/>
       <c s="28" r="L696"/>
       <c s="20" r="M696"/>
       <c s="20" r="N696"/>
@@ -49873,7 +49873,7 @@
       <c s="7" r="H697"/>
       <c s="7" r="I697"/>
       <c s="7" r="J697"/>
-      <c s="35" r="K697"/>
+      <c s="36" r="K697"/>
       <c s="28" r="L697"/>
       <c s="20" r="M697"/>
       <c s="20" r="N697"/>
@@ -49907,7 +49907,7 @@
       <c s="7" r="H698"/>
       <c s="7" r="I698"/>
       <c s="7" r="J698"/>
-      <c s="35" r="K698"/>
+      <c s="36" r="K698"/>
       <c s="28" r="L698"/>
       <c s="20" r="M698"/>
       <c s="20" r="N698"/>
@@ -49941,7 +49941,7 @@
       <c s="7" r="H699"/>
       <c s="7" r="I699"/>
       <c s="7" r="J699"/>
-      <c s="35" r="K699"/>
+      <c s="36" r="K699"/>
       <c s="28" r="L699"/>
       <c s="20" r="M699"/>
       <c s="20" r="N699"/>
@@ -49975,7 +49975,7 @@
       <c s="7" r="H700"/>
       <c s="7" r="I700"/>
       <c s="7" r="J700"/>
-      <c s="35" r="K700"/>
+      <c s="36" r="K700"/>
       <c s="28" r="L700"/>
       <c s="20" r="M700"/>
       <c s="20" r="N700"/>
@@ -50009,7 +50009,7 @@
       <c s="7" r="H701"/>
       <c s="7" r="I701"/>
       <c s="7" r="J701"/>
-      <c s="35" r="K701"/>
+      <c s="36" r="K701"/>
       <c s="28" r="L701"/>
       <c s="20" r="M701"/>
       <c s="20" r="N701"/>
@@ -50043,7 +50043,7 @@
       <c s="7" r="H702"/>
       <c s="7" r="I702"/>
       <c s="7" r="J702"/>
-      <c s="35" r="K702"/>
+      <c s="36" r="K702"/>
       <c s="28" r="L702"/>
       <c s="20" r="M702"/>
       <c s="20" r="N702"/>
@@ -50077,7 +50077,7 @@
       <c s="7" r="H703"/>
       <c s="7" r="I703"/>
       <c s="7" r="J703"/>
-      <c s="35" r="K703"/>
+      <c s="36" r="K703"/>
       <c s="28" r="L703"/>
       <c s="20" r="M703"/>
       <c s="20" r="N703"/>
@@ -50111,7 +50111,7 @@
       <c s="7" r="H704"/>
       <c s="7" r="I704"/>
       <c s="7" r="J704"/>
-      <c s="35" r="K704"/>
+      <c s="36" r="K704"/>
       <c s="28" r="L704"/>
       <c s="20" r="M704"/>
       <c s="20" r="N704"/>
@@ -50145,7 +50145,7 @@
       <c s="7" r="H705"/>
       <c s="7" r="I705"/>
       <c s="7" r="J705"/>
-      <c s="35" r="K705"/>
+      <c s="36" r="K705"/>
       <c s="28" r="L705"/>
       <c s="20" r="M705"/>
       <c s="20" r="N705"/>
@@ -50179,7 +50179,7 @@
       <c s="7" r="H706"/>
       <c s="7" r="I706"/>
       <c s="7" r="J706"/>
-      <c s="35" r="K706"/>
+      <c s="36" r="K706"/>
       <c s="28" r="L706"/>
       <c s="20" r="M706"/>
       <c s="20" r="N706"/>
@@ -50213,7 +50213,7 @@
       <c s="7" r="H707"/>
       <c s="7" r="I707"/>
       <c s="7" r="J707"/>
-      <c s="35" r="K707"/>
+      <c s="36" r="K707"/>
       <c s="28" r="L707"/>
       <c s="20" r="M707"/>
       <c s="20" r="N707"/>
@@ -50247,7 +50247,7 @@
       <c s="7" r="H708"/>
       <c s="7" r="I708"/>
       <c s="7" r="J708"/>
-      <c s="35" r="K708"/>
+      <c s="36" r="K708"/>
       <c s="28" r="L708"/>
       <c s="20" r="M708"/>
       <c s="20" r="N708"/>
@@ -50281,7 +50281,7 @@
       <c s="7" r="H709"/>
       <c s="7" r="I709"/>
       <c s="7" r="J709"/>
-      <c s="35" r="K709"/>
+      <c s="36" r="K709"/>
       <c s="28" r="L709"/>
       <c s="20" r="M709"/>
       <c s="20" r="N709"/>
@@ -50315,7 +50315,7 @@
       <c s="7" r="H710"/>
       <c s="7" r="I710"/>
       <c s="7" r="J710"/>
-      <c s="35" r="K710"/>
+      <c s="36" r="K710"/>
       <c s="28" r="L710"/>
       <c s="20" r="M710"/>
       <c s="20" r="N710"/>
@@ -50349,7 +50349,7 @@
       <c s="7" r="H711"/>
       <c s="7" r="I711"/>
       <c s="7" r="J711"/>
-      <c s="35" r="K711"/>
+      <c s="36" r="K711"/>
       <c s="28" r="L711"/>
       <c s="20" r="M711"/>
       <c s="20" r="N711"/>
@@ -50383,7 +50383,7 @@
       <c s="7" r="H712"/>
       <c s="7" r="I712"/>
       <c s="7" r="J712"/>
-      <c s="35" r="K712"/>
+      <c s="36" r="K712"/>
       <c s="28" r="L712"/>
       <c s="20" r="M712"/>
       <c s="20" r="N712"/>
@@ -50417,7 +50417,7 @@
       <c s="7" r="H713"/>
       <c s="7" r="I713"/>
       <c s="7" r="J713"/>
-      <c s="35" r="K713"/>
+      <c s="36" r="K713"/>
       <c s="28" r="L713"/>
       <c s="20" r="M713"/>
       <c s="20" r="N713"/>
@@ -50451,7 +50451,7 @@
       <c s="7" r="H714"/>
       <c s="7" r="I714"/>
       <c s="7" r="J714"/>
-      <c s="35" r="K714"/>
+      <c s="36" r="K714"/>
       <c s="28" r="L714"/>
       <c s="20" r="M714"/>
       <c s="20" r="N714"/>
@@ -50485,7 +50485,7 @@
       <c s="7" r="H715"/>
       <c s="7" r="I715"/>
       <c s="7" r="J715"/>
-      <c s="35" r="K715"/>
+      <c s="36" r="K715"/>
       <c s="28" r="L715"/>
       <c s="20" r="M715"/>
       <c s="20" r="N715"/>
@@ -50519,7 +50519,7 @@
       <c s="7" r="H716"/>
       <c s="7" r="I716"/>
       <c s="7" r="J716"/>
-      <c s="35" r="K716"/>
+      <c s="36" r="K716"/>
       <c s="28" r="L716"/>
       <c s="20" r="M716"/>
       <c s="20" r="N716"/>
@@ -50553,7 +50553,7 @@
       <c s="7" r="H717"/>
       <c s="7" r="I717"/>
       <c s="7" r="J717"/>
-      <c s="35" r="K717"/>
+      <c s="36" r="K717"/>
       <c s="28" r="L717"/>
       <c s="20" r="M717"/>
       <c s="20" r="N717"/>
@@ -50587,7 +50587,7 @@
       <c s="7" r="H718"/>
       <c s="7" r="I718"/>
       <c s="7" r="J718"/>
-      <c s="35" r="K718"/>
+      <c s="36" r="K718"/>
       <c s="28" r="L718"/>
       <c s="20" r="M718"/>
       <c s="20" r="N718"/>
@@ -50621,7 +50621,7 @@
       <c s="7" r="H719"/>
       <c s="7" r="I719"/>
       <c s="7" r="J719"/>
-      <c s="35" r="K719"/>
+      <c s="36" r="K719"/>
       <c s="28" r="L719"/>
       <c s="20" r="M719"/>
       <c s="20" r="N719"/>
@@ -50655,7 +50655,7 @@
       <c s="7" r="H720"/>
       <c s="7" r="I720"/>
       <c s="7" r="J720"/>
-      <c s="35" r="K720"/>
+      <c s="36" r="K720"/>
       <c s="28" r="L720"/>
       <c s="20" r="M720"/>
       <c s="20" r="N720"/>
@@ -50689,7 +50689,7 @@
       <c s="7" r="H721"/>
       <c s="7" r="I721"/>
       <c s="7" r="J721"/>
-      <c s="35" r="K721"/>
+      <c s="36" r="K721"/>
       <c s="28" r="L721"/>
       <c s="20" r="M721"/>
       <c s="20" r="N721"/>
@@ -50723,7 +50723,7 @@
       <c s="7" r="H722"/>
       <c s="7" r="I722"/>
       <c s="7" r="J722"/>
-      <c s="35" r="K722"/>
+      <c s="36" r="K722"/>
       <c s="28" r="L722"/>
       <c s="20" r="M722"/>
       <c s="20" r="N722"/>
@@ -50757,7 +50757,7 @@
       <c s="7" r="H723"/>
       <c s="7" r="I723"/>
       <c s="7" r="J723"/>
-      <c s="35" r="K723"/>
+      <c s="36" r="K723"/>
       <c s="28" r="L723"/>
       <c s="20" r="M723"/>
       <c s="20" r="N723"/>
@@ -50791,7 +50791,7 @@
       <c s="7" r="H724"/>
       <c s="7" r="I724"/>
       <c s="7" r="J724"/>
-      <c s="35" r="K724"/>
+      <c s="36" r="K724"/>
       <c s="28" r="L724"/>
       <c s="20" r="M724"/>
       <c s="20" r="N724"/>
@@ -50825,7 +50825,7 @@
       <c s="7" r="H725"/>
       <c s="7" r="I725"/>
       <c s="7" r="J725"/>
-      <c s="35" r="K725"/>
+      <c s="36" r="K725"/>
       <c s="28" r="L725"/>
       <c s="20" r="M725"/>
       <c s="20" r="N725"/>
@@ -50859,7 +50859,7 @@
       <c s="7" r="H726"/>
       <c s="7" r="I726"/>
       <c s="7" r="J726"/>
-      <c s="35" r="K726"/>
+      <c s="36" r="K726"/>
       <c s="28" r="L726"/>
       <c s="20" r="M726"/>
       <c s="20" r="N726"/>
@@ -50893,7 +50893,7 @@
       <c s="7" r="H727"/>
       <c s="7" r="I727"/>
       <c s="7" r="J727"/>
-      <c s="35" r="K727"/>
+      <c s="36" r="K727"/>
       <c s="28" r="L727"/>
       <c s="20" r="M727"/>
       <c s="20" r="N727"/>
@@ -50927,7 +50927,7 @@
       <c s="7" r="H728"/>
       <c s="7" r="I728"/>
       <c s="7" r="J728"/>
-      <c s="35" r="K728"/>
+      <c s="36" r="K728"/>
       <c s="28" r="L728"/>
       <c s="20" r="M728"/>
       <c s="20" r="N728"/>
@@ -50961,7 +50961,7 @@
       <c s="7" r="H729"/>
       <c s="7" r="I729"/>
       <c s="7" r="J729"/>
-      <c s="35" r="K729"/>
+      <c s="36" r="K729"/>
       <c s="28" r="L729"/>
       <c s="20" r="M729"/>
       <c s="20" r="N729"/>
@@ -50995,7 +50995,7 @@
       <c s="7" r="H730"/>
       <c s="7" r="I730"/>
       <c s="7" r="J730"/>
-      <c s="35" r="K730"/>
+      <c s="36" r="K730"/>
       <c s="28" r="L730"/>
       <c s="20" r="M730"/>
       <c s="20" r="N730"/>
@@ -51029,7 +51029,7 @@
       <c s="7" r="H731"/>
       <c s="7" r="I731"/>
       <c s="7" r="J731"/>
-      <c s="35" r="K731"/>
+      <c s="36" r="K731"/>
       <c s="28" r="L731"/>
       <c s="20" r="M731"/>
       <c s="20" r="N731"/>
@@ -51063,7 +51063,7 @@
       <c s="7" r="H732"/>
       <c s="7" r="I732"/>
       <c s="7" r="J732"/>
-      <c s="35" r="K732"/>
+      <c s="36" r="K732"/>
       <c s="28" r="L732"/>
       <c s="20" r="M732"/>
       <c s="20" r="N732"/>
@@ -51097,7 +51097,7 @@
       <c s="7" r="H733"/>
       <c s="7" r="I733"/>
       <c s="7" r="J733"/>
-      <c s="35" r="K733"/>
+      <c s="36" r="K733"/>
       <c s="28" r="L733"/>
       <c s="20" r="M733"/>
       <c s="20" r="N733"/>
@@ -51131,7 +51131,7 @@
       <c s="7" r="H734"/>
       <c s="7" r="I734"/>
       <c s="7" r="J734"/>
-      <c s="35" r="K734"/>
+      <c s="36" r="K734"/>
       <c s="28" r="L734"/>
       <c s="20" r="M734"/>
       <c s="20" r="N734"/>
@@ -51165,7 +51165,7 @@
       <c s="7" r="H735"/>
       <c s="7" r="I735"/>
       <c s="7" r="J735"/>
-      <c s="35" r="K735"/>
+      <c s="36" r="K735"/>
       <c s="28" r="L735"/>
       <c s="20" r="M735"/>
       <c s="20" r="N735"/>
@@ -51199,7 +51199,7 @@
       <c s="7" r="H736"/>
       <c s="7" r="I736"/>
       <c s="7" r="J736"/>
-      <c s="35" r="K736"/>
+      <c s="36" r="K736"/>
       <c s="28" r="L736"/>
       <c s="20" r="M736"/>
       <c s="20" r="N736"/>
@@ -51233,7 +51233,7 @@
       <c s="7" r="H737"/>
       <c s="7" r="I737"/>
       <c s="7" r="J737"/>
-      <c s="35" r="K737"/>
+      <c s="36" r="K737"/>
       <c s="28" r="L737"/>
       <c s="20" r="M737"/>
       <c s="20" r="N737"/>
@@ -51267,7 +51267,7 @@
       <c s="7" r="H738"/>
       <c s="7" r="I738"/>
       <c s="7" r="J738"/>
-      <c s="35" r="K738"/>
+      <c s="36" r="K738"/>
       <c s="28" r="L738"/>
       <c s="20" r="M738"/>
       <c s="20" r="N738"/>
@@ -51301,7 +51301,7 @@
       <c s="7" r="H739"/>
       <c s="7" r="I739"/>
       <c s="7" r="J739"/>
-      <c s="35" r="K739"/>
+      <c s="36" r="K739"/>
       <c s="28" r="L739"/>
       <c s="20" r="M739"/>
       <c s="20" r="N739"/>
@@ -51335,7 +51335,7 @@
       <c s="7" r="H740"/>
       <c s="7" r="I740"/>
       <c s="7" r="J740"/>
-      <c s="35" r="K740"/>
+      <c s="36" r="K740"/>
       <c s="28" r="L740"/>
       <c s="20" r="M740"/>
       <c s="20" r="N740"/>
@@ -51369,7 +51369,7 @@
       <c s="7" r="H741"/>
       <c s="7" r="I741"/>
       <c s="7" r="J741"/>
-      <c s="35" r="K741"/>
+      <c s="36" r="K741"/>
       <c s="28" r="L741"/>
       <c s="20" r="M741"/>
       <c s="20" r="N741"/>
@@ -51403,7 +51403,7 @@
       <c s="7" r="H742"/>
       <c s="7" r="I742"/>
       <c s="7" r="J742"/>
-      <c s="35" r="K742"/>
+      <c s="36" r="K742"/>
       <c s="28" r="L742"/>
       <c s="20" r="M742"/>
       <c s="20" r="N742"/>
@@ -51437,7 +51437,7 @@
       <c s="7" r="H743"/>
       <c s="7" r="I743"/>
       <c s="7" r="J743"/>
-      <c s="35" r="K743"/>
+      <c s="36" r="K743"/>
       <c s="28" r="L743"/>
       <c s="20" r="M743"/>
       <c s="20" r="N743"/>
@@ -51471,7 +51471,7 @@
       <c s="7" r="H744"/>
       <c s="7" r="I744"/>
       <c s="7" r="J744"/>
-      <c s="35" r="K744"/>
+      <c s="36" r="K744"/>
       <c s="28" r="L744"/>
       <c s="20" r="M744"/>
       <c s="20" r="N744"/>
@@ -51505,7 +51505,7 @@
       <c s="7" r="H745"/>
       <c s="7" r="I745"/>
       <c s="7" r="J745"/>
-      <c s="35" r="K745"/>
+      <c s="36" r="K745"/>
       <c s="28" r="L745"/>
       <c s="20" r="M745"/>
       <c s="20" r="N745"/>
@@ -51539,7 +51539,7 @@
       <c s="7" r="H746"/>
       <c s="7" r="I746"/>
       <c s="7" r="J746"/>
-      <c s="35" r="K746"/>
+      <c s="36" r="K746"/>
       <c s="28" r="L746"/>
       <c s="20" r="M746"/>
       <c s="20" r="N746"/>
@@ -51573,7 +51573,7 @@
       <c s="7" r="H747"/>
       <c s="7" r="I747"/>
       <c s="7" r="J747"/>
-      <c s="35" r="K747"/>
+      <c s="36" r="K747"/>
       <c s="28" r="L747"/>
       <c s="20" r="M747"/>
       <c s="20" r="N747"/>
@@ -51607,7 +51607,7 @@
       <c s="7" r="H748"/>
       <c s="7" r="I748"/>
       <c s="7" r="J748"/>
-      <c s="35" r="K748"/>
+      <c s="36" r="K748"/>
       <c s="28" r="L748"/>
       <c s="20" r="M748"/>
       <c s="20" r="N748"/>
@@ -51641,7 +51641,7 @@
       <c s="7" r="H749"/>
       <c s="7" r="I749"/>
       <c s="7" r="J749"/>
-      <c s="35" r="K749"/>
+      <c s="36" r="K749"/>
       <c s="28" r="L749"/>
       <c s="20" r="M749"/>
       <c s="20" r="N749"/>
@@ -51675,7 +51675,7 @@
       <c s="7" r="H750"/>
       <c s="7" r="I750"/>
       <c s="7" r="J750"/>
-      <c s="35" r="K750"/>
+      <c s="36" r="K750"/>
       <c s="28" r="L750"/>
       <c s="20" r="M750"/>
       <c s="20" r="N750"/>

--- a/Database/08_06.xlsx
+++ b/Database/08_06.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="69">
   <si>
     <t>Fine-Structure Energy Levels for O III</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>MY S</t>
   </si>
 </sst>
 </file>
@@ -740,8 +737,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="35" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -751,8 +750,9 @@
     <xf numFmtId="11" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="35" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="53" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -762,9 +762,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="44" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1067,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1"/>
@@ -1087,7 +1084,7 @@
     <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1102,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1">
+    <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -1119,7 +1116,7 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1132,7 @@
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1">
       <c r="A4" s="50" t="str">
         <f>HYPERLINK("http://www.nist.gov/pml/data/asd.cfm","http://www.nist.gov/pml/data/asd.cfm")</f>
         <v>http://www.nist.gov/pml/data/asd.cfm</v>
@@ -1152,7 +1149,7 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1165,7 @@
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
     </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1">
       <c r="A6" s="50" t="str">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/2001CaJPh..79..955T","http://adsabs.harvard.edu/abs/2001CaJPh..79..955T")</f>
         <v>http://adsabs.harvard.edu/abs/2001CaJPh..79..955T</v>
@@ -1185,7 +1182,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1198,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1">
       <c r="A8" s="50" t="str">
         <f>HYPERLINK("http://adsabs.harvard.edu/abs/1999ApJS..123..311A","http://adsabs.harvard.edu/abs/1999ApJS..123..311A")</f>
         <v>http://adsabs.harvard.edu/abs/1999ApJS..123..311A</v>
@@ -1218,7 +1215,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1232,7 +1229,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:13" ht="13.2">
+    <row r="10" spans="1:12" ht="13.2">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1251,11 +1248,8 @@
       <c r="L10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="13.2">
+    </row>
+    <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="31" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1">
       <c r="A12" s="35">
         <v>8</v>
       </c>
@@ -1330,11 +1324,8 @@
       <c r="L12" s="40">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1">
       <c r="A13" s="35">
         <v>8</v>
       </c>
@@ -1371,11 +1362,8 @@
       <c r="L13" s="40">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" ht="12.75" customHeight="1">
       <c r="A14" s="35">
         <v>8</v>
       </c>
@@ -1412,11 +1400,8 @@
       <c r="L14" s="40">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:12" ht="12.75" customHeight="1">
       <c r="A15" s="35">
         <v>8</v>
       </c>
@@ -1453,40 +1438,46 @@
       <c r="L15" s="40">
         <v>23132.626146480201</v>
       </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A16" s="35">
+        <v>8</v>
+      </c>
       <c r="B16" s="35">
-        <v>23</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="5">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="35">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="5">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
       <c r="I16" s="15">
-        <v>24</v>
-      </c>
-      <c r="J16" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="40">
+        <v>43185.737897807601</v>
+      </c>
       <c r="K16" s="40">
-        <v>24</v>
+        <v>43278.138298407102</v>
       </c>
       <c r="L16" s="40">
-        <v>42</v>
-      </c>
-      <c r="M16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1">
+        <v>50138.979536654697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" customHeight="1">
       <c r="A17" s="35">
         <v>8</v>
       </c>
@@ -1494,40 +1485,37 @@
         <v>6</v>
       </c>
       <c r="C17" s="35">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5">
         <v>5</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="40">
-        <v>43185.737897807601</v>
+        <v>60324.786204841002</v>
       </c>
       <c r="K17" s="40">
-        <v>43278.138298407102</v>
+        <v>60531.587620042003</v>
       </c>
       <c r="L17" s="40">
-        <v>50138.979536654697</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1">
+        <v>58522.9104550185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" customHeight="1">
       <c r="A18" s="35">
         <v>8</v>
       </c>
@@ -1535,37 +1523,37 @@
         <v>6</v>
       </c>
       <c r="C18" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
       </c>
       <c r="I18" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="40">
-        <v>60324.786204841002</v>
+        <v>120025.189030895</v>
       </c>
       <c r="K18" s="40">
-        <v>60531.587620042003</v>
+        <v>120464.395263627</v>
       </c>
       <c r="L18" s="40">
-        <v>58522.9104550185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1">
+        <v>122708.266399403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1">
       <c r="A19" s="35">
         <v>8</v>
       </c>
@@ -1573,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>21</v>
@@ -1591,19 +1579,19 @@
         <v>1</v>
       </c>
       <c r="I19" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="40">
-        <v>120025.189030895</v>
+        <v>120053.391521026</v>
       </c>
       <c r="K19" s="40">
-        <v>120464.395263627</v>
+        <v>120492.19526253401</v>
       </c>
       <c r="L19" s="40">
         <v>122708.266399403</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1">
       <c r="A20" s="35">
         <v>8</v>
       </c>
@@ -1611,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>21</v>
@@ -1629,19 +1617,19 @@
         <v>1</v>
       </c>
       <c r="I20" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="40">
-        <v>120053.391521026</v>
+        <v>120058.21996291701</v>
       </c>
       <c r="K20" s="40">
-        <v>120492.19526253401</v>
+        <v>120497.69526231699</v>
       </c>
       <c r="L20" s="40">
         <v>122708.266399403</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="35">
         <v>8</v>
       </c>
@@ -1649,37 +1637,37 @@
         <v>6</v>
       </c>
       <c r="C21" s="35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
       </c>
       <c r="G21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
       </c>
       <c r="I21" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="40">
-        <v>120058.21996291701</v>
+        <v>142380.984719639</v>
       </c>
       <c r="K21" s="40">
-        <v>120497.69526231699</v>
+        <v>142903.29438138299</v>
       </c>
       <c r="L21" s="40">
-        <v>122708.266399403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1">
+        <v>148694.06275370301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="35">
         <v>8</v>
       </c>
@@ -1687,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>21</v>
@@ -1705,19 +1693,19 @@
         <v>1</v>
       </c>
       <c r="I22" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="40">
-        <v>142380.984719639</v>
+        <v>142381.75288084801</v>
       </c>
       <c r="K22" s="40">
-        <v>142903.29438138299</v>
+        <v>142905.294381304</v>
       </c>
       <c r="L22" s="40">
         <v>148694.06275370301</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1">
       <c r="A23" s="35">
         <v>8</v>
       </c>
@@ -1725,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>21</v>
@@ -1743,19 +1731,19 @@
         <v>1</v>
       </c>
       <c r="I23" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="40">
-        <v>142381.75288084801</v>
+        <v>142393.494773627</v>
       </c>
       <c r="K23" s="40">
-        <v>142905.294381304</v>
+        <v>142919.29438075301</v>
       </c>
       <c r="L23" s="40">
         <v>148694.06275370301</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1">
+    <row r="24" spans="1:12" ht="12.75" customHeight="1">
       <c r="A24" s="35">
         <v>8</v>
       </c>
@@ -1763,37 +1751,37 @@
         <v>6</v>
       </c>
       <c r="C24" s="35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
       </c>
       <c r="I24" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="40">
-        <v>142393.494773627</v>
+        <v>187053.94856200399</v>
       </c>
       <c r="K24" s="40">
-        <v>142919.29438075301</v>
+        <v>187666.292621409</v>
       </c>
       <c r="L24" s="40">
-        <v>148694.06275370301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1">
+        <v>192490.22544374299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1">
       <c r="A25" s="35">
         <v>8</v>
       </c>
@@ -1801,37 +1789,37 @@
         <v>6</v>
       </c>
       <c r="C25" s="35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
       </c>
       <c r="I25" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="40">
-        <v>187053.94856200399</v>
+        <v>197087.67028438201</v>
       </c>
       <c r="K25" s="40">
-        <v>187666.292621409</v>
+        <v>197581.192231578</v>
       </c>
       <c r="L25" s="40">
-        <v>192490.22544374299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1">
+        <v>201554.527719356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1">
       <c r="A26" s="35">
         <v>8</v>
       </c>
@@ -1839,19 +1827,19 @@
         <v>6</v>
       </c>
       <c r="C26" s="35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="5">
         <v>1</v>
@@ -1860,16 +1848,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="40">
-        <v>197087.67028438201</v>
+        <v>210461.79589622299</v>
       </c>
       <c r="K26" s="40">
-        <v>197581.192231578</v>
+        <v>211184.39169673299</v>
       </c>
       <c r="L26" s="40">
-        <v>201554.527719356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1">
+        <v>220813.426622142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" customHeight="1">
       <c r="A27" s="35">
         <v>8</v>
       </c>
@@ -1877,16 +1865,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -1895,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="I27" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="40">
-        <v>210461.79589622299</v>
+        <v>267258.71395521599</v>
       </c>
       <c r="K27" s="40">
-        <v>211184.39169673299</v>
+        <v>267841.98946909001</v>
       </c>
       <c r="L27" s="40">
-        <v>220813.426622142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1">
+        <v>273970.18234014499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" customHeight="1">
       <c r="A28" s="35">
         <v>8</v>
       </c>
@@ -1915,7 +1903,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>28</v>
@@ -1933,19 +1921,19 @@
         <v>1</v>
       </c>
       <c r="I28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="40">
-        <v>267258.71395521599</v>
+        <v>267377.10954510898</v>
       </c>
       <c r="K28" s="40">
-        <v>267841.98946909001</v>
+        <v>267960.089464447</v>
       </c>
       <c r="L28" s="40">
         <v>273970.18234014499</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1">
+    <row r="29" spans="1:12" ht="12.75" customHeight="1">
       <c r="A29" s="35">
         <v>8</v>
       </c>
@@ -1953,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>28</v>
@@ -1971,19 +1959,19 @@
         <v>1</v>
       </c>
       <c r="I29" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="40">
-        <v>267377.10954510898</v>
+        <v>267634.00460112799</v>
       </c>
       <c r="K29" s="40">
-        <v>267960.089464447</v>
+        <v>268215.98945438501</v>
       </c>
       <c r="L29" s="40">
         <v>273970.18234014499</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1">
+    <row r="30" spans="1:12" ht="12.75" customHeight="1">
       <c r="A30" s="35">
         <v>8</v>
       </c>
@@ -1991,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="C30" s="35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F30" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -2009,19 +1997,19 @@
         <v>1</v>
       </c>
       <c r="I30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="40">
-        <v>267634.00460112799</v>
+        <v>273081.33203055599</v>
       </c>
       <c r="K30" s="40">
-        <v>268215.98945438501</v>
+        <v>273720.189237974</v>
       </c>
       <c r="L30" s="40">
-        <v>273970.18234014499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1">
+        <v>281651.79443812201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" customHeight="1">
       <c r="A31" s="35">
         <v>8</v>
       </c>
@@ -2029,37 +2017,37 @@
         <v>6</v>
       </c>
       <c r="C31" s="35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5">
         <v>1</v>
       </c>
       <c r="H31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="40">
-        <v>273081.33203055599</v>
+        <v>283759.69464019599</v>
       </c>
       <c r="K31" s="40">
-        <v>273720.189237974</v>
+        <v>284695.48880645097</v>
       </c>
       <c r="L31" s="40">
-        <v>281651.79443812201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1">
+        <v>291264.783292162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" customHeight="1">
       <c r="A32" s="35">
         <v>8</v>
       </c>
@@ -2067,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>29</v>
@@ -2085,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="40">
-        <v>283759.69464019599</v>
+        <v>283977.40250078501</v>
       </c>
       <c r="K32" s="40">
-        <v>284695.48880645097</v>
+        <v>284911.488797959</v>
       </c>
       <c r="L32" s="40">
         <v>291264.783292162</v>
@@ -2105,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>29</v>
@@ -2123,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="40">
-        <v>283977.40250078501</v>
+        <v>284071.89730332099</v>
       </c>
       <c r="K33" s="40">
-        <v>284911.488797959</v>
+        <v>285005.58879425901</v>
       </c>
       <c r="L33" s="40">
         <v>291264.783292162</v>
@@ -2143,16 +2131,16 @@
         <v>6</v>
       </c>
       <c r="C34" s="35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F34" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -2161,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="40">
-        <v>284071.89730332099</v>
+        <v>290958.25404825801</v>
       </c>
       <c r="K34" s="40">
-        <v>285005.58879425901</v>
+        <v>291672.58853212802</v>
       </c>
       <c r="L34" s="40">
-        <v>291264.783292162</v>
+        <v>298090.44432779303</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1">
@@ -2181,19 +2169,19 @@
         <v>6</v>
       </c>
       <c r="C35" s="35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -2202,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="J35" s="40">
-        <v>290958.25404825801</v>
+        <v>293866.49044108897</v>
       </c>
       <c r="K35" s="40">
-        <v>291672.58853212802</v>
+        <v>294577.38841791899</v>
       </c>
       <c r="L35" s="40">
-        <v>298090.44432779303</v>
+        <v>301909.30291364499</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1">
@@ -2219,7 +2207,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>30</v>
@@ -2237,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="40">
-        <v>293866.49044108897</v>
+        <v>294002.86100329098</v>
       </c>
       <c r="K36" s="40">
-        <v>294577.38841791899</v>
+        <v>294712.78841259499</v>
       </c>
       <c r="L36" s="40">
         <v>301909.30291364499</v>
@@ -2257,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>30</v>
@@ -2275,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37" s="40">
-        <v>294002.86100329098</v>
+        <v>294223.07087467698</v>
       </c>
       <c r="K37" s="40">
-        <v>294712.78841259499</v>
+        <v>294931.58840399201</v>
       </c>
       <c r="L37" s="40">
         <v>301909.30291364499</v>
@@ -2295,34 +2283,34 @@
         <v>6</v>
       </c>
       <c r="C38" s="35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="5">
         <v>3</v>
       </c>
       <c r="G38" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
       </c>
       <c r="I38" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="40">
-        <v>294223.07087467698</v>
+        <v>297558.657295982</v>
       </c>
       <c r="K38" s="40">
-        <v>294931.58840399201</v>
+        <v>298229.388274331</v>
       </c>
       <c r="L38" s="40">
-        <v>301909.30291364499</v>
+        <v>304905.13163185603</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1">
@@ -2333,34 +2321,34 @@
         <v>6</v>
       </c>
       <c r="C39" s="35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F39" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
       </c>
       <c r="I39" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="40">
-        <v>297558.657295982</v>
+        <v>298294.00704838999</v>
       </c>
       <c r="K39" s="40">
-        <v>298229.388274331</v>
+        <v>299391.58822863601</v>
       </c>
       <c r="L39" s="40">
-        <v>304905.13163185603</v>
+        <v>306496.32270929398</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1">
@@ -2371,34 +2359,34 @@
         <v>6</v>
       </c>
       <c r="C40" s="35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" s="5">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5">
         <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>2</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
       </c>
       <c r="I40" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" s="40">
-        <v>298294.00704838999</v>
+        <v>300229.92692932201</v>
       </c>
       <c r="K40" s="40">
-        <v>299391.58822863601</v>
+        <v>300907.18816904502</v>
       </c>
       <c r="L40" s="40">
-        <v>306496.32270929398</v>
+        <v>308910.54365437297</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1">
@@ -2409,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>30</v>
@@ -2427,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="40">
-        <v>300229.92692932201</v>
+        <v>300311.95557279699</v>
       </c>
       <c r="K41" s="40">
-        <v>300907.18816904502</v>
+        <v>300988.68816584098</v>
       </c>
       <c r="L41" s="40">
         <v>308910.54365437297</v>
@@ -2447,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>30</v>
@@ -2465,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" s="40">
-        <v>300311.95557279699</v>
+        <v>300442.55395219399</v>
       </c>
       <c r="K42" s="40">
-        <v>300988.68816584098</v>
+        <v>301118.08816075302</v>
       </c>
       <c r="L42" s="40">
         <v>308910.54365437297</v>
@@ -2485,19 +2473,19 @@
         <v>6</v>
       </c>
       <c r="C43" s="35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -2506,13 +2494,13 @@
         <v>2</v>
       </c>
       <c r="J43" s="40">
-        <v>300442.55395219399</v>
+        <v>306586.07685979299</v>
       </c>
       <c r="K43" s="40">
-        <v>301118.08816075302</v>
+        <v>307321.98791683197</v>
       </c>
       <c r="L43" s="40">
-        <v>308910.54365437297</v>
+        <v>316734.81426274101</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1">
@@ -2523,34 +2511,34 @@
         <v>6</v>
       </c>
       <c r="C44" s="35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
       <c r="G44" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
       </c>
       <c r="I44" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="40">
-        <v>306586.07685979299</v>
+        <v>313802.76487240603</v>
       </c>
       <c r="K44" s="40">
-        <v>307321.98791683197</v>
+        <v>314671.38762787002</v>
       </c>
       <c r="L44" s="40">
-        <v>316734.81426274101</v>
+        <v>324361.55770287599</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1">
@@ -2561,34 +2549,34 @@
         <v>6</v>
       </c>
       <c r="C45" s="35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F45" s="5">
+        <v>3</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3</v>
+      </c>
+      <c r="H45" s="5">
         <v>1</v>
       </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
       <c r="I45" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="40">
-        <v>313802.76487240603</v>
+        <v>324464.87538559397</v>
       </c>
       <c r="K45" s="40">
-        <v>314671.38762787002</v>
+        <v>325112.587217347</v>
       </c>
       <c r="L45" s="40">
-        <v>324361.55770287599</v>
+        <v>329420.44795597199</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1">
@@ -2599,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>34</v>
@@ -2617,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" s="40">
-        <v>324464.87538559397</v>
+        <v>324660.80038901803</v>
       </c>
       <c r="K46" s="40">
-        <v>325112.587217347</v>
+        <v>325312.78720947501</v>
       </c>
       <c r="L46" s="40">
         <v>329420.44795597199</v>
@@ -2637,7 +2625,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="35">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>34</v>
@@ -2655,13 +2643,13 @@
         <v>1</v>
       </c>
       <c r="I47" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47" s="40">
-        <v>324660.80038901803</v>
+        <v>324839.02476342302</v>
       </c>
       <c r="K47" s="40">
-        <v>325312.78720947501</v>
+        <v>325490.68720248103</v>
       </c>
       <c r="L47" s="40">
         <v>329420.44795597199</v>
@@ -2675,34 +2663,34 @@
         <v>6</v>
       </c>
       <c r="C48" s="35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F48" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
       </c>
       <c r="I48" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" s="40">
-        <v>324839.02476342302</v>
+        <v>324735.65221204702</v>
       </c>
       <c r="K48" s="40">
-        <v>325490.68720248103</v>
+        <v>325374.58720704599</v>
       </c>
       <c r="L48" s="40">
-        <v>329420.44795597199</v>
+        <v>329596.02766106901</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1">
@@ -2713,16 +2701,16 @@
         <v>6</v>
       </c>
       <c r="C49" s="35">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F49" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="5">
         <v>2</v>
@@ -2731,16 +2719,16 @@
         <v>1</v>
       </c>
       <c r="I49" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="40">
-        <v>324735.65221204702</v>
+        <v>327229.24615756102</v>
       </c>
       <c r="K49" s="40">
-        <v>325374.58720704599</v>
+        <v>327828.08711058</v>
       </c>
       <c r="L49" s="40">
-        <v>329596.02766106901</v>
+        <v>332910.09459476802</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1">
@@ -2751,7 +2739,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="35">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>34</v>
@@ -2769,13 +2757,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="40">
-        <v>327229.24615756102</v>
+        <v>327278.29873767198</v>
       </c>
       <c r="K50" s="40">
-        <v>327828.08711058</v>
+        <v>327876.98710865801</v>
       </c>
       <c r="L50" s="40">
         <v>332910.09459476802</v>
@@ -2789,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>34</v>
@@ -2807,13 +2795,13 @@
         <v>1</v>
       </c>
       <c r="I51" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" s="40">
-        <v>327278.29873767198</v>
+        <v>327352.17389859201</v>
       </c>
       <c r="K51" s="40">
-        <v>327876.98710865801</v>
+        <v>327950.38710577099</v>
       </c>
       <c r="L51" s="40">
         <v>332910.09459476802</v>
@@ -2827,34 +2815,34 @@
         <v>6</v>
       </c>
       <c r="C52" s="35">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F52" s="5">
         <v>3</v>
       </c>
       <c r="G52" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
       </c>
       <c r="I52" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" s="40">
-        <v>327352.17389859201</v>
+        <v>329469.79682683601</v>
       </c>
       <c r="K52" s="40">
-        <v>327950.38710577099</v>
+        <v>330077.88702212297</v>
       </c>
       <c r="L52" s="40">
-        <v>332910.09459476802</v>
+        <v>335807.159728862</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1">
@@ -2865,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="35">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>34</v>
@@ -2883,13 +2871,13 @@
         <v>1</v>
       </c>
       <c r="I53" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="40">
-        <v>329469.79682683601</v>
+        <v>329583.890713954</v>
       </c>
       <c r="K53" s="40">
-        <v>330077.88702212297</v>
+        <v>330192.18701762898</v>
       </c>
       <c r="L53" s="40">
         <v>335807.159728862</v>
@@ -2903,7 +2891,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>34</v>
@@ -2921,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="I54" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="40">
-        <v>329583.890713954</v>
+        <v>329645.13510983798</v>
       </c>
       <c r="K54" s="40">
-        <v>330192.18701762898</v>
+        <v>330253.787015207</v>
       </c>
       <c r="L54" s="40">
         <v>335807.159728862</v>
@@ -2941,34 +2929,34 @@
         <v>6</v>
       </c>
       <c r="C55" s="35">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
         <v>3</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
       </c>
       <c r="I55" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" s="40">
-        <v>329645.13510983798</v>
+        <v>331821.43458077899</v>
       </c>
       <c r="K55" s="40">
-        <v>330253.787015207</v>
+        <v>332452.58692875598</v>
       </c>
       <c r="L55" s="40">
-        <v>335807.159728862</v>
+        <v>339823.54548294703</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1">
@@ -2979,34 +2967,34 @@
         <v>6</v>
       </c>
       <c r="C56" s="35">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" s="5">
         <v>1</v>
       </c>
       <c r="I56" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" s="40">
-        <v>331821.43458077899</v>
+        <v>332778.93655505998</v>
       </c>
       <c r="K56" s="40">
-        <v>332452.58692875598</v>
+        <v>333420.68689069198</v>
       </c>
       <c r="L56" s="40">
-        <v>339823.54548294703</v>
+        <v>341272.07804999402</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1">
@@ -3017,74 +3005,37 @@
         <v>6</v>
       </c>
       <c r="C57" s="35">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="G57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="40">
-        <v>332778.93655505998</v>
+        <v>343306.27867085399</v>
       </c>
       <c r="K57" s="40">
-        <v>333420.68689069198</v>
+        <v>344761.68644479098</v>
       </c>
       <c r="L57" s="40">
-        <v>341272.07804999402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A58" s="35">
-        <v>8</v>
-      </c>
-      <c r="B58" s="35">
-        <v>6</v>
-      </c>
-      <c r="C58" s="35">
-        <v>46</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="5">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="15">
-        <v>0</v>
-      </c>
-      <c r="J58" s="40">
-        <v>343306.27867085399</v>
-      </c>
-      <c r="K58" s="40">
-        <v>344761.68644479098</v>
-      </c>
-      <c r="L58" s="40">
         <v>358566.67900201201</v>
       </c>
     </row>
+    <row r="58" spans="1:12" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A6:J6"/>
@@ -3128,7 +3079,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="51"/>
@@ -3168,7 +3119,7 @@
       <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="13.8">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="51"/>
@@ -3297,7 +3248,7 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="13.8">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="51"/>
@@ -3340,7 +3291,7 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="13.8">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="51"/>
@@ -3422,10 +3373,10 @@
       <c r="N14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="59" t="s">
+      <c r="O14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="59"/>
+      <c r="P14" s="54"/>
       <c r="Q14" s="10" t="s">
         <v>47</v>
       </c>
@@ -3497,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C16,1)-INDEX(E0!J$12:J$58,D16,1))))*100000000</f>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C16,1)-INDEX(E0!J$12:J$57,D16,1))))*100000000</f>
         <v>883567.21825851046</v>
       </c>
       <c r="F16" s="32" t="s">
@@ -3547,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C17,1)-INDEX(E0!J$12:J$58,D17,1))))*100000000</f>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C17,1)-INDEX(E0!J$12:J$57,D17,1))))*100000000</f>
         <v>326611.99062060157</v>
       </c>
       <c r="F17" s="32" t="s">
@@ -3597,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C18,1)-INDEX(E0!J$12:J$58,D18,1))))*100000000</f>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C18,1)-INDEX(E0!J$12:J$57,D18,1))))*100000000</f>
         <v>518145.14647151378</v>
       </c>
       <c r="F18" s="32" t="s">
@@ -3647,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C19,1)-INDEX(E0!J$12:J$58,D19,1))))*100000000</f>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C19,1)-INDEX(E0!J$12:J$57,D19,1))))*100000000</f>
         <v>4932.6041635592019</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -3697,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C20,1)-INDEX(E0!J$12:J$58,D20,1))))*100000000</f>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C20,1)-INDEX(E0!J$12:J$57,D20,1))))*100000000</f>
         <v>4960.2955194926608</v>
       </c>
       <c r="F20" s="32" t="s">
@@ -3749,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C21,1)-INDEX(E0!J$12:J$58,D21,1))))*100000000</f>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C21,1)-INDEX(E0!J$12:J$57,D21,1))))*100000000</f>
         <v>5008.2402933788253</v>
       </c>
       <c r="F21" s="32" t="s">
@@ -3801,8 +3752,8 @@
         <v>2</v>
       </c>
       <c r="E22" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C22,1)-INDEX(E0!J$12:J$58,D22,1))))*100000000</f>
-        <v>-883567.21825851046</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C22,1)-INDEX(E0!J$12:J$57,D22,1))))*100000000</f>
+        <v>2321.6637056955301</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>54</v>
@@ -3851,8 +3802,8 @@
         <v>3</v>
       </c>
       <c r="E23" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C23,1)-INDEX(E0!J$12:J$58,D23,1))))*100000000</f>
-        <v>-326611.99062060157</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C23,1)-INDEX(E0!J$12:J$57,D23,1))))*100000000</f>
+        <v>2332.113253927499</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>54</v>
@@ -3901,8 +3852,8 @@
         <v>4</v>
       </c>
       <c r="E24" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C24,1)-INDEX(E0!J$12:J$58,D24,1))))*100000000</f>
-        <v>-4932.6041635592019</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C24,1)-INDEX(E0!J$12:J$57,D24,1))))*100000000</f>
+        <v>4364.435392961449</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>54</v>
@@ -3951,8 +3902,8 @@
         <v>1</v>
       </c>
       <c r="E25" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C25,1)-INDEX(E0!J$12:J$58,D25,1))))*100000000</f>
-        <v>2315.5792830641126</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C25,1)-INDEX(E0!J$12:J$57,D25,1))))*100000000</f>
+        <v>1657.6934008590836</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>54</v>
@@ -3995,8 +3946,8 @@
         <v>2</v>
       </c>
       <c r="E26" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C26,1)-INDEX(E0!J$12:J$58,D26,1))))*100000000</f>
-        <v>2321.6637056955301</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C26,1)-INDEX(E0!J$12:J$57,D26,1))))*100000000</f>
+        <v>1660.8093071213448</v>
       </c>
       <c r="F26" s="32">
         <v>230.78</v>
@@ -4043,8 +3994,8 @@
         <v>3</v>
       </c>
       <c r="E27" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C27,1)-INDEX(E0!J$12:J$58,D27,1))))*100000000</f>
-        <v>2332.113253927499</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C27,1)-INDEX(E0!J$12:J$57,D27,1))))*100000000</f>
+        <v>1666.1498128368992</v>
       </c>
       <c r="F27" s="32">
         <v>576.46</v>
@@ -4091,8 +4042,8 @@
         <v>4</v>
       </c>
       <c r="E28" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C28,1)-INDEX(E0!J$12:J$58,D28,1))))*100000000</f>
-        <v>4364.435392961449</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C28,1)-INDEX(E0!J$12:J$57,D28,1))))*100000000</f>
+        <v>2496.784176262719</v>
       </c>
       <c r="F28" s="32">
         <v>5.7774000000000002E-3</v>
@@ -4139,8 +4090,8 @@
         <v>5</v>
       </c>
       <c r="E29" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C29,1)-INDEX(E0!J$12:J$58,D29,1))))*100000000</f>
-        <v>2315.5792830641126</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C29,1)-INDEX(E0!J$12:J$57,D29,1))))*100000000</f>
+        <v>5834.6296835491567</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>54</v>
@@ -4185,8 +4136,8 @@
         <v>2</v>
       </c>
       <c r="E30" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C30,1)-INDEX(E0!J$12:J$58,D30,1))))*100000000</f>
-        <v>1660.8093071213448</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C30,1)-INDEX(E0!J$12:J$57,D30,1))))*100000000</f>
+        <v>833.94481328832194</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>54</v>
@@ -4231,8 +4182,8 @@
         <v>3</v>
       </c>
       <c r="E31" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C31,1)-INDEX(E0!J$12:J$58,D31,1))))*100000000</f>
-        <v>1666.1498128368992</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C31,1)-INDEX(E0!J$12:J$57,D31,1))))*100000000</f>
+        <v>835.2891954501257</v>
       </c>
       <c r="F31" s="32">
         <v>613750000</v>
@@ -4279,8 +4230,8 @@
         <v>4</v>
       </c>
       <c r="E32" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C32,1)-INDEX(E0!J$12:J$58,D32,1))))*100000000</f>
-        <v>2496.784176262719</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C32,1)-INDEX(E0!J$12:J$57,D32,1))))*100000000</f>
+        <v>1002.4869467925834</v>
       </c>
       <c r="F32" s="32">
         <v>21080</v>
@@ -4327,8 +4278,8 @@
         <v>6</v>
       </c>
       <c r="E33" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C33,1)-INDEX(E0!J$12:J$58,D33,1))))*100000000</f>
-        <v>5834.6296835491567</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C33,1)-INDEX(E0!J$12:J$57,D33,1))))*100000000</f>
+        <v>1675.0305737695753</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>54</v>
@@ -4365,8 +4316,8 @@
         <v>1</v>
       </c>
       <c r="E34" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C34,1)-INDEX(E0!J$12:J$58,D34,1))))*100000000</f>
-        <v>833.15844621798158</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C34,1)-INDEX(E0!J$12:J$57,D34,1))))*100000000</f>
+        <v>832.96272377682988</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>54</v>
@@ -4411,8 +4362,8 @@
         <v>2</v>
       </c>
       <c r="E35" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C35,1)-INDEX(E0!J$12:J$58,D35,1))))*100000000</f>
-        <v>833.94481328832194</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C35,1)-INDEX(E0!J$12:J$57,D35,1))))*100000000</f>
+        <v>833.74872125551781</v>
       </c>
       <c r="F35" s="32">
         <v>469270000</v>
@@ -4459,8 +4410,8 @@
         <v>3</v>
       </c>
       <c r="E36" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C36,1)-INDEX(E0!J$12:J$58,D36,1))))*100000000</f>
-        <v>835.2891954501257</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C36,1)-INDEX(E0!J$12:J$57,D36,1))))*100000000</f>
+        <v>835.09247075189137</v>
       </c>
       <c r="F36" s="32">
         <v>147820000</v>
@@ -4507,8 +4458,8 @@
         <v>4</v>
       </c>
       <c r="E37" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C37,1)-INDEX(E0!J$12:J$58,D37,1))))*100000000</f>
-        <v>1002.4869467925834</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C37,1)-INDEX(E0!J$12:J$57,D37,1))))*100000000</f>
+        <v>1002.2035974954221</v>
       </c>
       <c r="F37" s="32">
         <v>4092.8</v>
@@ -4555,8 +4506,8 @@
         <v>5</v>
       </c>
       <c r="E38" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C38,1)-INDEX(E0!J$12:J$58,D38,1))))*100000000</f>
-        <v>833.15844621798158</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C38,1)-INDEX(E0!J$12:J$57,D38,1))))*100000000</f>
+        <v>1300.9373291159536</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>54</v>
@@ -4601,8 +4552,8 @@
         <v>6</v>
       </c>
       <c r="E39" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C39,1)-INDEX(E0!J$12:J$58,D39,1))))*100000000</f>
-        <v>1301.4148139449628</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C39,1)-INDEX(E0!J$12:J$57,D39,1))))*100000000</f>
+        <v>1674.2396623967786</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>54</v>
@@ -4639,8 +4590,8 @@
         <v>7</v>
       </c>
       <c r="E40" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C40,1)-INDEX(E0!J$12:J$58,D40,1))))*100000000</f>
-        <v>1675.0305737695753</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C40,1)-INDEX(E0!J$12:J$57,D40,1))))*100000000</f>
+        <v>3545786.1889314544</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>54</v>
@@ -4677,8 +4628,8 @@
         <v>1</v>
       </c>
       <c r="E41" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C41,1)-INDEX(E0!J$12:J$58,D41,1))))*100000000</f>
-        <v>832.96272377682988</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C41,1)-INDEX(E0!J$12:J$57,D41,1))))*100000000</f>
+        <v>832.92922409550556</v>
       </c>
       <c r="F41" s="32">
         <v>348910000</v>
@@ -4725,8 +4676,8 @@
         <v>2</v>
       </c>
       <c r="E42" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C42,1)-INDEX(E0!J$12:J$58,D42,1))))*100000000</f>
-        <v>833.74872125551781</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C42,1)-INDEX(E0!J$12:J$57,D42,1))))*100000000</f>
+        <v>833.71515832392572</v>
       </c>
       <c r="F42" s="32">
         <v>254240000</v>
@@ -4773,8 +4724,8 @@
         <v>3</v>
       </c>
       <c r="E43" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C43,1)-INDEX(E0!J$12:J$58,D43,1))))*100000000</f>
-        <v>835.09247075189137</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C43,1)-INDEX(E0!J$12:J$57,D43,1))))*100000000</f>
+        <v>835.0587995488155</v>
       </c>
       <c r="F43" s="32">
         <v>16034000</v>
@@ -4821,8 +4772,8 @@
         <v>4</v>
       </c>
       <c r="E44" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C44,1)-INDEX(E0!J$12:J$58,D44,1))))*100000000</f>
-        <v>1002.2035974954221</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C44,1)-INDEX(E0!J$12:J$57,D44,1))))*100000000</f>
+        <v>1002.1551023899192</v>
       </c>
       <c r="F44" s="32">
         <v>2357.8000000000002</v>
@@ -4869,8 +4820,8 @@
         <v>5</v>
       </c>
       <c r="E45" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C45,1)-INDEX(E0!J$12:J$58,D45,1))))*100000000</f>
-        <v>832.96272377682988</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C45,1)-INDEX(E0!J$12:J$57,D45,1))))*100000000</f>
+        <v>1300.8556158665733</v>
       </c>
       <c r="F45" s="32">
         <v>1699.2</v>
@@ -4917,8 +4868,8 @@
         <v>6</v>
       </c>
       <c r="E46" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C46,1)-INDEX(E0!J$12:J$58,D46,1))))*100000000</f>
-        <v>1300.9373291159536</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C46,1)-INDEX(E0!J$12:J$57,D46,1))))*100000000</f>
+        <v>1674.1043283231634</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>54</v>
@@ -4955,8 +4906,8 @@
         <v>7</v>
       </c>
       <c r="E47" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C47,1)-INDEX(E0!J$12:J$58,D47,1))))*100000000</f>
-        <v>1674.2396623967786</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C47,1)-INDEX(E0!J$12:J$57,D47,1))))*100000000</f>
+        <v>3027465.2841573372</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>54</v>
@@ -4993,8 +4944,8 @@
         <v>8</v>
       </c>
       <c r="E48" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C48,1)-INDEX(E0!J$12:J$58,D48,1))))*100000000</f>
-        <v>3545786.1889314544</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C48,1)-INDEX(E0!J$12:J$57,D48,1))))*100000000</f>
+        <v>20710614.781614296</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>54</v>
@@ -5031,8 +4982,8 @@
         <v>1</v>
       </c>
       <c r="E49" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C49,1)-INDEX(E0!J$12:J$58,D49,1))))*100000000</f>
-        <v>832.92922409550556</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C49,1)-INDEX(E0!J$12:J$57,D49,1))))*100000000</f>
+        <v>702.34097760251495</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>54</v>
@@ -5077,8 +5028,8 @@
         <v>2</v>
       </c>
       <c r="E50" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C50,1)-INDEX(E0!J$12:J$58,D50,1))))*100000000</f>
-        <v>833.71515832392572</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C50,1)-INDEX(E0!J$12:J$57,D50,1))))*100000000</f>
+        <v>702.89970732607003</v>
       </c>
       <c r="F50" s="32">
         <v>450610000</v>
@@ -5125,8 +5076,8 @@
         <v>3</v>
       </c>
       <c r="E51" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C51,1)-INDEX(E0!J$12:J$58,D51,1))))*100000000</f>
-        <v>835.0587995488155</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C51,1)-INDEX(E0!J$12:J$57,D51,1))))*100000000</f>
+        <v>703.85453465539752</v>
       </c>
       <c r="F51" s="32">
         <v>1387000000</v>
@@ -5173,8 +5124,8 @@
         <v>4</v>
       </c>
       <c r="E52" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C52,1)-INDEX(E0!J$12:J$58,D52,1))))*100000000</f>
-        <v>1002.1551023899192</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C52,1)-INDEX(E0!J$12:J$57,D52,1))))*100000000</f>
+        <v>818.94905306628743</v>
       </c>
       <c r="F52" s="32">
         <v>7087.9</v>
@@ -5221,8 +5172,8 @@
         <v>5</v>
       </c>
       <c r="E53" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C53,1)-INDEX(E0!J$12:J$58,D53,1))))*100000000</f>
-        <v>832.92922409550556</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C53,1)-INDEX(E0!J$12:J$57,D53,1))))*100000000</f>
+        <v>1008.1128199581382</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>54</v>
@@ -5267,8 +5218,8 @@
         <v>6</v>
       </c>
       <c r="E54" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C54,1)-INDEX(E0!J$12:J$58,D54,1))))*100000000</f>
-        <v>1300.8556158665733</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C54,1)-INDEX(E0!J$12:J$57,D54,1))))*100000000</f>
+        <v>1218.676977607804</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>54</v>
@@ -5305,8 +5256,8 @@
         <v>7</v>
       </c>
       <c r="E55" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C55,1)-INDEX(E0!J$12:J$58,D55,1))))*100000000</f>
-        <v>1674.1043283231634</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C55,1)-INDEX(E0!J$12:J$57,D55,1))))*100000000</f>
+        <v>4473.112985656302</v>
       </c>
       <c r="F55" s="32" t="s">
         <v>54</v>
@@ -5343,8 +5294,8 @@
         <v>8</v>
       </c>
       <c r="E56" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C56,1)-INDEX(E0!J$12:J$58,D56,1))))*100000000</f>
-        <v>3027465.2841573372</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C56,1)-INDEX(E0!J$12:J$57,D56,1))))*100000000</f>
+        <v>4478.7630762733543</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>54</v>
@@ -5381,8 +5332,8 @@
         <v>9</v>
       </c>
       <c r="E57" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C57,1)-INDEX(E0!J$12:J$58,D57,1))))*100000000</f>
-        <v>20710614.781614296</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C57,1)-INDEX(E0!J$12:J$57,D57,1))))*100000000</f>
+        <v>4479.7318383193215</v>
       </c>
       <c r="F57" s="32" t="s">
         <v>54</v>
@@ -5419,8 +5370,8 @@
         <v>1</v>
       </c>
       <c r="E58" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C58,1)-INDEX(E0!J$12:J$58,D58,1))))*100000000</f>
-        <v>702.34097760251495</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C58,1)-INDEX(E0!J$12:J$57,D58,1))))*100000000</f>
+        <v>702.33718841546272</v>
       </c>
       <c r="F58" s="32">
         <v>611220000</v>
@@ -5467,8 +5418,8 @@
         <v>2</v>
       </c>
       <c r="E59" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C59,1)-INDEX(E0!J$12:J$58,D59,1))))*100000000</f>
-        <v>702.89970732607003</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C59,1)-INDEX(E0!J$12:J$57,D59,1))))*100000000</f>
+        <v>702.89591210785079</v>
       </c>
       <c r="F59" s="32">
         <v>470630000</v>
@@ -5515,8 +5466,8 @@
         <v>3</v>
       </c>
       <c r="E60" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C60,1)-INDEX(E0!J$12:J$58,D60,1))))*100000000</f>
-        <v>703.85453465539752</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C60,1)-INDEX(E0!J$12:J$57,D60,1))))*100000000</f>
+        <v>703.85072911926386</v>
       </c>
       <c r="F60" s="32">
         <v>760800000</v>
@@ -5563,8 +5514,8 @@
         <v>4</v>
       </c>
       <c r="E61" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C61,1)-INDEX(E0!J$12:J$58,D61,1))))*100000000</f>
-        <v>818.94905306628743</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C61,1)-INDEX(E0!J$12:J$57,D61,1))))*100000000</f>
+        <v>818.94390121390882</v>
       </c>
       <c r="F61" s="32">
         <v>27461</v>
@@ -5611,8 +5562,8 @@
         <v>5</v>
       </c>
       <c r="E62" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C62,1)-INDEX(E0!J$12:J$58,D62,1))))*100000000</f>
-        <v>702.34097760251495</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C62,1)-INDEX(E0!J$12:J$57,D62,1))))*100000000</f>
+        <v>1008.1050132618436</v>
       </c>
       <c r="F62" s="32">
         <v>9578.2000000000007</v>
@@ -5659,8 +5610,8 @@
         <v>6</v>
       </c>
       <c r="E63" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C63,1)-INDEX(E0!J$12:J$58,D63,1))))*100000000</f>
-        <v>1008.1128199581382</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C63,1)-INDEX(E0!J$12:J$57,D63,1))))*100000000</f>
+        <v>1218.6655691873075</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>54</v>
@@ -5697,8 +5648,8 @@
         <v>7</v>
       </c>
       <c r="E64" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C64,1)-INDEX(E0!J$12:J$58,D64,1))))*100000000</f>
-        <v>1218.676977607804</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C64,1)-INDEX(E0!J$12:J$57,D64,1))))*100000000</f>
+        <v>4472.9592915599214</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>54</v>
@@ -5735,8 +5686,8 @@
         <v>8</v>
       </c>
       <c r="E65" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C65,1)-INDEX(E0!J$12:J$58,D65,1))))*100000000</f>
-        <v>4473.112985656302</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C65,1)-INDEX(E0!J$12:J$57,D65,1))))*100000000</f>
+        <v>4478.608993669437</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>54</v>
@@ -5773,8 +5724,8 @@
         <v>9</v>
       </c>
       <c r="E66" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C66,1)-INDEX(E0!J$12:J$58,D66,1))))*100000000</f>
-        <v>4478.7630762733543</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C66,1)-INDEX(E0!J$12:J$57,D66,1))))*100000000</f>
+        <v>4479.5776890528232</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>54</v>
@@ -5811,8 +5762,8 @@
         <v>10</v>
       </c>
       <c r="E67" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C67,1)-INDEX(E0!J$12:J$58,D67,1))))*100000000</f>
-        <v>4479.7318383193215</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C67,1)-INDEX(E0!J$12:J$57,D67,1))))*100000000</f>
+        <v>130181007.35520542</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>54</v>
@@ -5849,8 +5800,8 @@
         <v>2</v>
       </c>
       <c r="E68" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C68,1)-INDEX(E0!J$12:J$58,D68,1))))*100000000</f>
-        <v>702.89591210785079</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C68,1)-INDEX(E0!J$12:J$57,D68,1))))*100000000</f>
+        <v>702.83790458722126</v>
       </c>
       <c r="F68" s="32">
         <v>1845500000</v>
@@ -5897,8 +5848,8 @@
         <v>3</v>
       </c>
       <c r="E69" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C69,1)-INDEX(E0!J$12:J$58,D69,1))))*100000000</f>
-        <v>703.85072911926386</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C69,1)-INDEX(E0!J$12:J$57,D69,1))))*100000000</f>
+        <v>703.79256390275475</v>
       </c>
       <c r="F69" s="32" t="s">
         <v>54</v>
@@ -5943,8 +5894,8 @@
         <v>4</v>
       </c>
       <c r="E70" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C70,1)-INDEX(E0!J$12:J$58,D70,1))))*100000000</f>
-        <v>818.94390121390882</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C70,1)-INDEX(E0!J$12:J$57,D70,1))))*100000000</f>
+        <v>818.86515953748062</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>54</v>
@@ -5989,8 +5940,8 @@
         <v>6</v>
       </c>
       <c r="E71" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C71,1)-INDEX(E0!J$12:J$58,D71,1))))*100000000</f>
-        <v>1008.1050132618436</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C71,1)-INDEX(E0!J$12:J$57,D71,1))))*100000000</f>
+        <v>1218.4912099132748</v>
       </c>
       <c r="F71" s="32" t="s">
         <v>54</v>
@@ -6027,8 +5978,8 @@
         <v>8</v>
       </c>
       <c r="E72" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C72,1)-INDEX(E0!J$12:J$58,D72,1))))*100000000</f>
-        <v>4472.9592915599214</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C72,1)-INDEX(E0!J$12:J$57,D72,1))))*100000000</f>
+        <v>4476.2550499115205</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>54</v>
@@ -6065,8 +6016,8 @@
         <v>9</v>
       </c>
       <c r="E73" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C73,1)-INDEX(E0!J$12:J$58,D73,1))))*100000000</f>
-        <v>4478.608993669437</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C73,1)-INDEX(E0!J$12:J$57,D73,1))))*100000000</f>
+        <v>4477.2227271655947</v>
       </c>
       <c r="F73" s="32" t="s">
         <v>54</v>
@@ -6103,8 +6054,8 @@
         <v>10</v>
       </c>
       <c r="E74" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C74,1)-INDEX(E0!J$12:J$58,D74,1))))*100000000</f>
-        <v>4479.5776890528232</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C74,1)-INDEX(E0!J$12:J$57,D74,1))))*100000000</f>
+        <v>7993570.618957961</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>54</v>
@@ -6141,8 +6092,8 @@
         <v>11</v>
       </c>
       <c r="E75" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C75,1)-INDEX(E0!J$12:J$58,D75,1))))*100000000</f>
-        <v>130181007.35520542</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C75,1)-INDEX(E0!J$12:J$57,D75,1))))*100000000</f>
+        <v>8516514.4906605463</v>
       </c>
       <c r="F75" s="32" t="s">
         <v>54</v>
@@ -6179,8 +6130,8 @@
         <v>1</v>
       </c>
       <c r="E76" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C76,1)-INDEX(E0!J$12:J$58,D76,1))))*100000000</f>
-        <v>702.2792730733737</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C76,1)-INDEX(E0!J$12:J$57,D76,1))))*100000000</f>
+        <v>534.60512739110845</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>54</v>
@@ -6225,8 +6176,8 @@
         <v>2</v>
       </c>
       <c r="E77" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C77,1)-INDEX(E0!J$12:J$58,D77,1))))*100000000</f>
-        <v>702.83790458722126</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C77,1)-INDEX(E0!J$12:J$57,D77,1))))*100000000</f>
+        <v>534.92878773839675</v>
       </c>
       <c r="F77" s="32">
         <v>13246</v>
@@ -6273,8 +6224,8 @@
         <v>3</v>
       </c>
       <c r="E78" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C78,1)-INDEX(E0!J$12:J$58,D78,1))))*100000000</f>
-        <v>703.79256390275475</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C78,1)-INDEX(E0!J$12:J$57,D78,1))))*100000000</f>
+        <v>535.48161455319905</v>
       </c>
       <c r="F78" s="32">
         <v>281050</v>
@@ -6321,8 +6272,8 @@
         <v>4</v>
       </c>
       <c r="E79" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C79,1)-INDEX(E0!J$12:J$58,D79,1))))*100000000</f>
-        <v>818.86515953748062</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C79,1)-INDEX(E0!J$12:J$57,D79,1))))*100000000</f>
+        <v>599.58982608760448</v>
       </c>
       <c r="F79" s="32">
         <v>5462600000</v>
@@ -6369,8 +6320,8 @@
         <v>5</v>
       </c>
       <c r="E80" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C80,1)-INDEX(E0!J$12:J$58,D80,1))))*100000000</f>
-        <v>702.2792730733737</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C80,1)-INDEX(E0!J$12:J$57,D80,1))))*100000000</f>
+        <v>695.08058478193323</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>54</v>
@@ -6415,8 +6366,8 @@
         <v>6</v>
       </c>
       <c r="E81" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C81,1)-INDEX(E0!J$12:J$58,D81,1))))*100000000</f>
-        <v>1007.9856973802187</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C81,1)-INDEX(E0!J$12:J$57,D81,1))))*100000000</f>
+        <v>789.08436022143246</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>54</v>
@@ -6453,8 +6404,8 @@
         <v>7</v>
       </c>
       <c r="E82" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C82,1)-INDEX(E0!J$12:J$58,D82,1))))*100000000</f>
-        <v>1218.4912099132748</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C82,1)-INDEX(E0!J$12:J$57,D82,1))))*100000000</f>
+        <v>1491.8969215533309</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>54</v>
@@ -6491,8 +6442,8 @@
         <v>8</v>
       </c>
       <c r="E83" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C83,1)-INDEX(E0!J$12:J$58,D83,1))))*100000000</f>
-        <v>4470.611281432989</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C83,1)-INDEX(E0!J$12:J$57,D83,1))))*100000000</f>
+        <v>1492.5249045144405</v>
       </c>
       <c r="F83" s="32" t="s">
         <v>54</v>
@@ -6529,8 +6480,8 @@
         <v>9</v>
       </c>
       <c r="E84" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C84,1)-INDEX(E0!J$12:J$58,D84,1))))*100000000</f>
-        <v>4476.2550499115205</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C84,1)-INDEX(E0!J$12:J$57,D84,1))))*100000000</f>
+        <v>1492.6324721149879</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>54</v>
@@ -6567,8 +6518,8 @@
         <v>10</v>
       </c>
       <c r="E85" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C85,1)-INDEX(E0!J$12:J$58,D85,1))))*100000000</f>
-        <v>4477.2227271655947</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C85,1)-INDEX(E0!J$12:J$57,D85,1))))*100000000</f>
+        <v>2238.4903843153197</v>
       </c>
       <c r="F85" s="32" t="s">
         <v>54</v>
@@ -6605,8 +6556,8 @@
         <v>11</v>
       </c>
       <c r="E86" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C86,1)-INDEX(E0!J$12:J$58,D86,1))))*100000000</f>
-        <v>7993570.618957961</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C86,1)-INDEX(E0!J$12:J$57,D86,1))))*100000000</f>
+        <v>2238.5288763001836</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>54</v>
@@ -6643,8 +6594,8 @@
         <v>12</v>
       </c>
       <c r="E87" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C87,1)-INDEX(E0!J$12:J$58,D87,1))))*100000000</f>
-        <v>8516514.4906605463</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C87,1)-INDEX(E0!J$12:J$57,D87,1))))*100000000</f>
+        <v>2239.1174185969708</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>54</v>
@@ -6681,8 +6632,8 @@
         <v>1</v>
       </c>
       <c r="E88" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C88,1)-INDEX(E0!J$12:J$58,D88,1))))*100000000</f>
-        <v>534.60512739110845</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C88,1)-INDEX(E0!J$12:J$57,D88,1))))*100000000</f>
+        <v>507.38841174441745</v>
       </c>
       <c r="F88" s="32">
         <v>1588100000</v>
@@ -6729,8 +6680,8 @@
         <v>2</v>
       </c>
       <c r="E89" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C89,1)-INDEX(E0!J$12:J$58,D89,1))))*100000000</f>
-        <v>534.92878773839675</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C89,1)-INDEX(E0!J$12:J$57,D89,1))))*100000000</f>
+        <v>507.67994691754058</v>
       </c>
       <c r="F89" s="32">
         <v>4764600000</v>
@@ -6777,8 +6728,8 @@
         <v>3</v>
       </c>
       <c r="E90" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C90,1)-INDEX(E0!J$12:J$58,D90,1))))*100000000</f>
-        <v>535.48161455319905</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C90,1)-INDEX(E0!J$12:J$57,D90,1))))*100000000</f>
+        <v>508.17786089241696</v>
       </c>
       <c r="F90" s="32">
         <v>7947800000</v>
@@ -6825,8 +6776,8 @@
         <v>4</v>
       </c>
       <c r="E91" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C91,1)-INDEX(E0!J$12:J$58,D91,1))))*100000000</f>
-        <v>599.58982608760448</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C91,1)-INDEX(E0!J$12:J$57,D91,1))))*100000000</f>
+        <v>565.56478433527809</v>
       </c>
       <c r="F91" s="32">
         <v>309330</v>
@@ -6873,8 +6824,8 @@
         <v>5</v>
       </c>
       <c r="E92" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C92,1)-INDEX(E0!J$12:J$58,D92,1))))*100000000</f>
-        <v>534.60512739110845</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C92,1)-INDEX(E0!J$12:J$57,D92,1))))*100000000</f>
+        <v>649.76442107833782</v>
       </c>
       <c r="F92" s="32">
         <v>69749</v>
@@ -6921,8 +6872,8 @@
         <v>6</v>
       </c>
       <c r="E93" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C93,1)-INDEX(E0!J$12:J$58,D93,1))))*100000000</f>
-        <v>695.08058478193323</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C93,1)-INDEX(E0!J$12:J$57,D93,1))))*100000000</f>
+        <v>731.19253570172009</v>
       </c>
       <c r="F93" s="32" t="s">
         <v>54</v>
@@ -6959,8 +6910,8 @@
         <v>7</v>
       </c>
       <c r="E94" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C94,1)-INDEX(E0!J$12:J$58,D94,1))))*100000000</f>
-        <v>789.08436022143246</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C94,1)-INDEX(E0!J$12:J$57,D94,1))))*100000000</f>
+        <v>1297.6483286472831</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>54</v>
@@ -6997,8 +6948,8 @@
         <v>8</v>
       </c>
       <c r="E95" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C95,1)-INDEX(E0!J$12:J$58,D95,1))))*100000000</f>
-        <v>1491.8969215533309</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C95,1)-INDEX(E0!J$12:J$57,D95,1))))*100000000</f>
+        <v>1298.1234017546019</v>
       </c>
       <c r="F95" s="32" t="s">
         <v>54</v>
@@ -7035,8 +6986,8 @@
         <v>9</v>
       </c>
       <c r="E96" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C96,1)-INDEX(E0!J$12:J$58,D96,1))))*100000000</f>
-        <v>1492.5249045144405</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C96,1)-INDEX(E0!J$12:J$57,D96,1))))*100000000</f>
+        <v>1298.2047721056376</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>54</v>
@@ -7073,8 +7024,8 @@
         <v>10</v>
       </c>
       <c r="E97" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C97,1)-INDEX(E0!J$12:J$58,D97,1))))*100000000</f>
-        <v>1492.6324721149879</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C97,1)-INDEX(E0!J$12:J$57,D97,1))))*100000000</f>
+        <v>1827.9301509073205</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>54</v>
@@ -7111,8 +7062,8 @@
         <v>11</v>
       </c>
       <c r="E98" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C98,1)-INDEX(E0!J$12:J$58,D98,1))))*100000000</f>
-        <v>2238.4903843153197</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C98,1)-INDEX(E0!J$12:J$57,D98,1))))*100000000</f>
+        <v>1827.9558180581762</v>
       </c>
       <c r="F98" s="32" t="s">
         <v>54</v>
@@ -7149,8 +7100,8 @@
         <v>12</v>
       </c>
       <c r="E99" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C99,1)-INDEX(E0!J$12:J$58,D99,1))))*100000000</f>
-        <v>2238.5288763001836</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C99,1)-INDEX(E0!J$12:J$57,D99,1))))*100000000</f>
+        <v>1828.3482485321695</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>54</v>
@@ -7187,8 +7138,8 @@
         <v>13</v>
       </c>
       <c r="E100" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C100,1)-INDEX(E0!J$12:J$58,D100,1))))*100000000</f>
-        <v>2239.1174185969708</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C100,1)-INDEX(E0!J$12:J$57,D100,1))))*100000000</f>
+        <v>9966.3916108986687</v>
       </c>
       <c r="F100" s="32" t="s">
         <v>54</v>
@@ -7225,8 +7176,8 @@
         <v>1</v>
       </c>
       <c r="E101" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C101,1)-INDEX(E0!J$12:J$58,D101,1))))*100000000</f>
-        <v>507.38841174441745</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C101,1)-INDEX(E0!J$12:J$57,D101,1))))*100000000</f>
+        <v>475.14561763651011</v>
       </c>
       <c r="F101" s="32">
         <v>62791</v>
@@ -7273,8 +7224,8 @@
         <v>2</v>
       </c>
       <c r="E102" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C102,1)-INDEX(E0!J$12:J$58,D102,1))))*100000000</f>
-        <v>507.67994691754058</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C102,1)-INDEX(E0!J$12:J$57,D102,1))))*100000000</f>
+        <v>475.40126862121889</v>
       </c>
       <c r="F102" s="32">
         <v>895910</v>
@@ -7321,8 +7272,8 @@
         <v>3</v>
       </c>
       <c r="E103" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C103,1)-INDEX(E0!J$12:J$58,D103,1))))*100000000</f>
-        <v>508.17786089241696</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C103,1)-INDEX(E0!J$12:J$57,D103,1))))*100000000</f>
+        <v>475.83785269494734</v>
       </c>
       <c r="F103" s="32">
         <v>194680</v>
@@ -7369,8 +7320,8 @@
         <v>4</v>
       </c>
       <c r="E104" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C104,1)-INDEX(E0!J$12:J$58,D104,1))))*100000000</f>
-        <v>565.56478433527809</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C104,1)-INDEX(E0!J$12:J$57,D104,1))))*100000000</f>
+        <v>525.79406576749489</v>
       </c>
       <c r="F104" s="32">
         <v>9380000000</v>
@@ -7417,8 +7368,8 @@
         <v>5</v>
       </c>
       <c r="E105" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C105,1)-INDEX(E0!J$12:J$58,D105,1))))*100000000</f>
-        <v>507.38841174441745</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C105,1)-INDEX(E0!J$12:J$57,D105,1))))*100000000</f>
+        <v>597.81418331215878</v>
       </c>
       <c r="F105" s="32">
         <v>1507800000</v>
@@ -7465,8 +7416,8 @@
         <v>6</v>
       </c>
       <c r="E106" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C106,1)-INDEX(E0!J$12:J$58,D106,1))))*100000000</f>
-        <v>649.76442107833782</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C106,1)-INDEX(E0!J$12:J$57,D106,1))))*100000000</f>
+        <v>666.05829039460411</v>
       </c>
       <c r="F106" s="32" t="s">
         <v>54</v>
@@ -7503,8 +7454,8 @@
         <v>7</v>
       </c>
       <c r="E107" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C107,1)-INDEX(E0!J$12:J$58,D107,1))))*100000000</f>
-        <v>731.19253570172009</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C107,1)-INDEX(E0!J$12:J$57,D107,1))))*100000000</f>
+        <v>1105.7469255664707</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>54</v>
@@ -7541,8 +7492,8 @@
         <v>8</v>
       </c>
       <c r="E108" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C108,1)-INDEX(E0!J$12:J$58,D108,1))))*100000000</f>
-        <v>1297.6483286472831</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C108,1)-INDEX(E0!J$12:J$57,D108,1))))*100000000</f>
+        <v>1106.0918582856266</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>54</v>
@@ -7579,8 +7530,8 @@
         <v>9</v>
       </c>
       <c r="E109" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C109,1)-INDEX(E0!J$12:J$58,D109,1))))*100000000</f>
-        <v>1298.1234017546019</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C109,1)-INDEX(E0!J$12:J$57,D109,1))))*100000000</f>
+        <v>1106.1509344915034</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>54</v>
@@ -7617,8 +7568,8 @@
         <v>10</v>
       </c>
       <c r="E110" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C110,1)-INDEX(E0!J$12:J$58,D110,1))))*100000000</f>
-        <v>1298.2047721056376</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C110,1)-INDEX(E0!J$12:J$57,D110,1))))*100000000</f>
+        <v>1468.8426631789964</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>54</v>
@@ -7655,8 +7606,8 @@
         <v>11</v>
       </c>
       <c r="E111" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C111,1)-INDEX(E0!J$12:J$58,D111,1))))*100000000</f>
-        <v>1827.9301509073205</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C111,1)-INDEX(E0!J$12:J$57,D111,1))))*100000000</f>
+        <v>1468.8592364346234</v>
       </c>
       <c r="F111" s="32" t="s">
         <v>54</v>
@@ -7693,8 +7644,8 @@
         <v>12</v>
       </c>
       <c r="E112" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C112,1)-INDEX(E0!J$12:J$58,D112,1))))*100000000</f>
-        <v>1827.9558180581762</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C112,1)-INDEX(E0!J$12:J$57,D112,1))))*100000000</f>
+        <v>1469.1126170446457</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>54</v>
@@ -7731,8 +7682,8 @@
         <v>13</v>
       </c>
       <c r="E113" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C113,1)-INDEX(E0!J$12:J$58,D113,1))))*100000000</f>
-        <v>1828.3482485321695</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C113,1)-INDEX(E0!J$12:J$57,D113,1))))*100000000</f>
+        <v>4272.071607960891</v>
       </c>
       <c r="F113" s="32" t="s">
         <v>54</v>
@@ -7769,8 +7720,8 @@
         <v>14</v>
       </c>
       <c r="E114" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C114,1)-INDEX(E0!J$12:J$58,D114,1))))*100000000</f>
-        <v>9966.3916108986687</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C114,1)-INDEX(E0!J$12:J$57,D114,1))))*100000000</f>
+        <v>7477.1243296431676</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>54</v>
@@ -7807,8 +7758,8 @@
         <v>2</v>
       </c>
       <c r="E115" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C115,1)-INDEX(E0!J$12:J$58,D115,1))))*100000000</f>
-        <v>475.40126862121889</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C115,1)-INDEX(E0!J$12:J$57,D115,1))))*100000000</f>
+        <v>374.3277965900408</v>
       </c>
       <c r="F115" s="32">
         <v>3921900000</v>
@@ -7855,8 +7806,8 @@
         <v>1</v>
       </c>
       <c r="E116" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C116,1)-INDEX(E0!J$12:J$58,D116,1))))*100000000</f>
-        <v>374.16927785096203</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C116,1)-INDEX(E0!J$12:J$57,D116,1))))*100000000</f>
+        <v>374.00359428722555</v>
       </c>
       <c r="F116" s="32">
         <v>1307200000</v>
@@ -7903,8 +7854,8 @@
         <v>2</v>
       </c>
       <c r="E117" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C117,1)-INDEX(E0!J$12:J$58,D117,1))))*100000000</f>
-        <v>374.3277965900408</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C117,1)-INDEX(E0!J$12:J$57,D117,1))))*100000000</f>
+        <v>374.1619726422868</v>
       </c>
       <c r="F117" s="32">
         <v>979080000</v>
@@ -7951,8 +7902,8 @@
         <v>3</v>
       </c>
       <c r="E118" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C118,1)-INDEX(E0!J$12:J$58,D118,1))))*100000000</f>
-        <v>374.59842076244689</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C118,1)-INDEX(E0!J$12:J$57,D118,1))))*100000000</f>
+        <v>374.43235701291167</v>
       </c>
       <c r="F118" s="32">
         <v>1635000000</v>
@@ -7999,8 +7950,8 @@
         <v>4</v>
       </c>
       <c r="E119" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C119,1)-INDEX(E0!J$12:J$58,D119,1))))*100000000</f>
-        <v>404.88215452853655</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C119,1)-INDEX(E0!J$12:J$57,D119,1))))*100000000</f>
+        <v>404.68816215277621</v>
       </c>
       <c r="F119" s="32">
         <v>1889600</v>
@@ -8047,8 +7998,8 @@
         <v>5</v>
       </c>
       <c r="E120" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C120,1)-INDEX(E0!J$12:J$58,D120,1))))*100000000</f>
-        <v>374.16927785096203</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C120,1)-INDEX(E0!J$12:J$57,D120,1))))*100000000</f>
+        <v>446.04749623156931</v>
       </c>
       <c r="F120" s="32">
         <v>1028700</v>
@@ -8095,8 +8046,8 @@
         <v>2</v>
       </c>
       <c r="E121" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C121,1)-INDEX(E0!J$12:J$58,D121,1))))*100000000</f>
-        <v>374.1619726422868</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C121,1)-INDEX(E0!J$12:J$57,D121,1))))*100000000</f>
+        <v>373.80267216466558</v>
       </c>
       <c r="F121" s="32">
         <v>982200000</v>
@@ -8143,8 +8094,8 @@
         <v>3</v>
       </c>
       <c r="E122" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C122,1)-INDEX(E0!J$12:J$58,D122,1))))*100000000</f>
-        <v>374.43235701291167</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C122,1)-INDEX(E0!J$12:J$57,D122,1))))*100000000</f>
+        <v>374.07253730763023</v>
       </c>
       <c r="F122" s="32">
         <v>2944800000</v>
@@ -8191,8 +8142,8 @@
         <v>4</v>
       </c>
       <c r="E123" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C123,1)-INDEX(E0!J$12:J$58,D123,1))))*100000000</f>
-        <v>404.68816215277621</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C123,1)-INDEX(E0!J$12:J$57,D123,1))))*100000000</f>
+        <v>404.26787561502033</v>
       </c>
       <c r="F123" s="32">
         <v>189050</v>
@@ -8239,8 +8190,8 @@
         <v>1</v>
       </c>
       <c r="E124" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C124,1)-INDEX(E0!J$12:J$58,D124,1))))*100000000</f>
-        <v>373.64459777462275</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C124,1)-INDEX(E0!J$12:J$57,D124,1))))*100000000</f>
+        <v>366.19127077060938</v>
       </c>
       <c r="F124" s="32">
         <v>701190</v>
@@ -8287,8 +8238,8 @@
         <v>2</v>
       </c>
       <c r="E125" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C125,1)-INDEX(E0!J$12:J$58,D125,1))))*100000000</f>
-        <v>373.80267216466558</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C125,1)-INDEX(E0!J$12:J$57,D125,1))))*100000000</f>
+        <v>366.34310035718261</v>
       </c>
       <c r="F125" s="32">
         <v>931880</v>
@@ -8335,8 +8286,8 @@
         <v>3</v>
       </c>
       <c r="E126" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C126,1)-INDEX(E0!J$12:J$58,D126,1))))*100000000</f>
-        <v>374.07253730763023</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C126,1)-INDEX(E0!J$12:J$57,D126,1))))*100000000</f>
+        <v>366.6022984284545</v>
       </c>
       <c r="F126" s="32">
         <v>743820</v>
@@ -8383,8 +8334,8 @@
         <v>4</v>
       </c>
       <c r="E127" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C127,1)-INDEX(E0!J$12:J$58,D127,1))))*100000000</f>
-        <v>404.26787561502033</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C127,1)-INDEX(E0!J$12:J$57,D127,1))))*100000000</f>
+        <v>395.55700048820933</v>
       </c>
       <c r="F127" s="32">
         <v>3022700000</v>
@@ -8431,8 +8382,8 @@
         <v>5</v>
       </c>
       <c r="E128" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C128,1)-INDEX(E0!J$12:J$58,D128,1))))*100000000</f>
-        <v>373.64459777462275</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C128,1)-INDEX(E0!J$12:J$57,D128,1))))*100000000</f>
+        <v>434.98006291611267</v>
       </c>
       <c r="F128" s="32">
         <v>1647100000</v>
@@ -8479,8 +8430,8 @@
         <v>6</v>
       </c>
       <c r="E129" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C129,1)-INDEX(E0!J$12:J$58,D129,1))))*100000000</f>
-        <v>434.98006291611267</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C129,1)-INDEX(E0!J$12:J$57,D129,1))))*100000000</f>
+        <v>447.55763859939714</v>
       </c>
       <c r="F129" s="32">
         <v>19939</v>
@@ -8527,8 +8478,8 @@
         <v>7</v>
       </c>
       <c r="E130" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C130,1)-INDEX(E0!J$12:J$58,D130,1))))*100000000</f>
-        <v>470.02079119068594</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C130,1)-INDEX(E0!J$12:J$57,D130,1))))*100000000</f>
+        <v>610.74481293892563</v>
       </c>
       <c r="F130" s="32">
         <v>4079500000</v>
@@ -8575,8 +8526,8 @@
         <v>8</v>
       </c>
       <c r="E131" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C131,1)-INDEX(E0!J$12:J$58,D131,1))))*100000000</f>
-        <v>653.355024111783</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C131,1)-INDEX(E0!J$12:J$57,D131,1))))*100000000</f>
+        <v>610.85002895218406</v>
       </c>
       <c r="F131" s="32">
         <v>741900000</v>
@@ -8623,8 +8574,8 @@
         <v>9</v>
       </c>
       <c r="E132" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C132,1)-INDEX(E0!J$12:J$58,D132,1))))*100000000</f>
-        <v>653.47543505476631</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C132,1)-INDEX(E0!J$12:J$57,D132,1))))*100000000</f>
+        <v>610.8680462234073</v>
       </c>
       <c r="F132" s="32">
         <v>50127000</v>
@@ -8671,8 +8622,8 @@
         <v>10</v>
       </c>
       <c r="E133" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C133,1)-INDEX(E0!J$12:J$58,D133,1))))*100000000</f>
-        <v>653.49605460773921</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C133,1)-INDEX(E0!J$12:J$57,D133,1))))*100000000</f>
+        <v>707.32007709075606</v>
       </c>
       <c r="F133" s="32">
         <v>557020000</v>
@@ -8719,8 +8670,8 @@
         <v>11</v>
       </c>
       <c r="E134" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C134,1)-INDEX(E0!J$12:J$58,D134,1))))*100000000</f>
-        <v>765.10890795197849</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C134,1)-INDEX(E0!J$12:J$57,D134,1))))*100000000</f>
+        <v>707.32392023515899</v>
       </c>
       <c r="F134" s="32">
         <v>190340000</v>
@@ -8767,8 +8718,8 @@
         <v>13</v>
       </c>
       <c r="E135" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C135,1)-INDEX(E0!J$12:J$58,D135,1))))*100000000</f>
-        <v>765.18214777250091</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C135,1)-INDEX(E0!J$12:J$57,D135,1))))*100000000</f>
+        <v>1034.0647175106267</v>
       </c>
       <c r="F135" s="32">
         <v>98629</v>
@@ -8815,8 +8766,8 @@
         <v>14</v>
       </c>
       <c r="E136" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C136,1)-INDEX(E0!J$12:J$58,D136,1))))*100000000</f>
-        <v>1162.4205685222985</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C136,1)-INDEX(E0!J$12:J$57,D136,1))))*100000000</f>
+        <v>1153.7748280745213</v>
       </c>
       <c r="F136" s="32">
         <v>431290000</v>
@@ -8863,8 +8814,8 @@
         <v>15</v>
       </c>
       <c r="E137" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C137,1)-INDEX(E0!J$12:J$58,D137,1))))*100000000</f>
-        <v>1315.8992171479965</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C137,1)-INDEX(E0!J$12:J$57,D137,1))))*100000000</f>
+        <v>1364.2955898271589</v>
       </c>
       <c r="F137" s="32">
         <v>14647</v>
@@ -8911,8 +8862,8 @@
         <v>17</v>
       </c>
       <c r="E138" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C138,1)-INDEX(E0!J$12:J$58,D138,1))))*100000000</f>
-        <v>17174.404830624368</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C138,1)-INDEX(E0!J$12:J$57,D138,1))))*100000000</f>
+        <v>6104.0427636777003</v>
       </c>
       <c r="F138" s="32">
         <v>19030</v>
@@ -8959,8 +8910,8 @@
         <v>18</v>
       </c>
       <c r="E139" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C139,1)-INDEX(E0!J$12:J$58,D139,1))))*100000000</f>
-        <v>17530.873007693266</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C139,1)-INDEX(E0!J$12:J$57,D139,1))))*100000000</f>
+        <v>6201.2850152600122</v>
       </c>
       <c r="F139" s="32">
         <v>52813</v>
@@ -9007,8 +8958,8 @@
         <v>19</v>
       </c>
       <c r="E140" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C140,1)-INDEX(E0!J$12:J$58,D140,1))))*100000000</f>
-        <v>18357.626064438831</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C140,1)-INDEX(E0!J$12:J$57,D140,1))))*100000000</f>
+        <v>9364.7316218428477</v>
       </c>
       <c r="F140" s="32">
         <v>3.6896</v>
@@ -9055,8 +9006,8 @@
         <v>6</v>
       </c>
       <c r="E141" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C141,1)-INDEX(E0!J$12:J$58,D141,1))))*100000000</f>
-        <v>415.67259130663962</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C141,1)-INDEX(E0!J$12:J$57,D141,1))))*100000000</f>
+        <v>447.12197718124133</v>
       </c>
       <c r="F141" s="32">
         <v>7840.9</v>
@@ -9103,8 +9054,8 @@
         <v>8</v>
       </c>
       <c r="E142" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C142,1)-INDEX(E0!J$12:J$58,D142,1))))*100000000</f>
-        <v>610.74481293892563</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C142,1)-INDEX(E0!J$12:J$57,D142,1))))*100000000</f>
+        <v>610.03875760670473</v>
       </c>
       <c r="F142" s="32">
         <v>3634800000</v>
@@ -9151,8 +9102,8 @@
         <v>9</v>
       </c>
       <c r="E143" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C143,1)-INDEX(E0!J$12:J$58,D143,1))))*100000000</f>
-        <v>610.85002895218406</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C143,1)-INDEX(E0!J$12:J$57,D143,1))))*100000000</f>
+        <v>610.05672705144423</v>
       </c>
       <c r="F143" s="32">
         <v>1226700000</v>
@@ -9199,8 +9150,8 @@
         <v>10</v>
       </c>
       <c r="E144" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C144,1)-INDEX(E0!J$12:J$58,D144,1))))*100000000</f>
-        <v>610.8680462234073</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C144,1)-INDEX(E0!J$12:J$57,D144,1))))*100000000</f>
+        <v>706.23255564672411</v>
       </c>
       <c r="F144" s="32">
         <v>329300000</v>
@@ -9247,8 +9198,8 @@
         <v>11</v>
       </c>
       <c r="E145" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C145,1)-INDEX(E0!J$12:J$58,D145,1))))*100000000</f>
-        <v>707.32007709075606</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C145,1)-INDEX(E0!J$12:J$57,D145,1))))*100000000</f>
+        <v>706.23638698232833</v>
       </c>
       <c r="F145" s="32">
         <v>181860000</v>
@@ -9295,8 +9246,8 @@
         <v>12</v>
       </c>
       <c r="E146" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C146,1)-INDEX(E0!J$12:J$58,D146,1))))*100000000</f>
-        <v>707.32392023515899</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C146,1)-INDEX(E0!J$12:J$57,D146,1))))*100000000</f>
+        <v>706.29495685842289</v>
       </c>
       <c r="F146" s="32">
         <v>252280000</v>
@@ -9343,8 +9294,8 @@
         <v>13</v>
       </c>
       <c r="E147" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C147,1)-INDEX(E0!J$12:J$58,D147,1))))*100000000</f>
-        <v>707.38267064112063</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C147,1)-INDEX(E0!J$12:J$57,D147,1))))*100000000</f>
+        <v>1031.7420184299476</v>
       </c>
       <c r="F147" s="32">
         <v>1552.1</v>
@@ -9391,8 +9342,8 @@
         <v>14</v>
       </c>
       <c r="E148" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C148,1)-INDEX(E0!J$12:J$58,D148,1))))*100000000</f>
-        <v>1034.0647175106267</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C148,1)-INDEX(E0!J$12:J$57,D148,1))))*100000000</f>
+        <v>1150.8839703976214</v>
       </c>
       <c r="F148" s="32">
         <v>435700000</v>
@@ -9439,8 +9390,8 @@
         <v>15</v>
       </c>
       <c r="E149" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C149,1)-INDEX(E0!J$12:J$58,D149,1))))*100000000</f>
-        <v>1153.7748280745213</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C149,1)-INDEX(E0!J$12:J$57,D149,1))))*100000000</f>
+        <v>1360.255388191199</v>
       </c>
       <c r="F149" s="32">
         <v>35898</v>
@@ -9487,8 +9438,8 @@
         <v>16</v>
       </c>
       <c r="E150" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C150,1)-INDEX(E0!J$12:J$58,D150,1))))*100000000</f>
-        <v>1364.2955898271589</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C150,1)-INDEX(E0!J$12:J$57,D150,1))))*100000000</f>
+        <v>5981.3303972639142</v>
       </c>
       <c r="F150" s="32">
         <v>27874</v>
@@ -9535,8 +9486,8 @@
         <v>17</v>
       </c>
       <c r="E151" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C151,1)-INDEX(E0!J$12:J$58,D151,1))))*100000000</f>
-        <v>6060.2458671456379</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C151,1)-INDEX(E0!J$12:J$57,D151,1))))*100000000</f>
+        <v>6023.9900745732093</v>
       </c>
       <c r="F151" s="32">
         <v>20098</v>
@@ -9583,8 +9534,8 @@
         <v>18</v>
       </c>
       <c r="E152" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C152,1)-INDEX(E0!J$12:J$58,D152,1))))*100000000</f>
-        <v>6104.0427636777003</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C152,1)-INDEX(E0!J$12:J$57,D152,1))))*100000000</f>
+        <v>6118.6786624156393</v>
       </c>
       <c r="F152" s="32">
         <v>31282</v>
@@ -9631,8 +9582,8 @@
         <v>19</v>
       </c>
       <c r="E153" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C153,1)-INDEX(E0!J$12:J$58,D153,1))))*100000000</f>
-        <v>6201.2850152600122</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C153,1)-INDEX(E0!J$12:J$57,D153,1))))*100000000</f>
+        <v>9177.6205259709659</v>
       </c>
       <c r="F153" s="32">
         <v>1.8097000000000001</v>
@@ -9679,8 +9630,8 @@
         <v>9</v>
       </c>
       <c r="E154" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C154,1)-INDEX(E0!J$12:J$58,D154,1))))*100000000</f>
-        <v>610.03875760670473</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C154,1)-INDEX(E0!J$12:J$57,D154,1))))*100000000</f>
+        <v>609.70524910830397</v>
       </c>
       <c r="F154" s="32">
         <v>4857000000</v>
@@ -9727,8 +9678,8 @@
         <v>11</v>
       </c>
       <c r="E155" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C155,1)-INDEX(E0!J$12:J$58,D155,1))))*100000000</f>
-        <v>706.23255564672411</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C155,1)-INDEX(E0!J$12:J$57,D155,1))))*100000000</f>
+        <v>705.76538973545814</v>
       </c>
       <c r="F155" s="32">
         <v>771060000</v>
@@ -9775,8 +9726,8 @@
         <v>14</v>
       </c>
       <c r="E156" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C156,1)-INDEX(E0!J$12:J$58,D156,1))))*100000000</f>
-        <v>1031.7420184299476</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C156,1)-INDEX(E0!J$12:J$57,D156,1))))*100000000</f>
+        <v>1149.6337143770572</v>
       </c>
       <c r="F156" s="32">
         <v>437700000</v>
@@ -9823,8 +9774,8 @@
         <v>15</v>
       </c>
       <c r="E157" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C157,1)-INDEX(E0!J$12:J$58,D157,1))))*100000000</f>
-        <v>1150.8839703976214</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C157,1)-INDEX(E0!J$12:J$57,D157,1))))*100000000</f>
+        <v>1358.5092003467514</v>
       </c>
       <c r="F157" s="32">
         <v>8458.2999999999993</v>
@@ -9871,8 +9822,8 @@
         <v>17</v>
       </c>
       <c r="E158" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C158,1)-INDEX(E0!J$12:J$58,D158,1))))*100000000</f>
-        <v>5981.3303972639142</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C158,1)-INDEX(E0!J$12:J$57,D158,1))))*100000000</f>
+        <v>5989.8934594607781</v>
       </c>
       <c r="F158" s="32">
         <v>82882</v>
@@ -9919,8 +9870,8 @@
         <v>19</v>
       </c>
       <c r="E159" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C159,1)-INDEX(E0!J$12:J$58,D159,1))))*100000000</f>
-        <v>6118.6786624156393</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C159,1)-INDEX(E0!J$12:J$57,D159,1))))*100000000</f>
+        <v>9098.7130796450874</v>
       </c>
       <c r="F159" s="32">
         <v>15.912000000000001</v>
@@ -9967,8 +9918,8 @@
         <v>6</v>
       </c>
       <c r="E160" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C160,1)-INDEX(E0!J$12:J$58,D160,1))))*100000000</f>
-        <v>415.13385512389556</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C160,1)-INDEX(E0!J$12:J$57,D160,1))))*100000000</f>
+        <v>433.58841600514188</v>
       </c>
       <c r="F160" s="32">
         <v>4.4939999999999997E-4</v>
@@ -10015,8 +9966,8 @@
         <v>8</v>
       </c>
       <c r="E161" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C161,1)-INDEX(E0!J$12:J$58,D161,1))))*100000000</f>
-        <v>609.58248448322342</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C161,1)-INDEX(E0!J$12:J$57,D161,1))))*100000000</f>
+        <v>585.12085918015339</v>
       </c>
       <c r="F161" s="32">
         <v>8368.7999999999993</v>
@@ -10063,8 +10014,8 @@
         <v>9</v>
       </c>
       <c r="E162" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C162,1)-INDEX(E0!J$12:J$58,D162,1))))*100000000</f>
-        <v>609.68730036311865</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C162,1)-INDEX(E0!J$12:J$57,D162,1))))*100000000</f>
+        <v>585.1373906108397</v>
       </c>
       <c r="F162" s="32">
         <v>52011</v>
@@ -10111,8 +10062,8 @@
         <v>10</v>
       </c>
       <c r="E163" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C163,1)-INDEX(E0!J$12:J$58,D163,1))))*100000000</f>
-        <v>609.70524910830397</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C163,1)-INDEX(E0!J$12:J$57,D163,1))))*100000000</f>
+        <v>673.05046358620871</v>
       </c>
       <c r="F163" s="32">
         <v>51750</v>
@@ -10159,8 +10110,8 @@
         <v>11</v>
       </c>
       <c r="E164" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C164,1)-INDEX(E0!J$12:J$58,D164,1))))*100000000</f>
-        <v>705.76156350846054</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C164,1)-INDEX(E0!J$12:J$57,D164,1))))*100000000</f>
+        <v>673.05394335086703</v>
       </c>
       <c r="F164" s="32">
         <v>139060</v>
@@ -10207,8 +10158,8 @@
         <v>12</v>
       </c>
       <c r="E165" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C165,1)-INDEX(E0!J$12:J$58,D165,1))))*100000000</f>
-        <v>705.76538973545814</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C165,1)-INDEX(E0!J$12:J$57,D165,1))))*100000000</f>
+        <v>673.10713851825324</v>
       </c>
       <c r="F165" s="32">
         <v>32334</v>
@@ -10255,8 +10206,8 @@
         <v>13</v>
       </c>
       <c r="E166" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C166,1)-INDEX(E0!J$12:J$58,D166,1))))*100000000</f>
-        <v>705.823881512507</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C166,1)-INDEX(E0!J$12:J$57,D166,1))))*100000000</f>
+        <v>962.42402595366423</v>
       </c>
       <c r="F166" s="32">
         <v>56819000</v>
@@ -10303,8 +10254,8 @@
         <v>14</v>
       </c>
       <c r="E167" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C167,1)-INDEX(E0!J$12:J$58,D167,1))))*100000000</f>
-        <v>1030.7371089305771</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C167,1)-INDEX(E0!J$12:J$57,D167,1))))*100000000</f>
+        <v>1065.2964538022056</v>
       </c>
       <c r="F167" s="32">
         <v>3000</v>
@@ -10351,8 +10302,8 @@
         <v>15</v>
       </c>
       <c r="E168" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C168,1)-INDEX(E0!J$12:J$58,D168,1))))*100000000</f>
-        <v>1149.6337143770572</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C168,1)-INDEX(E0!J$12:J$57,D168,1))))*100000000</f>
+        <v>1242.2906832885531</v>
       </c>
       <c r="F168" s="32">
         <v>26121000</v>
@@ -10399,8 +10350,8 @@
         <v>16</v>
       </c>
       <c r="E169" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C169,1)-INDEX(E0!J$12:J$58,D169,1))))*100000000</f>
-        <v>1358.5092003467514</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C169,1)-INDEX(E0!J$12:J$57,D169,1))))*100000000</f>
+        <v>4219.491163432288</v>
       </c>
       <c r="F169" s="32">
         <v>37203</v>
@@ -10447,8 +10398,8 @@
         <v>17</v>
       </c>
       <c r="E170" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C170,1)-INDEX(E0!J$12:J$58,D170,1))))*100000000</f>
-        <v>5947.7136440834047</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C170,1)-INDEX(E0!J$12:J$57,D170,1))))*100000000</f>
+        <v>4240.6762736493129</v>
       </c>
       <c r="F170" s="32">
         <v>377060</v>
@@ -10495,8 +10446,8 @@
         <v>18</v>
       </c>
       <c r="E171" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C171,1)-INDEX(E0!J$12:J$58,D171,1))))*100000000</f>
-        <v>5989.8934594607781</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C171,1)-INDEX(E0!J$12:J$57,D171,1))))*100000000</f>
+        <v>4287.383404412386</v>
       </c>
       <c r="F171" s="32">
         <v>1.5517000000000001</v>
@@ -10543,8 +10494,8 @@
         <v>19</v>
       </c>
       <c r="E172" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C172,1)-INDEX(E0!J$12:J$58,D172,1))))*100000000</f>
-        <v>6083.504851364487</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C172,1)-INDEX(E0!J$12:J$57,D172,1))))*100000000</f>
+        <v>5593.8041180119471</v>
       </c>
       <c r="F172" s="32">
         <v>30926000</v>
@@ -10591,8 +10542,8 @@
         <v>6</v>
       </c>
       <c r="E173" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C173,1)-INDEX(E0!J$12:J$58,D173,1))))*100000000</f>
-        <v>403.59601441541173</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C173,1)-INDEX(E0!J$12:J$57,D173,1))))*100000000</f>
+        <v>428.18904797766311</v>
       </c>
       <c r="F173" s="32">
         <v>26.029</v>
@@ -10639,8 +10590,8 @@
         <v>8</v>
       </c>
       <c r="E174" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C174,1)-INDEX(E0!J$12:J$58,D174,1))))*100000000</f>
-        <v>585.02431925527242</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C174,1)-INDEX(E0!J$12:J$57,D174,1))))*100000000</f>
+        <v>575.33063170336902</v>
       </c>
       <c r="F174" s="32">
         <v>8683700</v>
@@ -10687,8 +10638,8 @@
         <v>9</v>
       </c>
       <c r="E175" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C175,1)-INDEX(E0!J$12:J$58,D175,1))))*100000000</f>
-        <v>585.12085918015339</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C175,1)-INDEX(E0!J$12:J$57,D175,1))))*100000000</f>
+        <v>575.34661454765865</v>
       </c>
       <c r="F175" s="32">
         <v>24391000</v>
@@ -10735,8 +10686,8 @@
         <v>10</v>
       </c>
       <c r="E176" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C176,1)-INDEX(E0!J$12:J$58,D176,1))))*100000000</f>
-        <v>585.1373906108397</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C176,1)-INDEX(E0!J$12:J$57,D176,1))))*100000000</f>
+        <v>660.12916234955833</v>
       </c>
       <c r="F176" s="32">
         <v>1685900</v>
@@ -10783,8 +10734,8 @@
         <v>11</v>
       </c>
       <c r="E177" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C177,1)-INDEX(E0!J$12:J$58,D177,1))))*100000000</f>
-        <v>673.05046358620871</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C177,1)-INDEX(E0!J$12:J$57,D177,1))))*100000000</f>
+        <v>660.13250978655844</v>
       </c>
       <c r="F177" s="32">
         <v>23797000</v>
@@ -10831,8 +10782,8 @@
         <v>12</v>
       </c>
       <c r="E178" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C178,1)-INDEX(E0!J$12:J$58,D178,1))))*100000000</f>
-        <v>673.05394335086703</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C178,1)-INDEX(E0!J$12:J$57,D178,1))))*100000000</f>
+        <v>660.18368197811435</v>
       </c>
       <c r="F178" s="32">
         <v>31780000</v>
@@ -10879,8 +10830,8 @@
         <v>13</v>
       </c>
       <c r="E179" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C179,1)-INDEX(E0!J$12:J$58,D179,1))))*100000000</f>
-        <v>673.10713851825324</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C179,1)-INDEX(E0!J$12:J$57,D179,1))))*100000000</f>
+        <v>936.2196446294015</v>
       </c>
       <c r="F179" s="32">
         <v>121360</v>
@@ -10927,8 +10878,8 @@
         <v>14</v>
       </c>
       <c r="E180" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C180,1)-INDEX(E0!J$12:J$58,D180,1))))*100000000</f>
-        <v>962.42402595366423</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C180,1)-INDEX(E0!J$12:J$57,D180,1))))*100000000</f>
+        <v>1033.283933799536</v>
       </c>
       <c r="F180" s="32">
         <v>547.92999999999995</v>
@@ -10975,8 +10926,8 @@
         <v>15</v>
       </c>
       <c r="E181" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C181,1)-INDEX(E0!J$12:J$58,D181,1))))*100000000</f>
-        <v>1065.2964538022056</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C181,1)-INDEX(E0!J$12:J$57,D181,1))))*100000000</f>
+        <v>1198.9732777716354</v>
       </c>
       <c r="F181" s="32">
         <v>53331</v>
@@ -11023,8 +10974,8 @@
         <v>16</v>
       </c>
       <c r="E182" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C182,1)-INDEX(E0!J$12:J$58,D182,1))))*100000000</f>
-        <v>1242.2906832885531</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C182,1)-INDEX(E0!J$12:J$57,D182,1))))*100000000</f>
+        <v>3758.2997607144503</v>
       </c>
       <c r="F182" s="32">
         <v>54437000</v>
@@ -11071,8 +11022,8 @@
         <v>17</v>
       </c>
       <c r="E183" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C183,1)-INDEX(E0!J$12:J$58,D183,1))))*100000000</f>
-        <v>4219.491163432288</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C183,1)-INDEX(E0!J$12:J$57,D183,1))))*100000000</f>
+        <v>3775.0976662189914</v>
       </c>
       <c r="F183" s="32">
         <v>38465000</v>
@@ -11119,8 +11070,8 @@
         <v>18</v>
       </c>
       <c r="E184" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C184,1)-INDEX(E0!J$12:J$58,D184,1))))*100000000</f>
-        <v>4240.6762736493129</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C184,1)-INDEX(E0!J$12:J$57,D184,1))))*100000000</f>
+        <v>3812.0672440301501</v>
       </c>
       <c r="F184" s="32">
         <v>2367700</v>
@@ -11167,8 +11118,8 @@
         <v>19</v>
       </c>
       <c r="E185" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C185,1)-INDEX(E0!J$12:J$58,D185,1))))*100000000</f>
-        <v>4287.383404412386</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C185,1)-INDEX(E0!J$12:J$57,D185,1))))*100000000</f>
+        <v>4811.125228149549</v>
       </c>
       <c r="F185" s="32">
         <v>202830</v>
@@ -11215,8 +11166,8 @@
         <v>6</v>
       </c>
       <c r="E186" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C186,1)-INDEX(E0!J$12:J$58,D186,1))))*100000000</f>
-        <v>398.91375379022958</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C186,1)-INDEX(E0!J$12:J$57,D186,1))))*100000000</f>
+        <v>427.9391641096459</v>
       </c>
       <c r="F186" s="32">
         <v>200.52</v>
@@ -11263,8 +11214,8 @@
         <v>7</v>
       </c>
       <c r="E187" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C187,1)-INDEX(E0!J$12:J$58,D187,1))))*100000000</f>
-        <v>428.18904797766311</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C187,1)-INDEX(E0!J$12:J$57,D187,1))))*100000000</f>
+        <v>574.78640141745552</v>
       </c>
       <c r="F187" s="32">
         <v>5601700</v>
@@ -11311,8 +11262,8 @@
         <v>8</v>
       </c>
       <c r="E188" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C188,1)-INDEX(E0!J$12:J$58,D188,1))))*100000000</f>
-        <v>575.23729510078351</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C188,1)-INDEX(E0!J$12:J$57,D188,1))))*100000000</f>
+        <v>574.87959174371326</v>
       </c>
       <c r="F188" s="32">
         <v>22656000</v>
@@ -11359,8 +11310,8 @@
         <v>9</v>
       </c>
       <c r="E189" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C189,1)-INDEX(E0!J$12:J$58,D189,1))))*100000000</f>
-        <v>575.33063170336902</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C189,1)-INDEX(E0!J$12:J$57,D189,1))))*100000000</f>
+        <v>574.89554953744846</v>
       </c>
       <c r="F189" s="32">
         <v>4660500</v>
@@ -11407,8 +11358,8 @@
         <v>10</v>
       </c>
       <c r="E190" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C190,1)-INDEX(E0!J$12:J$58,D190,1))))*100000000</f>
-        <v>575.34661454765865</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C190,1)-INDEX(E0!J$12:J$57,D190,1))))*100000000</f>
+        <v>659.53543414092485</v>
       </c>
       <c r="F190" s="32">
         <v>14584000</v>
@@ -11455,8 +11406,8 @@
         <v>11</v>
       </c>
       <c r="E191" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C191,1)-INDEX(E0!J$12:J$58,D191,1))))*100000000</f>
-        <v>660.12916234955833</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C191,1)-INDEX(E0!J$12:J$57,D191,1))))*100000000</f>
+        <v>659.53877555916631</v>
       </c>
       <c r="F191" s="32">
         <v>43078000</v>
@@ -11503,8 +11454,8 @@
         <v>13</v>
       </c>
       <c r="E192" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C192,1)-INDEX(E0!J$12:J$58,D192,1))))*100000000</f>
-        <v>660.18368197811435</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C192,1)-INDEX(E0!J$12:J$57,D192,1))))*100000000</f>
+        <v>935.02587092597309</v>
       </c>
       <c r="F192" s="32">
         <v>4490.7</v>
@@ -11551,8 +11502,8 @@
         <v>14</v>
       </c>
       <c r="E193" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C193,1)-INDEX(E0!J$12:J$58,D193,1))))*100000000</f>
-        <v>936.2196446294015</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C193,1)-INDEX(E0!J$12:J$57,D193,1))))*100000000</f>
+        <v>1031.8299872105515</v>
       </c>
       <c r="F193" s="32">
         <v>1190.5</v>
@@ -11599,8 +11550,8 @@
         <v>15</v>
       </c>
       <c r="E194" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C194,1)-INDEX(E0!J$12:J$58,D194,1))))*100000000</f>
-        <v>1033.283933799536</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C194,1)-INDEX(E0!J$12:J$57,D194,1))))*100000000</f>
+        <v>1197.0161006666351</v>
       </c>
       <c r="F194" s="32">
         <v>8715.2000000000007</v>
@@ -11647,8 +11598,8 @@
         <v>17</v>
       </c>
       <c r="E195" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C195,1)-INDEX(E0!J$12:J$58,D195,1))))*100000000</f>
-        <v>3758.2997607144503</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C195,1)-INDEX(E0!J$12:J$57,D195,1))))*100000000</f>
+        <v>3755.7625427796274</v>
       </c>
       <c r="F195" s="32">
         <v>73600000</v>
@@ -11695,8 +11646,8 @@
         <v>18</v>
       </c>
       <c r="E196" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C196,1)-INDEX(E0!J$12:J$58,D196,1))))*100000000</f>
-        <v>3775.0976662189914</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C196,1)-INDEX(E0!J$12:J$57,D196,1))))*100000000</f>
+        <v>3792.3525569276185</v>
       </c>
       <c r="F196" s="32">
         <v>22217000</v>
@@ -11743,8 +11694,8 @@
         <v>19</v>
       </c>
       <c r="E197" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C197,1)-INDEX(E0!J$12:J$58,D197,1))))*100000000</f>
-        <v>3812.0672440301501</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C197,1)-INDEX(E0!J$12:J$57,D197,1))))*100000000</f>
+        <v>4779.7653857096375</v>
       </c>
       <c r="F197" s="32">
         <v>12001</v>
@@ -11791,8 +11742,8 @@
         <v>6</v>
       </c>
       <c r="E198" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C198,1)-INDEX(E0!J$12:J$58,D198,1))))*100000000</f>
-        <v>398.69686232683608</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C198,1)-INDEX(E0!J$12:J$57,D198,1))))*100000000</f>
+        <v>427.53626919990921</v>
       </c>
       <c r="F198" s="32">
         <v>655.86</v>
@@ -11839,8 +11790,8 @@
         <v>7</v>
       </c>
       <c r="E199" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C199,1)-INDEX(E0!J$12:J$58,D199,1))))*100000000</f>
-        <v>427.9391641096459</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C199,1)-INDEX(E0!J$12:J$57,D199,1))))*100000000</f>
+        <v>574.05979304431776</v>
       </c>
       <c r="F199" s="32">
         <v>29227000</v>
@@ -11887,8 +11838,8 @@
         <v>8</v>
       </c>
       <c r="E200" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C200,1)-INDEX(E0!J$12:J$58,D200,1))))*100000000</f>
-        <v>574.78640141745552</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C200,1)-INDEX(E0!J$12:J$57,D200,1))))*100000000</f>
+        <v>574.15274788989143</v>
       </c>
       <c r="F200" s="32">
         <v>3380100</v>
@@ -11935,8 +11886,8 @@
         <v>10</v>
       </c>
       <c r="E201" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C201,1)-INDEX(E0!J$12:J$58,D201,1))))*100000000</f>
-        <v>574.89554953744846</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C201,1)-INDEX(E0!J$12:J$57,D201,1))))*100000000</f>
+        <v>658.57893902942862</v>
       </c>
       <c r="F201" s="32">
         <v>58127000</v>
@@ -11983,8 +11934,8 @@
         <v>13</v>
       </c>
       <c r="E202" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C202,1)-INDEX(E0!J$12:J$58,D202,1))))*100000000</f>
-        <v>659.58985573830557</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C202,1)-INDEX(E0!J$12:J$57,D202,1))))*100000000</f>
+        <v>933.10459059507264</v>
       </c>
       <c r="F202" s="32">
         <v>280.7</v>
@@ -12031,8 +11982,8 @@
         <v>18</v>
       </c>
       <c r="E203" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C203,1)-INDEX(E0!J$12:J$58,D203,1))))*100000000</f>
-        <v>3755.7625427796274</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C203,1)-INDEX(E0!J$12:J$57,D203,1))))*100000000</f>
+        <v>3760.9444036581599</v>
       </c>
       <c r="F203" s="32">
         <v>96090000</v>
@@ -12079,8 +12030,8 @@
         <v>6</v>
       </c>
       <c r="E204" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C204,1)-INDEX(E0!J$12:J$58,D204,1))))*100000000</f>
-        <v>398.34712556165505</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C204,1)-INDEX(E0!J$12:J$57,D204,1))))*100000000</f>
+        <v>421.52496833633751</v>
       </c>
       <c r="F204" s="32">
         <v>2220.1</v>
@@ -12127,8 +12078,8 @@
         <v>8</v>
       </c>
       <c r="E205" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C205,1)-INDEX(E0!J$12:J$58,D205,1))))*100000000</f>
-        <v>574.05979304431776</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C205,1)-INDEX(E0!J$12:J$57,D205,1))))*100000000</f>
+        <v>563.36356875621698</v>
       </c>
       <c r="F205" s="32">
         <v>256960</v>
@@ -12175,8 +12126,8 @@
         <v>9</v>
       </c>
       <c r="E206" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C206,1)-INDEX(E0!J$12:J$58,D206,1))))*100000000</f>
-        <v>574.15274788989143</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C206,1)-INDEX(E0!J$12:J$57,D206,1))))*100000000</f>
+        <v>563.37889361003772</v>
       </c>
       <c r="F206" s="32">
         <v>90464</v>
@@ -12223,8 +12174,8 @@
         <v>10</v>
       </c>
       <c r="E207" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C207,1)-INDEX(E0!J$12:J$58,D207,1))))*100000000</f>
-        <v>574.16866535639076</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C207,1)-INDEX(E0!J$12:J$57,D207,1))))*100000000</f>
+        <v>644.4226050033252</v>
       </c>
       <c r="F207" s="32">
         <v>166570000</v>
@@ -12271,8 +12222,8 @@
         <v>11</v>
       </c>
       <c r="E208" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C208,1)-INDEX(E0!J$12:J$58,D208,1))))*100000000</f>
-        <v>658.57893902942862</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C208,1)-INDEX(E0!J$12:J$57,D208,1))))*100000000</f>
+        <v>644.42579504277865</v>
       </c>
       <c r="F208" s="32">
         <v>96668000</v>
@@ -12319,8 +12270,8 @@
         <v>12</v>
       </c>
       <c r="E209" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C209,1)-INDEX(E0!J$12:J$58,D209,1))))*100000000</f>
-        <v>658.58227076285073</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C209,1)-INDEX(E0!J$12:J$57,D209,1))))*100000000</f>
+        <v>644.4745610058751</v>
       </c>
       <c r="F209" s="32">
         <v>31506000</v>
@@ -12367,8 +12318,8 @@
         <v>13</v>
       </c>
       <c r="E210" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C210,1)-INDEX(E0!J$12:J$58,D210,1))))*100000000</f>
-        <v>658.63320288429918</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C210,1)-INDEX(E0!J$12:J$57,D210,1))))*100000000</f>
+        <v>904.938813428608</v>
       </c>
       <c r="F210" s="32">
         <v>31300</v>
@@ -12415,8 +12366,8 @@
         <v>14</v>
       </c>
       <c r="E211" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C211,1)-INDEX(E0!J$12:J$58,D211,1))))*100000000</f>
-        <v>933.10459059507264</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C211,1)-INDEX(E0!J$12:J$57,D211,1))))*100000000</f>
+        <v>995.31220877181579</v>
       </c>
       <c r="F211" s="32">
         <v>2249.1999999999998</v>
@@ -12463,8 +12414,8 @@
         <v>15</v>
       </c>
       <c r="E212" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C212,1)-INDEX(E0!J$12:J$58,D212,1))))*100000000</f>
-        <v>1029.490787007587</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C212,1)-INDEX(E0!J$12:J$57,D212,1))))*100000000</f>
+        <v>1148.1469985585118</v>
       </c>
       <c r="F212" s="32">
         <v>9757.7999999999993</v>
@@ -12511,8 +12462,8 @@
         <v>16</v>
       </c>
       <c r="E213" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C213,1)-INDEX(E0!J$12:J$58,D213,1))))*100000000</f>
-        <v>1193.8691241951979</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C213,1)-INDEX(E0!J$12:J$57,D213,1))))*100000000</f>
+        <v>3300.3362044396454</v>
       </c>
       <c r="F213" s="32">
         <v>16760000</v>
@@ -12559,8 +12510,8 @@
         <v>17</v>
       </c>
       <c r="E214" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C214,1)-INDEX(E0!J$12:J$58,D214,1))))*100000000</f>
-        <v>3708.5994781439413</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C214,1)-INDEX(E0!J$12:J$57,D214,1))))*100000000</f>
+        <v>3313.2826992647329</v>
       </c>
       <c r="F214" s="32">
         <v>46183000</v>
@@ -12607,8 +12558,8 @@
         <v>18</v>
       </c>
       <c r="E215" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C215,1)-INDEX(E0!J$12:J$58,D215,1))))*100000000</f>
-        <v>3724.9550788058582</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C215,1)-INDEX(E0!J$12:J$57,D215,1))))*100000000</f>
+        <v>3341.7263357979255</v>
       </c>
       <c r="F215" s="32">
         <v>63264000</v>
@@ -12655,8 +12606,8 @@
         <v>19</v>
       </c>
       <c r="E216" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C216,1)-INDEX(E0!J$12:J$58,D216,1))))*100000000</f>
-        <v>3760.9444036581599</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C216,1)-INDEX(E0!J$12:J$57,D216,1))))*100000000</f>
+        <v>4085.4137008690668</v>
       </c>
       <c r="F216" s="32">
         <v>100830</v>
@@ -12703,8 +12654,8 @@
         <v>6</v>
       </c>
       <c r="E217" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C217,1)-INDEX(E0!J$12:J$58,D217,1))))*100000000</f>
-        <v>393.123608584561</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C217,1)-INDEX(E0!J$12:J$57,D217,1))))*100000000</f>
+        <v>420.22241214860395</v>
       </c>
       <c r="F217" s="32">
         <v>0.75358000000000003</v>
@@ -12751,8 +12702,8 @@
         <v>7</v>
       </c>
       <c r="E218" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C218,1)-INDEX(E0!J$12:J$58,D218,1))))*100000000</f>
-        <v>421.52496833633751</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C218,1)-INDEX(E0!J$12:J$57,D218,1))))*100000000</f>
+        <v>560.95059759798357</v>
       </c>
       <c r="F218" s="32">
         <v>539800</v>
@@ -12799,8 +12750,8 @@
         <v>8</v>
       </c>
       <c r="E219" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C219,1)-INDEX(E0!J$12:J$58,D219,1))))*100000000</f>
-        <v>563.27407433218946</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C219,1)-INDEX(E0!J$12:J$57,D219,1))))*100000000</f>
+        <v>561.03935516676745</v>
       </c>
       <c r="F219" s="32">
         <v>105190</v>
@@ -12847,8 +12798,8 @@
         <v>9</v>
       </c>
       <c r="E220" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C220,1)-INDEX(E0!J$12:J$58,D220,1))))*100000000</f>
-        <v>563.36356875621698</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C220,1)-INDEX(E0!J$12:J$57,D220,1))))*100000000</f>
+        <v>561.05455383124036</v>
       </c>
       <c r="F220" s="32">
         <v>99.069000000000003</v>
@@ -12895,8 +12846,8 @@
         <v>10</v>
       </c>
       <c r="E221" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C221,1)-INDEX(E0!J$12:J$58,D221,1))))*100000000</f>
-        <v>563.37889361003772</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C221,1)-INDEX(E0!J$12:J$57,D221,1))))*100000000</f>
+        <v>641.3832437238284</v>
       </c>
       <c r="F221" s="32">
         <v>308.27</v>
@@ -12943,8 +12894,8 @@
         <v>11</v>
       </c>
       <c r="E222" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C222,1)-INDEX(E0!J$12:J$58,D222,1))))*100000000</f>
-        <v>644.4226050033252</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C222,1)-INDEX(E0!J$12:J$57,D222,1))))*100000000</f>
+        <v>641.38640374310069</v>
       </c>
       <c r="F222" s="32">
         <v>18483</v>
@@ -12991,8 +12942,8 @@
         <v>13</v>
       </c>
       <c r="E223" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C223,1)-INDEX(E0!J$12:J$58,D223,1))))*100000000</f>
-        <v>644.4745610058751</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C223,1)-INDEX(E0!J$12:J$57,D223,1))))*100000000</f>
+        <v>898.95673699451004</v>
       </c>
       <c r="F223" s="32">
         <v>2164000000</v>
@@ -13039,8 +12990,8 @@
         <v>14</v>
       </c>
       <c r="E224" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C224,1)-INDEX(E0!J$12:J$58,D224,1))))*100000000</f>
-        <v>904.938813428608</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C224,1)-INDEX(E0!J$12:J$57,D224,1))))*100000000</f>
+        <v>988.08042260416062</v>
       </c>
       <c r="F224" s="32">
         <v>563.33000000000004</v>
@@ -13087,8 +13038,8 @@
         <v>15</v>
       </c>
       <c r="E225" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C225,1)-INDEX(E0!J$12:J$58,D225,1))))*100000000</f>
-        <v>995.31220877181579</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C225,1)-INDEX(E0!J$12:J$57,D225,1))))*100000000</f>
+        <v>1138.5344703067149</v>
       </c>
       <c r="F225" s="32">
         <v>185100000</v>
@@ -13135,8 +13086,8 @@
         <v>17</v>
       </c>
       <c r="E226" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C226,1)-INDEX(E0!J$12:J$58,D226,1))))*100000000</f>
-        <v>3300.3362044396454</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C226,1)-INDEX(E0!J$12:J$57,D226,1))))*100000000</f>
+        <v>3234.4771977649971</v>
       </c>
       <c r="F226" s="32">
         <v>65.459999999999994</v>
@@ -13183,8 +13134,8 @@
         <v>18</v>
       </c>
       <c r="E227" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C227,1)-INDEX(E0!J$12:J$58,D227,1))))*100000000</f>
-        <v>3313.2826992647329</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C227,1)-INDEX(E0!J$12:J$57,D227,1))))*100000000</f>
+        <v>3261.5783437072164</v>
       </c>
       <c r="F227" s="32">
         <v>1743.6</v>
@@ -13231,8 +13182,8 @@
         <v>19</v>
       </c>
       <c r="E228" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C228,1)-INDEX(E0!J$12:J$58,D228,1))))*100000000</f>
-        <v>3341.7263357979255</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C228,1)-INDEX(E0!J$12:J$57,D228,1))))*100000000</f>
+        <v>3966.2590315889024</v>
       </c>
       <c r="F228" s="32">
         <v>32268</v>
@@ -13279,8 +13230,8 @@
         <v>9</v>
       </c>
       <c r="E229" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C229,1)-INDEX(E0!J$12:J$58,D229,1))))*100000000</f>
-        <v>561.03935516676745</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C229,1)-INDEX(E0!J$12:J$57,D229,1))))*100000000</f>
+        <v>555.02610084415801</v>
       </c>
       <c r="F229" s="32">
         <v>128860000</v>
@@ -13327,8 +13278,8 @@
         <v>11</v>
       </c>
       <c r="E230" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C230,1)-INDEX(E0!J$12:J$58,D230,1))))*100000000</f>
-        <v>641.3832437238284</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C230,1)-INDEX(E0!J$12:J$57,D230,1))))*100000000</f>
+        <v>633.52015696609033</v>
       </c>
       <c r="F230" s="32">
         <v>13032000</v>
@@ -13375,8 +13326,8 @@
         <v>14</v>
       </c>
       <c r="E231" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C231,1)-INDEX(E0!J$12:J$58,D231,1))))*100000000</f>
-        <v>898.95673699451004</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C231,1)-INDEX(E0!J$12:J$57,D231,1))))*100000000</f>
+        <v>969.53473050568391</v>
       </c>
       <c r="F231" s="32">
         <v>990490</v>
@@ -13423,8 +13374,8 @@
         <v>15</v>
       </c>
       <c r="E232" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C232,1)-INDEX(E0!J$12:J$58,D232,1))))*100000000</f>
-        <v>988.08042260416062</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C232,1)-INDEX(E0!J$12:J$57,D232,1))))*100000000</f>
+        <v>1113.9810849256551</v>
       </c>
       <c r="F232" s="32">
         <v>31768</v>
@@ -13471,8 +13422,8 @@
         <v>17</v>
       </c>
       <c r="E233" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C233,1)-INDEX(E0!J$12:J$58,D233,1))))*100000000</f>
-        <v>3222.1380896832684</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C233,1)-INDEX(E0!J$12:J$57,D233,1))))*100000000</f>
+        <v>3043.87897179417</v>
       </c>
       <c r="F233" s="32">
         <v>196070000</v>
@@ -13519,8 +13470,8 @@
         <v>19</v>
       </c>
       <c r="E234" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C234,1)-INDEX(E0!J$12:J$58,D234,1))))*100000000</f>
-        <v>3261.5783437072164</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C234,1)-INDEX(E0!J$12:J$57,D234,1))))*100000000</f>
+        <v>3683.4318819404266</v>
       </c>
       <c r="F234" s="32">
         <v>31712</v>
@@ -13567,8 +13518,8 @@
         <v>6</v>
       </c>
       <c r="E235" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C235,1)-INDEX(E0!J$12:J$58,D235,1))))*100000000</f>
-        <v>389.03816645992998</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C235,1)-INDEX(E0!J$12:J$57,D235,1))))*100000000</f>
+        <v>416.68894326044904</v>
       </c>
       <c r="F235" s="32">
         <v>45.066000000000003</v>
@@ -13615,8 +13566,8 @@
         <v>8</v>
       </c>
       <c r="E236" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C236,1)-INDEX(E0!J$12:J$58,D236,1))))*100000000</f>
-        <v>554.92436639687764</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C236,1)-INDEX(E0!J$12:J$57,D236,1))))*100000000</f>
+        <v>554.75866306845535</v>
       </c>
       <c r="F236" s="32">
         <v>96644000</v>
@@ -13663,8 +13614,8 @@
         <v>9</v>
       </c>
       <c r="E237" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C237,1)-INDEX(E0!J$12:J$58,D237,1))))*100000000</f>
-        <v>555.01122703570218</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C237,1)-INDEX(E0!J$12:J$57,D237,1))))*100000000</f>
+        <v>554.77352334282966</v>
       </c>
       <c r="F237" s="32">
         <v>32752000</v>
@@ -13711,8 +13662,8 @@
         <v>10</v>
       </c>
       <c r="E238" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C238,1)-INDEX(E0!J$12:J$58,D238,1))))*100000000</f>
-        <v>555.02610084415801</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C238,1)-INDEX(E0!J$12:J$57,D238,1))))*100000000</f>
+        <v>633.18802803396056</v>
       </c>
       <c r="F238" s="32">
         <v>2848800</v>
@@ -13759,8 +13710,8 @@
         <v>11</v>
       </c>
       <c r="E239" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C239,1)-INDEX(E0!J$12:J$58,D239,1))))*100000000</f>
-        <v>633.51707398306303</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C239,1)-INDEX(E0!J$12:J$57,D239,1))))*100000000</f>
+        <v>633.19110781523648</v>
       </c>
       <c r="F239" s="32">
         <v>5059600</v>
@@ -13807,8 +13758,8 @@
         <v>12</v>
       </c>
       <c r="E240" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C240,1)-INDEX(E0!J$12:J$58,D240,1))))*100000000</f>
-        <v>633.52015696609033</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C240,1)-INDEX(E0!J$12:J$57,D240,1))))*100000000</f>
+        <v>633.23818820127201</v>
       </c>
       <c r="F240" s="32">
         <v>5932300</v>
@@ -13855,8 +13806,8 @@
         <v>13</v>
       </c>
       <c r="E241" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C241,1)-INDEX(E0!J$12:J$58,D241,1))))*100000000</f>
-        <v>633.56728629900056</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C241,1)-INDEX(E0!J$12:J$57,D241,1))))*100000000</f>
+        <v>882.93978182461251</v>
       </c>
       <c r="F241" s="32">
         <v>4000.8</v>
@@ -13903,8 +13854,8 @@
         <v>14</v>
       </c>
       <c r="E242" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C242,1)-INDEX(E0!J$12:J$58,D242,1))))*100000000</f>
-        <v>883.57972639251454</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C242,1)-INDEX(E0!J$12:J$57,D242,1))))*100000000</f>
+        <v>968.7642759704645</v>
       </c>
       <c r="F242" s="32">
         <v>952690</v>
@@ -13951,8 +13902,8 @@
         <v>15</v>
       </c>
       <c r="E243" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C243,1)-INDEX(E0!J$12:J$58,D243,1))))*100000000</f>
-        <v>969.53473050568391</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C243,1)-INDEX(E0!J$12:J$57,D243,1))))*100000000</f>
+        <v>1112.9640766356067</v>
       </c>
       <c r="F243" s="32">
         <v>516.28</v>
@@ -13999,8 +13950,8 @@
         <v>16</v>
       </c>
       <c r="E244" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C244,1)-INDEX(E0!J$12:J$58,D244,1))))*100000000</f>
-        <v>1113.9810849256551</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C244,1)-INDEX(E0!J$12:J$57,D244,1))))*100000000</f>
+        <v>3025.421868056962</v>
       </c>
       <c r="F244" s="32">
         <v>61582000</v>
@@ -14047,8 +13998,8 @@
         <v>17</v>
       </c>
       <c r="E245" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C245,1)-INDEX(E0!J$12:J$58,D245,1))))*100000000</f>
-        <v>3032.9487749976051</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C245,1)-INDEX(E0!J$12:J$57,D245,1))))*100000000</f>
+        <v>3036.2977836887708</v>
       </c>
       <c r="F245" s="32">
         <v>45889000</v>
@@ -14095,8 +14046,8 @@
         <v>18</v>
       </c>
       <c r="E246" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C246,1)-INDEX(E0!J$12:J$58,D246,1))))*100000000</f>
-        <v>3043.87897179417</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C246,1)-INDEX(E0!J$12:J$57,D246,1))))*100000000</f>
+        <v>3060.1673919731875</v>
       </c>
       <c r="F246" s="32">
         <v>88529000</v>
@@ -14143,8 +14094,8 @@
         <v>19</v>
       </c>
       <c r="E247" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C247,1)-INDEX(E0!J$12:J$58,D247,1))))*100000000</f>
-        <v>3067.8683975604044</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C247,1)-INDEX(E0!J$12:J$57,D247,1))))*100000000</f>
+        <v>3672.336031706247</v>
       </c>
       <c r="F247" s="32">
         <v>55952</v>
@@ -14191,8 +14142,8 @@
         <v>6</v>
       </c>
       <c r="E248" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C248,1)-INDEX(E0!J$12:J$58,D248,1))))*100000000</f>
-        <v>388.91405514470409</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C248,1)-INDEX(E0!J$12:J$57,D248,1))))*100000000</f>
+        <v>416.46230905002392</v>
       </c>
       <c r="F248" s="32">
         <v>55.517000000000003</v>
@@ -14239,8 +14190,8 @@
         <v>7</v>
       </c>
       <c r="E249" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C249,1)-INDEX(E0!J$12:J$58,D249,1))))*100000000</f>
-        <v>416.68894326044904</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C249,1)-INDEX(E0!J$12:J$57,D249,1))))*100000000</f>
+        <v>554.27037216523831</v>
       </c>
       <c r="F249" s="32">
         <v>109900000</v>
@@ -14287,8 +14238,8 @@
         <v>8</v>
       </c>
       <c r="E250" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C250,1)-INDEX(E0!J$12:J$58,D250,1))))*100000000</f>
-        <v>554.67188145924263</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C250,1)-INDEX(E0!J$12:J$57,D250,1))))*100000000</f>
+        <v>554.35702817322806</v>
       </c>
       <c r="F250" s="32">
         <v>20099000</v>
@@ -14335,8 +14286,8 @@
         <v>9</v>
       </c>
       <c r="E251" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C251,1)-INDEX(E0!J$12:J$58,D251,1))))*100000000</f>
-        <v>554.75866306845535</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C251,1)-INDEX(E0!J$12:J$57,D251,1))))*100000000</f>
+        <v>554.37186693798219</v>
       </c>
       <c r="F251" s="32">
         <v>1360300</v>
@@ -14383,8 +14334,8 @@
         <v>10</v>
       </c>
       <c r="E252" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C252,1)-INDEX(E0!J$12:J$58,D252,1))))*100000000</f>
-        <v>554.77352334282966</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C252,1)-INDEX(E0!J$12:J$57,D252,1))))*100000000</f>
+        <v>632.66485639447637</v>
       </c>
       <c r="F252" s="32">
         <v>9668600</v>
@@ -14431,8 +14382,8 @@
         <v>11</v>
       </c>
       <c r="E253" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C253,1)-INDEX(E0!J$12:J$58,D253,1))))*100000000</f>
-        <v>633.18802803396056</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C253,1)-INDEX(E0!J$12:J$57,D253,1))))*100000000</f>
+        <v>632.66793108850368</v>
       </c>
       <c r="F253" s="32">
         <v>3713600</v>
@@ -14479,8 +14430,8 @@
         <v>13</v>
       </c>
       <c r="E254" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C254,1)-INDEX(E0!J$12:J$58,D254,1))))*100000000</f>
-        <v>633.23818820127201</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C254,1)-INDEX(E0!J$12:J$57,D254,1))))*100000000</f>
+        <v>881.92283215656926</v>
       </c>
       <c r="F254" s="32">
         <v>76847</v>
@@ -14527,8 +14478,8 @@
         <v>14</v>
       </c>
       <c r="E255" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C255,1)-INDEX(E0!J$12:J$58,D255,1))))*100000000</f>
-        <v>882.93978182461251</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C255,1)-INDEX(E0!J$12:J$57,D255,1))))*100000000</f>
+        <v>967.54015341360389</v>
       </c>
       <c r="F255" s="32">
         <v>880790</v>
@@ -14575,8 +14526,8 @@
         <v>15</v>
       </c>
       <c r="E256" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C256,1)-INDEX(E0!J$12:J$58,D256,1))))*100000000</f>
-        <v>968.7642759704645</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C256,1)-INDEX(E0!J$12:J$57,D256,1))))*100000000</f>
+        <v>1111.34871677561</v>
       </c>
       <c r="F256" s="32">
         <v>731.47</v>
@@ -14623,8 +14574,8 @@
         <v>17</v>
       </c>
       <c r="E257" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C257,1)-INDEX(E0!J$12:J$58,D257,1))))*100000000</f>
-        <v>3025.421868056962</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C257,1)-INDEX(E0!J$12:J$57,D257,1))))*100000000</f>
+        <v>3024.3053372835584</v>
       </c>
       <c r="F257" s="32">
         <v>47613000</v>
@@ -14671,8 +14622,8 @@
         <v>18</v>
       </c>
       <c r="E258" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C258,1)-INDEX(E0!J$12:J$58,D258,1))))*100000000</f>
-        <v>3036.2977836887708</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C258,1)-INDEX(E0!J$12:J$57,D258,1))))*100000000</f>
+        <v>3047.9860273599948</v>
       </c>
       <c r="F258" s="32">
         <v>148830000</v>
@@ -14719,8 +14670,8 @@
         <v>19</v>
       </c>
       <c r="E259" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C259,1)-INDEX(E0!J$12:J$58,D259,1))))*100000000</f>
-        <v>3060.1673919731875</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C259,1)-INDEX(E0!J$12:J$57,D259,1))))*100000000</f>
+        <v>3654.807533318432</v>
       </c>
       <c r="F259" s="32">
         <v>128.19</v>
@@ -14767,8 +14718,8 @@
         <v>6</v>
       </c>
       <c r="E260" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C260,1)-INDEX(E0!J$12:J$58,D260,1))))*100000000</f>
-        <v>388.71661996648174</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C260,1)-INDEX(E0!J$12:J$57,D260,1))))*100000000</f>
+        <v>406.072751970242</v>
       </c>
       <c r="F260" s="32">
         <v>0.23324</v>
@@ -14815,8 +14766,8 @@
         <v>7</v>
       </c>
       <c r="E261" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C261,1)-INDEX(E0!J$12:J$58,D261,1))))*100000000</f>
-        <v>416.46230905002392</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C261,1)-INDEX(E0!J$12:J$57,D261,1))))*100000000</f>
+        <v>536.01803230971848</v>
       </c>
       <c r="F261" s="32">
         <v>65149</v>
@@ -14863,8 +14814,8 @@
         <v>8</v>
       </c>
       <c r="E262" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C262,1)-INDEX(E0!J$12:J$58,D262,1))))*100000000</f>
-        <v>554.27037216523831</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C262,1)-INDEX(E0!J$12:J$57,D262,1))))*100000000</f>
+        <v>536.09907463878153</v>
       </c>
       <c r="F262" s="32">
         <v>1079.9000000000001</v>
@@ -14911,8 +14862,8 @@
         <v>9</v>
       </c>
       <c r="E263" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C263,1)-INDEX(E0!J$12:J$58,D263,1))))*100000000</f>
-        <v>554.35702817322806</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C263,1)-INDEX(E0!J$12:J$57,D263,1))))*100000000</f>
+        <v>536.11295204708279</v>
       </c>
       <c r="F263" s="32">
         <v>339.99</v>
@@ -14959,8 +14910,8 @@
         <v>10</v>
       </c>
       <c r="E264" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C264,1)-INDEX(E0!J$12:J$58,D264,1))))*100000000</f>
-        <v>554.37186693798219</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C264,1)-INDEX(E0!J$12:J$57,D264,1))))*100000000</f>
+        <v>608.99451226912618</v>
       </c>
       <c r="F264" s="32">
         <v>6800.7</v>
@@ -15007,8 +14958,8 @@
         <v>11</v>
       </c>
       <c r="E265" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C265,1)-INDEX(E0!J$12:J$58,D265,1))))*100000000</f>
-        <v>632.66485639447637</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C265,1)-INDEX(E0!J$12:J$57,D265,1))))*100000000</f>
+        <v>608.99736119508316</v>
       </c>
       <c r="F265" s="32">
         <v>1484.1</v>
@@ -15055,8 +15006,8 @@
         <v>13</v>
       </c>
       <c r="E266" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C266,1)-INDEX(E0!J$12:J$58,D266,1))))*100000000</f>
-        <v>632.71493370307246</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C266,1)-INDEX(E0!J$12:J$57,D266,1))))*100000000</f>
+        <v>836.59516001314034</v>
       </c>
       <c r="F266" s="32">
         <v>7015900</v>
@@ -15103,8 +15054,8 @@
         <v>14</v>
       </c>
       <c r="E267" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C267,1)-INDEX(E0!J$12:J$58,D267,1))))*100000000</f>
-        <v>881.92283215656926</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C267,1)-INDEX(E0!J$12:J$57,D267,1))))*100000000</f>
+        <v>913.25529866163413</v>
       </c>
       <c r="F267" s="32">
         <v>12277</v>
@@ -15151,8 +15102,8 @@
         <v>15</v>
       </c>
       <c r="E268" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C268,1)-INDEX(E0!J$12:J$58,D268,1))))*100000000</f>
-        <v>967.54015341360389</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C268,1)-INDEX(E0!J$12:J$57,D268,1))))*100000000</f>
+        <v>1040.3198754526845</v>
       </c>
       <c r="F268" s="32">
         <v>68366000</v>
@@ -15199,8 +15150,8 @@
         <v>17</v>
       </c>
       <c r="E269" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C269,1)-INDEX(E0!J$12:J$58,D269,1))))*100000000</f>
-        <v>3013.5150124008205</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C269,1)-INDEX(E0!J$12:J$57,D269,1))))*100000000</f>
+        <v>2550.4369752311577</v>
       </c>
       <c r="F269" s="32">
         <v>75024</v>
@@ -15247,8 +15198,8 @@
         <v>18</v>
       </c>
       <c r="E270" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C270,1)-INDEX(E0!J$12:J$58,D270,1))))*100000000</f>
-        <v>3024.3053372835584</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C270,1)-INDEX(E0!J$12:J$57,D270,1))))*100000000</f>
+        <v>2567.2575090726968</v>
       </c>
       <c r="F270" s="32">
         <v>27700</v>
@@ -15295,8 +15246,8 @@
         <v>19</v>
       </c>
       <c r="E271" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C271,1)-INDEX(E0!J$12:J$58,D271,1))))*100000000</f>
-        <v>3047.9860273599948</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C271,1)-INDEX(E0!J$12:J$57,D271,1))))*100000000</f>
+        <v>2984.6518906402102</v>
       </c>
       <c r="F271" s="32">
         <v>214420000</v>
@@ -15343,8 +15294,8 @@
         <v>9</v>
       </c>
       <c r="E272" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C272,1)-INDEX(E0!J$12:J$58,D272,1))))*100000000</f>
-        <v>536.09907463878153</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C272,1)-INDEX(E0!J$12:J$57,D272,1))))*100000000</f>
+        <v>516.14356443799056</v>
       </c>
       <c r="F272" s="32">
         <v>53401</v>
@@ -15391,8 +15342,8 @@
         <v>11</v>
       </c>
       <c r="E273" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C273,1)-INDEX(E0!J$12:J$58,D273,1))))*100000000</f>
-        <v>608.99451226912618</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C273,1)-INDEX(E0!J$12:J$57,D273,1))))*100000000</f>
+        <v>583.3590575519687</v>
       </c>
       <c r="F273" s="32">
         <v>4821.1000000000004</v>
@@ -15439,8 +15390,8 @@
         <v>14</v>
       </c>
       <c r="E274" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C274,1)-INDEX(E0!J$12:J$58,D274,1))))*100000000</f>
-        <v>836.59516001314034</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C274,1)-INDEX(E0!J$12:J$57,D274,1))))*100000000</f>
+        <v>856.78720779840648</v>
       </c>
       <c r="F274" s="32">
         <v>42624</v>
@@ -15487,8 +15438,8 @@
         <v>15</v>
       </c>
       <c r="E275" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C275,1)-INDEX(E0!J$12:J$58,D275,1))))*100000000</f>
-        <v>913.25529866163413</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C275,1)-INDEX(E0!J$12:J$57,D275,1))))*100000000</f>
+        <v>967.67043110508246</v>
       </c>
       <c r="F275" s="32">
         <v>228860000</v>
@@ -15535,8 +15486,8 @@
         <v>17</v>
       </c>
       <c r="E276" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C276,1)-INDEX(E0!J$12:J$58,D276,1))))*100000000</f>
-        <v>2542.7588481495109</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C276,1)-INDEX(E0!J$12:J$57,D276,1))))*100000000</f>
+        <v>2153.981441834439</v>
       </c>
       <c r="F276" s="32">
         <v>146860</v>
@@ -15583,8 +15534,8 @@
         <v>19</v>
       </c>
       <c r="E277" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C277,1)-INDEX(E0!J$12:J$58,D277,1))))*100000000</f>
-        <v>2567.2575090726968</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C277,1)-INDEX(E0!J$12:J$57,D277,1))))*100000000</f>
+        <v>2455.7092671166638</v>
       </c>
       <c r="F277" s="32">
         <v>357740000</v>
@@ -15631,8 +15582,8 @@
         <v>2</v>
       </c>
       <c r="E278" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C278,1)-INDEX(E0!J$12:J$58,D278,1))))*100000000</f>
-        <v>318.78648208668324</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C278,1)-INDEX(E0!J$12:J$57,D278,1))))*100000000</f>
+        <v>308.30731171353654</v>
       </c>
       <c r="F278" s="32">
         <v>3404900</v>
@@ -15679,8 +15630,8 @@
         <v>3</v>
       </c>
       <c r="E279" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C279,1)-INDEX(E0!J$12:J$58,D279,1))))*100000000</f>
-        <v>318.98273478645552</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C279,1)-INDEX(E0!J$12:J$57,D279,1))))*100000000</f>
+        <v>308.49087030046564</v>
       </c>
       <c r="F279" s="32">
         <v>9165100</v>
@@ -15727,8 +15678,8 @@
         <v>4</v>
       </c>
       <c r="E280" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C280,1)-INDEX(E0!J$12:J$58,D280,1))))*100000000</f>
-        <v>340.68126250016672</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C280,1)-INDEX(E0!J$12:J$57,D280,1))))*100000000</f>
+        <v>328.74016627173984</v>
       </c>
       <c r="F280" s="32">
         <v>2723000000</v>
@@ -15775,8 +15726,8 @@
         <v>20</v>
       </c>
       <c r="E281" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C281,1)-INDEX(E0!J$12:J$58,D281,1))))*100000000</f>
-        <v>2455.7092671166638</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C281,1)-INDEX(E0!J$12:J$57,D281,1))))*100000000</f>
+        <v>2456.6897424059644</v>
       </c>
       <c r="F281" s="32">
         <v>401.55</v>
@@ -15823,8 +15774,8 @@
         <v>21</v>
       </c>
       <c r="E282" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C282,1)-INDEX(E0!J$12:J$58,D282,1))))*100000000</f>
-        <v>3328.5546126636264</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C282,1)-INDEX(E0!J$12:J$57,D282,1))))*100000000</f>
+        <v>2469.8997708380152</v>
       </c>
       <c r="F282" s="32">
         <v>156.41</v>
@@ -15871,8 +15822,8 @@
         <v>23</v>
       </c>
       <c r="E283" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C283,1)-INDEX(E0!J$12:J$58,D283,1))))*100000000</f>
-        <v>3363.507632854371</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C283,1)-INDEX(E0!J$12:J$57,D283,1))))*100000000</f>
+        <v>2984.4847379037701</v>
       </c>
       <c r="F283" s="32">
         <v>60616000</v>
@@ -15919,8 +15870,8 @@
         <v>24</v>
       </c>
       <c r="E284" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C284,1)-INDEX(E0!J$12:J$58,D284,1))))*100000000</f>
-        <v>4377.419187032624</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C284,1)-INDEX(E0!J$12:J$57,D284,1))))*100000000</f>
+        <v>3268.1463476378176</v>
       </c>
       <c r="F284" s="32">
         <v>111880000</v>
@@ -15967,8 +15918,8 @@
         <v>25</v>
       </c>
       <c r="E285" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C285,1)-INDEX(E0!J$12:J$58,D285,1))))*100000000</f>
-        <v>5015.9823162804287</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C285,1)-INDEX(E0!J$12:J$57,D285,1))))*100000000</f>
+        <v>3282.7769938318766</v>
       </c>
       <c r="F285" s="32">
         <v>20851000</v>
@@ -16015,8 +15966,8 @@
         <v>26</v>
       </c>
       <c r="E286" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C286,1)-INDEX(E0!J$12:J$58,D286,1))))*100000000</f>
-        <v>5050.5295713069272</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C286,1)-INDEX(E0!J$12:J$57,D286,1))))*100000000</f>
+        <v>3306.6809873696852</v>
       </c>
       <c r="F286" s="32">
         <v>462850</v>
@@ -16063,8 +16014,8 @@
         <v>27</v>
       </c>
       <c r="E287" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C287,1)-INDEX(E0!J$12:J$58,D287,1))))*100000000</f>
-        <v>5107.3321172230026</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C287,1)-INDEX(E0!J$12:J$57,D287,1))))*100000000</f>
+        <v>3716.6130025017637</v>
       </c>
       <c r="F287" s="32">
         <v>613.16999999999996</v>
@@ -16111,8 +16062,8 @@
         <v>28</v>
       </c>
       <c r="E288" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C288,1)-INDEX(E0!J$12:J$58,D288,1))))*100000000</f>
-        <v>6156.0784136356961</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C288,1)-INDEX(E0!J$12:J$57,D288,1))))*100000000</f>
+        <v>3821.0424931847606</v>
       </c>
       <c r="F288" s="32">
         <v>215.51</v>
@@ -16159,8 +16110,8 @@
         <v>30</v>
       </c>
       <c r="E289" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C289,1)-INDEX(E0!J$12:J$58,D289,1))))*100000000</f>
-        <v>7367.655933072906</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C289,1)-INDEX(E0!J$12:J$57,D289,1))))*100000000</f>
+        <v>4140.28617554623</v>
       </c>
       <c r="F289" s="32">
         <v>4862</v>
@@ -16207,8 +16158,8 @@
         <v>31</v>
       </c>
       <c r="E290" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C290,1)-INDEX(E0!J$12:J$58,D290,1))))*100000000</f>
-        <v>7412.4537512288434</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C290,1)-INDEX(E0!J$12:J$57,D290,1))))*100000000</f>
+        <v>4162.7950186763692</v>
       </c>
       <c r="F290" s="32">
         <v>20602</v>
@@ -16255,8 +16206,8 @@
         <v>32</v>
       </c>
       <c r="E291" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C291,1)-INDEX(E0!J$12:J$58,D291,1))))*100000000</f>
-        <v>7484.9117725166079</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C291,1)-INDEX(E0!J$12:J$57,D291,1))))*100000000</f>
+        <v>5593.2170081613422</v>
       </c>
       <c r="F291" s="32">
         <v>2834400</v>
@@ -16303,8 +16254,8 @@
         <v>3</v>
       </c>
       <c r="E292" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C292,1)-INDEX(E0!J$12:J$58,D292,1))))*100000000</f>
-        <v>308.49087030046564</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C292,1)-INDEX(E0!J$12:J$57,D292,1))))*100000000</f>
+        <v>308.30452773018709</v>
       </c>
       <c r="F292" s="32">
         <v>40766000</v>
@@ -16351,8 +16302,8 @@
         <v>4</v>
       </c>
       <c r="E293" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C293,1)-INDEX(E0!J$12:J$58,D293,1))))*100000000</f>
-        <v>328.74016627173984</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C293,1)-INDEX(E0!J$12:J$57,D293,1))))*100000000</f>
+        <v>328.52856621889515</v>
       </c>
       <c r="F293" s="32">
         <v>8133500</v>
@@ -16399,8 +16350,8 @@
         <v>20</v>
       </c>
       <c r="E294" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C294,1)-INDEX(E0!J$12:J$58,D294,1))))*100000000</f>
-        <v>1946.1483866350634</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C294,1)-INDEX(E0!J$12:J$57,D294,1))))*100000000</f>
+        <v>2444.9216755681482</v>
       </c>
       <c r="F294" s="32">
         <v>2382.3000000000002</v>
@@ -16447,8 +16398,8 @@
         <v>25</v>
       </c>
       <c r="E295" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C295,1)-INDEX(E0!J$12:J$58,D295,1))))*100000000</f>
-        <v>3268.1463476378176</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C295,1)-INDEX(E0!J$12:J$57,D295,1))))*100000000</f>
+        <v>3261.7978247603783</v>
       </c>
       <c r="F295" s="32">
         <v>176480000</v>
@@ -16495,8 +16446,8 @@
         <v>26</v>
       </c>
       <c r="E296" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C296,1)-INDEX(E0!J$12:J$58,D296,1))))*100000000</f>
-        <v>3282.7769938318766</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C296,1)-INDEX(E0!J$12:J$57,D296,1))))*100000000</f>
+        <v>3285.3961709885093</v>
       </c>
       <c r="F296" s="32">
         <v>18594000</v>
@@ -16543,8 +16494,8 @@
         <v>28</v>
       </c>
       <c r="E297" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C297,1)-INDEX(E0!J$12:J$58,D297,1))))*100000000</f>
-        <v>3716.6130025017637</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C297,1)-INDEX(E0!J$12:J$57,D297,1))))*100000000</f>
+        <v>3792.6492883725873</v>
       </c>
       <c r="F297" s="32">
         <v>54.37</v>
@@ -16591,8 +16542,8 @@
         <v>31</v>
       </c>
       <c r="E298" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C298,1)-INDEX(E0!J$12:J$58,D298,1))))*100000000</f>
-        <v>4140.28617554623</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C298,1)-INDEX(E0!J$12:J$57,D298,1))))*100000000</f>
+        <v>4129.1181118691247</v>
       </c>
       <c r="F298" s="32">
         <v>63406</v>
@@ -16639,8 +16590,8 @@
         <v>32</v>
       </c>
       <c r="E299" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C299,1)-INDEX(E0!J$12:J$58,D299,1))))*100000000</f>
-        <v>4162.7950186763692</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C299,1)-INDEX(E0!J$12:J$57,D299,1))))*100000000</f>
+        <v>5532.5880829275138</v>
       </c>
       <c r="F299" s="32">
         <v>5957.7</v>
@@ -16687,8 +16638,8 @@
         <v>26</v>
       </c>
       <c r="E300" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C300,1)-INDEX(E0!J$12:J$58,D300,1))))*100000000</f>
-        <v>3261.7978247603783</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C300,1)-INDEX(E0!J$12:J$57,D300,1))))*100000000</f>
+        <v>3266.2709240870163</v>
       </c>
       <c r="F300" s="32">
         <v>194840000</v>
@@ -16735,8 +16686,8 @@
         <v>2</v>
       </c>
       <c r="E301" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C301,1)-INDEX(E0!J$12:J$58,D301,1))))*100000000</f>
-        <v>307.95207978525463</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C301,1)-INDEX(E0!J$12:J$57,D301,1))))*100000000</f>
+        <v>308.05014382787851</v>
       </c>
       <c r="F301" s="32">
         <v>34485000</v>
@@ -16783,8 +16734,8 @@
         <v>3</v>
       </c>
       <c r="E302" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C302,1)-INDEX(E0!J$12:J$58,D302,1))))*100000000</f>
-        <v>308.13521549754245</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C302,1)-INDEX(E0!J$12:J$57,D302,1))))*100000000</f>
+        <v>308.23339622865342</v>
       </c>
       <c r="F302" s="32">
         <v>20682</v>
@@ -16831,8 +16782,8 @@
         <v>4</v>
       </c>
       <c r="E303" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C303,1)-INDEX(E0!J$12:J$58,D303,1))))*100000000</f>
-        <v>328.33631939978056</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C303,1)-INDEX(E0!J$12:J$57,D303,1))))*100000000</f>
+        <v>328.44779774543792</v>
       </c>
       <c r="F303" s="32">
         <v>6916500000</v>
@@ -16879,8 +16830,8 @@
         <v>20</v>
       </c>
       <c r="E304" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C304,1)-INDEX(E0!J$12:J$58,D304,1))))*100000000</f>
-        <v>1932.079942514483</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C304,1)-INDEX(E0!J$12:J$57,D304,1))))*100000000</f>
+        <v>2440.4554750099678</v>
       </c>
       <c r="F304" s="32">
         <v>14.805</v>
@@ -16927,8 +16878,8 @@
         <v>21</v>
       </c>
       <c r="E305" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C305,1)-INDEX(E0!J$12:J$58,D305,1))))*100000000</f>
-        <v>2434.314281660063</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C305,1)-INDEX(E0!J$12:J$57,D305,1))))*100000000</f>
+        <v>2453.491028403233</v>
       </c>
       <c r="F305" s="32">
         <v>2313</v>
@@ -16975,8 +16926,8 @@
         <v>23</v>
       </c>
       <c r="E306" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C306,1)-INDEX(E0!J$12:J$58,D306,1))))*100000000</f>
-        <v>2452.9567381922607</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C306,1)-INDEX(E0!J$12:J$57,D306,1))))*100000000</f>
+        <v>2960.5595882516727</v>
       </c>
       <c r="F306" s="32">
         <v>127380000</v>
@@ -17023,8 +16974,8 @@
         <v>24</v>
       </c>
       <c r="E307" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C307,1)-INDEX(E0!J$12:J$58,D307,1))))*100000000</f>
-        <v>2951.526718228994</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C307,1)-INDEX(E0!J$12:J$57,D307,1))))*100000000</f>
+        <v>3239.4789577370643</v>
       </c>
       <c r="F307" s="32">
         <v>55375000</v>
@@ -17071,8 +17022,8 @@
         <v>25</v>
       </c>
       <c r="E308" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C308,1)-INDEX(E0!J$12:J$58,D308,1))))*100000000</f>
-        <v>3228.6670170187144</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C308,1)-INDEX(E0!J$12:J$57,D308,1))))*100000000</f>
+        <v>3253.8534922109229</v>
       </c>
       <c r="F308" s="32">
         <v>6864400</v>
@@ -17119,8 +17070,8 @@
         <v>26</v>
       </c>
       <c r="E309" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C309,1)-INDEX(E0!J$12:J$58,D309,1))))*100000000</f>
-        <v>3242.9455485409512</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C309,1)-INDEX(E0!J$12:J$57,D309,1))))*100000000</f>
+        <v>3277.3366138487213</v>
       </c>
       <c r="F309" s="32">
         <v>209940</v>
@@ -17167,8 +17118,8 @@
         <v>27</v>
       </c>
       <c r="E310" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C310,1)-INDEX(E0!J$12:J$58,D310,1))))*100000000</f>
-        <v>3266.2709240870163</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C310,1)-INDEX(E0!J$12:J$57,D310,1))))*100000000</f>
+        <v>3679.5826878154012</v>
       </c>
       <c r="F310" s="32">
         <v>4922.3</v>
@@ -17215,8 +17166,8 @@
         <v>28</v>
       </c>
       <c r="E311" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C311,1)-INDEX(E0!J$12:J$58,D311,1))))*100000000</f>
-        <v>3665.6397726075174</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C311,1)-INDEX(E0!J$12:J$57,D311,1))))*100000000</f>
+        <v>3781.9129400256061</v>
       </c>
       <c r="F311" s="32">
         <v>1341.1</v>
@@ -17263,8 +17214,8 @@
         <v>30</v>
       </c>
       <c r="E312" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C312,1)-INDEX(E0!J$12:J$58,D312,1))))*100000000</f>
-        <v>4063.5378295513656</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C312,1)-INDEX(E0!J$12:J$57,D312,1))))*100000000</f>
+        <v>4094.3842972277707</v>
       </c>
       <c r="F312" s="32">
         <v>56034</v>
@@ -17311,8 +17262,8 @@
         <v>31</v>
       </c>
       <c r="E313" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C313,1)-INDEX(E0!J$12:J$58,D313,1))))*100000000</f>
-        <v>4077.1279773703609</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C313,1)-INDEX(E0!J$12:J$57,D313,1))))*100000000</f>
+        <v>4116.3954852667284</v>
       </c>
       <c r="F313" s="32">
         <v>2416</v>
@@ -17359,8 +17310,8 @@
         <v>32</v>
       </c>
       <c r="E314" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C314,1)-INDEX(E0!J$12:J$58,D314,1))))*100000000</f>
-        <v>4098.9535238011867</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C314,1)-INDEX(E0!J$12:J$57,D314,1))))*100000000</f>
+        <v>5509.770783016188</v>
       </c>
       <c r="F314" s="32">
         <v>7788500</v>
@@ -17407,8 +17358,8 @@
         <v>1</v>
       </c>
       <c r="E315" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C315,1)-INDEX(E0!J$12:J$58,D315,1))))*100000000</f>
-        <v>307.94278151726212</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C315,1)-INDEX(E0!J$12:J$57,D315,1))))*100000000</f>
+        <v>305.59615674403977</v>
       </c>
       <c r="F315" s="32">
         <v>11935000000</v>
@@ -17455,8 +17406,8 @@
         <v>2</v>
       </c>
       <c r="E316" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C316,1)-INDEX(E0!J$12:J$58,D316,1))))*100000000</f>
-        <v>308.05014382787851</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C316,1)-INDEX(E0!J$12:J$57,D316,1))))*100000000</f>
+        <v>305.70188873632821</v>
       </c>
       <c r="F316" s="32">
         <v>8001800000</v>
@@ -17503,8 +17454,8 @@
         <v>3</v>
       </c>
       <c r="E317" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C317,1)-INDEX(E0!J$12:J$58,D317,1))))*100000000</f>
-        <v>308.23339622865342</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C317,1)-INDEX(E0!J$12:J$57,D317,1))))*100000000</f>
+        <v>305.88235711461533</v>
       </c>
       <c r="F317" s="32">
         <v>417840000</v>
@@ -17551,8 +17502,8 @@
         <v>4</v>
       </c>
       <c r="E318" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C318,1)-INDEX(E0!J$12:J$58,D318,1))))*100000000</f>
-        <v>328.44779774543792</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C318,1)-INDEX(E0!J$12:J$57,D318,1))))*100000000</f>
+        <v>325.77961241975379</v>
       </c>
       <c r="F318" s="32">
         <v>476840</v>
@@ -17599,8 +17550,8 @@
         <v>5</v>
       </c>
       <c r="E319" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C319,1)-INDEX(E0!J$12:J$58,D319,1))))*100000000</f>
-        <v>307.94278151726212</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C319,1)-INDEX(E0!J$12:J$57,D319,1))))*100000000</f>
+        <v>352.0587413268799</v>
       </c>
       <c r="F319" s="32">
         <v>5984400</v>
@@ -17647,8 +17598,8 @@
         <v>20</v>
       </c>
       <c r="E320" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C320,1)-INDEX(E0!J$12:J$58,D320,1))))*100000000</f>
-        <v>1935.9464929292085</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C320,1)-INDEX(E0!J$12:J$57,D320,1))))*100000000</f>
+        <v>2300.4608170400015</v>
       </c>
       <c r="F320" s="32">
         <v>19453</v>
@@ -17695,8 +17646,8 @@
         <v>21</v>
       </c>
       <c r="E321" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C321,1)-INDEX(E0!J$12:J$58,D321,1))))*100000000</f>
-        <v>2440.4554750099678</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C321,1)-INDEX(E0!J$12:J$57,D321,1))))*100000000</f>
+        <v>2312.0401709010989</v>
       </c>
       <c r="F321" s="32">
         <v>390260</v>
@@ -17743,8 +17694,8 @@
         <v>22</v>
       </c>
       <c r="E322" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C322,1)-INDEX(E0!J$12:J$58,D322,1))))*100000000</f>
-        <v>2453.491028403233</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C322,1)-INDEX(E0!J$12:J$57,D322,1))))*100000000</f>
+        <v>2317.1024786008238</v>
       </c>
       <c r="F322" s="32">
         <v>593620</v>
@@ -17791,8 +17742,8 @@
         <v>23</v>
       </c>
       <c r="E323" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C323,1)-INDEX(E0!J$12:J$58,D323,1))))*100000000</f>
-        <v>2459.1924731117492</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C323,1)-INDEX(E0!J$12:J$57,D323,1))))*100000000</f>
+        <v>2757.0241171967109</v>
       </c>
       <c r="F323" s="32">
         <v>601170</v>
@@ -17839,8 +17790,8 @@
         <v>24</v>
       </c>
       <c r="E324" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C324,1)-INDEX(E0!J$12:J$58,D324,1))))*100000000</f>
-        <v>2960.5595882516727</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C324,1)-INDEX(E0!J$12:J$57,D324,1))))*100000000</f>
+        <v>2997.3543207831431</v>
       </c>
       <c r="F324" s="32">
         <v>47960000</v>
@@ -17887,8 +17838,8 @@
         <v>25</v>
       </c>
       <c r="E325" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C325,1)-INDEX(E0!J$12:J$58,D325,1))))*100000000</f>
-        <v>3239.4789577370643</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C325,1)-INDEX(E0!J$12:J$57,D325,1))))*100000000</f>
+        <v>3009.6563178841211</v>
       </c>
       <c r="F325" s="32">
         <v>14474000</v>
@@ -17935,8 +17886,8 @@
         <v>27</v>
       </c>
       <c r="E326" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C326,1)-INDEX(E0!J$12:J$58,D326,1))))*100000000</f>
-        <v>3277.3366138487213</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C326,1)-INDEX(E0!J$12:J$57,D326,1))))*100000000</f>
+        <v>3370.3409280660353</v>
       </c>
       <c r="F326" s="32">
         <v>706800</v>
@@ -17983,8 +17934,8 @@
         <v>28</v>
       </c>
       <c r="E327" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C327,1)-INDEX(E0!J$12:J$58,D327,1))))*100000000</f>
-        <v>3679.5826878154012</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C327,1)-INDEX(E0!J$12:J$57,D327,1))))*100000000</f>
+        <v>3455.9935593656446</v>
       </c>
       <c r="F327" s="32">
         <v>33.155999999999999</v>
@@ -18031,8 +17982,8 @@
         <v>29</v>
       </c>
       <c r="E328" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C328,1)-INDEX(E0!J$12:J$58,D328,1))))*100000000</f>
-        <v>3781.9129400256061</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C328,1)-INDEX(E0!J$12:J$57,D328,1))))*100000000</f>
+        <v>3703.7970903876881</v>
       </c>
       <c r="F328" s="32">
         <v>59490000</v>
@@ -18079,8 +18030,8 @@
         <v>30</v>
       </c>
       <c r="E329" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C329,1)-INDEX(E0!J$12:J$58,D329,1))))*100000000</f>
-        <v>4080.6790595377197</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C329,1)-INDEX(E0!J$12:J$57,D329,1))))*100000000</f>
+        <v>3715.084164399625</v>
       </c>
       <c r="F329" s="32">
         <v>40299000</v>
@@ -18127,8 +18078,8 @@
         <v>31</v>
       </c>
       <c r="E330" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C330,1)-INDEX(E0!J$12:J$58,D330,1))))*100000000</f>
-        <v>4094.3842972277707</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C330,1)-INDEX(E0!J$12:J$57,D330,1))))*100000000</f>
+        <v>3733.1970380412936</v>
       </c>
       <c r="F330" s="32">
         <v>2227400</v>
@@ -18175,8 +18126,8 @@
         <v>32</v>
       </c>
       <c r="E331" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C331,1)-INDEX(E0!J$12:J$58,D331,1))))*100000000</f>
-        <v>4116.3954852667284</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C331,1)-INDEX(E0!J$12:J$57,D331,1))))*100000000</f>
+        <v>4844.2174046798191</v>
       </c>
       <c r="F331" s="32">
         <v>2697.7</v>
@@ -18223,8 +18174,8 @@
         <v>33</v>
       </c>
       <c r="E332" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C332,1)-INDEX(E0!J$12:J$58,D332,1))))*100000000</f>
-        <v>5509.770783016188</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C332,1)-INDEX(E0!J$12:J$57,D332,1))))*100000000</f>
+        <v>7447.9677792099656</v>
       </c>
       <c r="F332" s="32">
         <v>4131.7</v>
@@ -18271,8 +18222,8 @@
         <v>2</v>
       </c>
       <c r="E333" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C333,1)-INDEX(E0!J$12:J$58,D333,1))))*100000000</f>
-        <v>305.70188873632821</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C333,1)-INDEX(E0!J$12:J$57,D333,1))))*100000000</f>
+        <v>305.65605418546204</v>
       </c>
       <c r="F333" s="32">
         <v>16077000000</v>
@@ -18319,8 +18270,8 @@
         <v>3</v>
       </c>
       <c r="E334" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C334,1)-INDEX(E0!J$12:J$58,D334,1))))*100000000</f>
-        <v>305.88235711461533</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C334,1)-INDEX(E0!J$12:J$57,D334,1))))*100000000</f>
+        <v>305.83646843580232</v>
       </c>
       <c r="F334" s="32">
         <v>4230700000</v>
@@ -18367,8 +18318,8 @@
         <v>4</v>
       </c>
       <c r="E335" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C335,1)-INDEX(E0!J$12:J$58,D335,1))))*100000000</f>
-        <v>325.77961241975379</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C335,1)-INDEX(E0!J$12:J$57,D335,1))))*100000000</f>
+        <v>325.72756007900398</v>
       </c>
       <c r="F335" s="32">
         <v>3043900</v>
@@ -18415,8 +18366,8 @@
         <v>20</v>
       </c>
       <c r="E336" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C336,1)-INDEX(E0!J$12:J$58,D336,1))))*100000000</f>
-        <v>1846.7932073144677</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C336,1)-INDEX(E0!J$12:J$57,D336,1))))*100000000</f>
+        <v>2297.8678216795061</v>
       </c>
       <c r="F336" s="32">
         <v>200300</v>
@@ -18463,8 +18414,8 @@
         <v>21</v>
       </c>
       <c r="E337" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C337,1)-INDEX(E0!J$12:J$58,D337,1))))*100000000</f>
-        <v>2300.4608170400015</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C337,1)-INDEX(E0!J$12:J$57,D337,1))))*100000000</f>
+        <v>2309.4210210552747</v>
       </c>
       <c r="F337" s="32">
         <v>796480</v>
@@ -18511,8 +18462,8 @@
         <v>23</v>
       </c>
       <c r="E338" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C338,1)-INDEX(E0!J$12:J$58,D338,1))))*100000000</f>
-        <v>2317.1024786008238</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C338,1)-INDEX(E0!J$12:J$57,D338,1))))*100000000</f>
+        <v>2753.3005769991937</v>
       </c>
       <c r="F338" s="32">
         <v>126190</v>
@@ -18559,8 +18510,8 @@
         <v>24</v>
       </c>
       <c r="E339" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C339,1)-INDEX(E0!J$12:J$58,D339,1))))*100000000</f>
-        <v>2757.0241171967109</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C339,1)-INDEX(E0!J$12:J$57,D339,1))))*100000000</f>
+        <v>2992.953841717896</v>
       </c>
       <c r="F339" s="32">
         <v>7388800</v>
@@ -18607,8 +18558,8 @@
         <v>25</v>
       </c>
       <c r="E340" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C340,1)-INDEX(E0!J$12:J$58,D340,1))))*100000000</f>
-        <v>2997.3543207831431</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C340,1)-INDEX(E0!J$12:J$57,D340,1))))*100000000</f>
+        <v>3005.2196697829622</v>
       </c>
       <c r="F340" s="32">
         <v>47460000</v>
@@ -18655,8 +18606,8 @@
         <v>26</v>
       </c>
       <c r="E341" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C341,1)-INDEX(E0!J$12:J$58,D341,1))))*100000000</f>
-        <v>3009.6563178841211</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C341,1)-INDEX(E0!J$12:J$57,D341,1))))*100000000</f>
+        <v>3025.2400744134338</v>
       </c>
       <c r="F341" s="32">
         <v>8585000</v>
@@ -18703,8 +18654,8 @@
         <v>27</v>
       </c>
       <c r="E342" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C342,1)-INDEX(E0!J$12:J$58,D342,1))))*100000000</f>
-        <v>3029.7360764443629</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C342,1)-INDEX(E0!J$12:J$57,D342,1))))*100000000</f>
+        <v>3364.7781449921022</v>
       </c>
       <c r="F342" s="32">
         <v>1366300</v>
@@ -18751,8 +18702,8 @@
         <v>28</v>
       </c>
       <c r="E343" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C343,1)-INDEX(E0!J$12:J$58,D343,1))))*100000000</f>
-        <v>3370.3409280660353</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C343,1)-INDEX(E0!J$12:J$57,D343,1))))*100000000</f>
+        <v>3450.1446877509402</v>
       </c>
       <c r="F343" s="32">
         <v>589.02</v>
@@ -18799,8 +18750,8 @@
         <v>30</v>
       </c>
       <c r="E344" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C344,1)-INDEX(E0!J$12:J$58,D344,1))))*100000000</f>
-        <v>3703.7970903876881</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C344,1)-INDEX(E0!J$12:J$57,D344,1))))*100000000</f>
+        <v>3708.3263158296882</v>
       </c>
       <c r="F344" s="32">
         <v>78851000</v>
@@ -18847,8 +18798,8 @@
         <v>31</v>
       </c>
       <c r="E345" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C345,1)-INDEX(E0!J$12:J$58,D345,1))))*100000000</f>
-        <v>3715.084164399625</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C345,1)-INDEX(E0!J$12:J$57,D345,1))))*100000000</f>
+        <v>3726.3731936411332</v>
       </c>
       <c r="F345" s="32">
         <v>21904000</v>
@@ -18895,8 +18846,8 @@
         <v>32</v>
       </c>
       <c r="E346" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C346,1)-INDEX(E0!J$12:J$58,D346,1))))*100000000</f>
-        <v>3733.1970380412936</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C346,1)-INDEX(E0!J$12:J$57,D346,1))))*100000000</f>
+        <v>4832.7337967946751</v>
       </c>
       <c r="F346" s="32">
         <v>5513.1</v>
@@ -18943,8 +18894,8 @@
         <v>3</v>
       </c>
       <c r="E347" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C347,1)-INDEX(E0!J$12:J$58,D347,1))))*100000000</f>
-        <v>305.83646843580232</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C347,1)-INDEX(E0!J$12:J$57,D347,1))))*100000000</f>
+        <v>305.7673842142957</v>
       </c>
       <c r="F347" s="32">
         <v>20331000000</v>
@@ -18991,8 +18942,8 @@
         <v>4</v>
       </c>
       <c r="E348" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C348,1)-INDEX(E0!J$12:J$58,D348,1))))*100000000</f>
-        <v>325.72756007900398</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C348,1)-INDEX(E0!J$12:J$57,D348,1))))*100000000</f>
+        <v>325.64919853948732</v>
       </c>
       <c r="F348" s="32">
         <v>4106900</v>
@@ -19039,8 +18990,8 @@
         <v>20</v>
       </c>
       <c r="E349" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C349,1)-INDEX(E0!J$12:J$58,D349,1))))*100000000</f>
-        <v>1845.121712076741</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C349,1)-INDEX(E0!J$12:J$57,D349,1))))*100000000</f>
+        <v>2293.9736785156524</v>
       </c>
       <c r="F349" s="32">
         <v>989710</v>
@@ -19087,8 +19038,8 @@
         <v>25</v>
       </c>
       <c r="E350" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C350,1)-INDEX(E0!J$12:J$58,D350,1))))*100000000</f>
-        <v>2992.953841717896</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C350,1)-INDEX(E0!J$12:J$57,D350,1))))*100000000</f>
+        <v>2998.5625285278411</v>
       </c>
       <c r="F350" s="32">
         <v>4868500</v>
@@ -19135,8 +19086,8 @@
         <v>26</v>
       </c>
       <c r="E351" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C351,1)-INDEX(E0!J$12:J$58,D351,1))))*100000000</f>
-        <v>3005.2196697829622</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C351,1)-INDEX(E0!J$12:J$57,D351,1))))*100000000</f>
+        <v>3018.4940391477739</v>
       </c>
       <c r="F351" s="32">
         <v>59768000</v>
@@ -19183,8 +19134,8 @@
         <v>28</v>
       </c>
       <c r="E352" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C352,1)-INDEX(E0!J$12:J$58,D352,1))))*100000000</f>
-        <v>3364.7781449921022</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C352,1)-INDEX(E0!J$12:J$57,D352,1))))*100000000</f>
+        <v>3441.3733156503222</v>
       </c>
       <c r="F352" s="32">
         <v>1453.1</v>
@@ -19231,8 +19182,8 @@
         <v>31</v>
       </c>
       <c r="E353" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C353,1)-INDEX(E0!J$12:J$58,D353,1))))*100000000</f>
-        <v>3708.3263158296882</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C353,1)-INDEX(E0!J$12:J$57,D353,1))))*100000000</f>
+        <v>3716.1431562092903</v>
       </c>
       <c r="F353" s="32">
         <v>100540000</v>
@@ -19279,8 +19230,8 @@
         <v>32</v>
       </c>
       <c r="E354" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C354,1)-INDEX(E0!J$12:J$58,D354,1))))*100000000</f>
-        <v>3726.3731936411332</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C354,1)-INDEX(E0!J$12:J$57,D354,1))))*100000000</f>
+        <v>4815.5413996747529</v>
       </c>
       <c r="F354" s="32">
         <v>4456.3999999999996</v>
@@ -19327,8 +19278,8 @@
         <v>2</v>
       </c>
       <c r="E355" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C355,1)-INDEX(E0!J$12:J$58,D355,1))))*100000000</f>
-        <v>305.58705143688019</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C355,1)-INDEX(E0!J$12:J$57,D355,1))))*100000000</f>
+        <v>303.62225671625765</v>
       </c>
       <c r="F355" s="32">
         <v>2091100000</v>
@@ -19375,8 +19326,8 @@
         <v>3</v>
       </c>
       <c r="E356" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C356,1)-INDEX(E0!J$12:J$58,D356,1))))*100000000</f>
-        <v>305.7673842142957</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C356,1)-INDEX(E0!J$12:J$57,D356,1))))*100000000</f>
+        <v>303.80027734701576</v>
       </c>
       <c r="F356" s="32">
         <v>9637800000</v>
@@ -19423,8 +19374,8 @@
         <v>4</v>
       </c>
       <c r="E357" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C357,1)-INDEX(E0!J$12:J$58,D357,1))))*100000000</f>
-        <v>325.64919853948732</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C357,1)-INDEX(E0!J$12:J$57,D357,1))))*100000000</f>
+        <v>323.41889469607361</v>
       </c>
       <c r="F357" s="32">
         <v>10223000</v>
@@ -19471,8 +19422,8 @@
         <v>20</v>
       </c>
       <c r="E358" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C358,1)-INDEX(E0!J$12:J$58,D358,1))))*100000000</f>
-        <v>1842.6100749120155</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C358,1)-INDEX(E0!J$12:J$57,D358,1))))*100000000</f>
+        <v>2187.7002066564537</v>
       </c>
       <c r="F358" s="32">
         <v>535950</v>
@@ -19519,8 +19470,8 @@
         <v>21</v>
       </c>
       <c r="E359" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C359,1)-INDEX(E0!J$12:J$58,D359,1))))*100000000</f>
-        <v>2293.9736785156524</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C359,1)-INDEX(E0!J$12:J$57,D359,1))))*100000000</f>
+        <v>2198.1696387155312</v>
       </c>
       <c r="F359" s="32">
         <v>124410</v>
@@ -19567,8 +19518,8 @@
         <v>23</v>
       </c>
       <c r="E360" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C360,1)-INDEX(E0!J$12:J$58,D360,1))))*100000000</f>
-        <v>2310.5212782056574</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C360,1)-INDEX(E0!J$12:J$57,D360,1))))*100000000</f>
+        <v>2596.6240972206615</v>
       </c>
       <c r="F360" s="32">
         <v>9795.5</v>
@@ -19615,8 +19566,8 @@
         <v>24</v>
       </c>
       <c r="E361" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C361,1)-INDEX(E0!J$12:J$58,D361,1))))*100000000</f>
-        <v>2747.711716991163</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C361,1)-INDEX(E0!J$12:J$57,D361,1))))*100000000</f>
+        <v>2808.7279006208446</v>
       </c>
       <c r="F361" s="32">
         <v>67046</v>
@@ -19663,8 +19614,8 @@
         <v>25</v>
       </c>
       <c r="E362" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C362,1)-INDEX(E0!J$12:J$58,D362,1))))*100000000</f>
-        <v>2986.3508722141164</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C362,1)-INDEX(E0!J$12:J$57,D362,1))))*100000000</f>
+        <v>2819.5274747590156</v>
       </c>
       <c r="F362" s="32">
         <v>1573600</v>
@@ -19711,8 +19662,8 @@
         <v>26</v>
       </c>
       <c r="E363" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C363,1)-INDEX(E0!J$12:J$58,D363,1))))*100000000</f>
-        <v>2998.5625285278411</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C363,1)-INDEX(E0!J$12:J$57,D363,1))))*100000000</f>
+        <v>2837.1429487020064</v>
       </c>
       <c r="F363" s="32">
         <v>16080000</v>
@@ -19759,8 +19710,8 @@
         <v>27</v>
       </c>
       <c r="E364" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C364,1)-INDEX(E0!J$12:J$58,D364,1))))*100000000</f>
-        <v>3018.4940391477739</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C364,1)-INDEX(E0!J$12:J$57,D364,1))))*100000000</f>
+        <v>3133.701944529832</v>
       </c>
       <c r="F364" s="32">
         <v>145660000</v>
@@ -19807,8 +19758,8 @@
         <v>28</v>
       </c>
       <c r="E365" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C365,1)-INDEX(E0!J$12:J$58,D365,1))))*100000000</f>
-        <v>3356.4349362921357</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C365,1)-INDEX(E0!J$12:J$57,D365,1))))*100000000</f>
+        <v>3207.6172154951119</v>
       </c>
       <c r="F365" s="32">
         <v>351.14</v>
@@ -19855,8 +19806,8 @@
         <v>30</v>
       </c>
       <c r="E366" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C366,1)-INDEX(E0!J$12:J$58,D366,1))))*100000000</f>
-        <v>3687.0101549219662</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C366,1)-INDEX(E0!J$12:J$57,D366,1))))*100000000</f>
+        <v>3429.6091788395934</v>
       </c>
       <c r="F366" s="32">
         <v>7435300</v>
@@ -19903,8 +19854,8 @@
         <v>31</v>
       </c>
       <c r="E367" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C367,1)-INDEX(E0!J$12:J$58,D367,1))))*100000000</f>
-        <v>3698.1949921833648</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C367,1)-INDEX(E0!J$12:J$57,D367,1))))*100000000</f>
+        <v>3445.0395592810241</v>
       </c>
       <c r="F367" s="32">
         <v>48615000</v>
@@ -19951,8 +19902,8 @@
         <v>32</v>
       </c>
       <c r="E368" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C368,1)-INDEX(E0!J$12:J$58,D368,1))))*100000000</f>
-        <v>3716.1431562092903</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C368,1)-INDEX(E0!J$12:J$57,D368,1))))*100000000</f>
+        <v>4369.918883119497</v>
       </c>
       <c r="F368" s="32">
         <v>39712</v>
@@ -19999,8 +19950,8 @@
         <v>1</v>
       </c>
       <c r="E369" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C369,1)-INDEX(E0!J$12:J$58,D369,1))))*100000000</f>
-        <v>303.51795813489508</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C369,1)-INDEX(E0!J$12:J$57,D369,1))))*100000000</f>
+        <v>303.41288763651994</v>
       </c>
       <c r="F369" s="32">
         <v>3277300000</v>
@@ -20047,8 +19998,8 @@
         <v>2</v>
       </c>
       <c r="E370" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C370,1)-INDEX(E0!J$12:J$58,D370,1))))*100000000</f>
-        <v>303.62225671625765</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C370,1)-INDEX(E0!J$12:J$57,D370,1))))*100000000</f>
+        <v>303.5171140067439</v>
       </c>
       <c r="F370" s="32">
         <v>3424200000</v>
@@ -20095,8 +20046,8 @@
         <v>3</v>
       </c>
       <c r="E371" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C371,1)-INDEX(E0!J$12:J$58,D371,1))))*100000000</f>
-        <v>303.80027734701576</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C371,1)-INDEX(E0!J$12:J$57,D371,1))))*100000000</f>
+        <v>303.69501132760865</v>
       </c>
       <c r="F371" s="32">
         <v>5027700000</v>
@@ -20143,8 +20094,8 @@
         <v>4</v>
       </c>
       <c r="E372" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C372,1)-INDEX(E0!J$12:J$58,D372,1))))*100000000</f>
-        <v>323.41889469607361</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C372,1)-INDEX(E0!J$12:J$57,D372,1))))*100000000</f>
+        <v>323.29959676058451</v>
       </c>
       <c r="F372" s="32">
         <v>7505.9</v>
@@ -20191,8 +20142,8 @@
         <v>5</v>
       </c>
       <c r="E373" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C373,1)-INDEX(E0!J$12:J$58,D373,1))))*100000000</f>
-        <v>303.51795813489508</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C373,1)-INDEX(E0!J$12:J$57,D373,1))))*100000000</f>
+        <v>349.164263165465</v>
       </c>
       <c r="F373" s="32">
         <v>6389100</v>
@@ -20239,8 +20190,8 @@
         <v>20</v>
       </c>
       <c r="E374" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C374,1)-INDEX(E0!J$12:J$58,D374,1))))*100000000</f>
-        <v>1773.4123523539704</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C374,1)-INDEX(E0!J$12:J$57,D374,1))))*100000000</f>
+        <v>2182.2532323107503</v>
       </c>
       <c r="F374" s="32">
         <v>277480</v>
@@ -20287,8 +20238,8 @@
         <v>21</v>
       </c>
       <c r="E375" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C375,1)-INDEX(E0!J$12:J$58,D375,1))))*100000000</f>
-        <v>2187.7002066564537</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C375,1)-INDEX(E0!J$12:J$57,D375,1))))*100000000</f>
+        <v>2192.6704711967882</v>
       </c>
       <c r="F375" s="32">
         <v>187370</v>
@@ -20335,8 +20286,8 @@
         <v>22</v>
       </c>
       <c r="E376" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C376,1)-INDEX(E0!J$12:J$58,D376,1))))*100000000</f>
-        <v>2198.1696387155312</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C376,1)-INDEX(E0!J$12:J$57,D376,1))))*100000000</f>
+        <v>2197.2230286146273</v>
       </c>
       <c r="F376" s="32">
         <v>188140</v>
@@ -20383,8 +20334,8 @@
         <v>23</v>
       </c>
       <c r="E377" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C377,1)-INDEX(E0!J$12:J$58,D377,1))))*100000000</f>
-        <v>2202.7450840143474</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C377,1)-INDEX(E0!J$12:J$57,D377,1))))*100000000</f>
+        <v>2588.9540893655098</v>
       </c>
       <c r="F377" s="32">
         <v>413320</v>
@@ -20431,8 +20382,8 @@
         <v>24</v>
       </c>
       <c r="E378" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C378,1)-INDEX(E0!J$12:J$58,D378,1))))*100000000</f>
-        <v>2596.6240972206615</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C378,1)-INDEX(E0!J$12:J$57,D378,1))))*100000000</f>
+        <v>2799.7558399000081</v>
       </c>
       <c r="F378" s="32">
         <v>3078200</v>
@@ -20479,8 +20430,8 @@
         <v>25</v>
       </c>
       <c r="E379" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C379,1)-INDEX(E0!J$12:J$58,D379,1))))*100000000</f>
-        <v>2808.7279006208446</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C379,1)-INDEX(E0!J$12:J$57,D379,1))))*100000000</f>
+        <v>2810.4863971947311</v>
       </c>
       <c r="F379" s="32">
         <v>13966000</v>
@@ -20527,8 +20478,8 @@
         <v>27</v>
       </c>
       <c r="E380" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C380,1)-INDEX(E0!J$12:J$58,D380,1))))*100000000</f>
-        <v>2837.1429487020064</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C380,1)-INDEX(E0!J$12:J$57,D380,1))))*100000000</f>
+        <v>3122.5377406267953</v>
       </c>
       <c r="F380" s="32">
         <v>138210000</v>
@@ -20575,8 +20526,8 @@
         <v>28</v>
       </c>
       <c r="E381" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C381,1)-INDEX(E0!J$12:J$58,D381,1))))*100000000</f>
-        <v>3133.701944529832</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C381,1)-INDEX(E0!J$12:J$57,D381,1))))*100000000</f>
+        <v>3195.9211184301948</v>
       </c>
       <c r="F381" s="32">
         <v>573.88</v>
@@ -20623,8 +20574,8 @@
         <v>29</v>
       </c>
       <c r="E382" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C382,1)-INDEX(E0!J$12:J$58,D382,1))))*100000000</f>
-        <v>3207.6172154951119</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C382,1)-INDEX(E0!J$12:J$57,D382,1))))*100000000</f>
+        <v>3406.6949436094269</v>
       </c>
       <c r="F382" s="32">
         <v>16642000</v>
@@ -20671,8 +20622,8 @@
         <v>30</v>
       </c>
       <c r="E383" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C383,1)-INDEX(E0!J$12:J$58,D383,1))))*100000000</f>
-        <v>3419.9878573502851</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C383,1)-INDEX(E0!J$12:J$57,D383,1))))*100000000</f>
+        <v>3416.2415131686225</v>
       </c>
       <c r="F383" s="32">
         <v>21886000</v>
@@ -20719,8 +20670,8 @@
         <v>31</v>
       </c>
       <c r="E384" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C384,1)-INDEX(E0!J$12:J$58,D384,1))))*100000000</f>
-        <v>3429.6091788395934</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C384,1)-INDEX(E0!J$12:J$57,D384,1))))*100000000</f>
+        <v>3431.5515728579248</v>
       </c>
       <c r="F384" s="32">
         <v>25989000</v>
@@ -20767,8 +20718,8 @@
         <v>32</v>
       </c>
       <c r="E385" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C385,1)-INDEX(E0!J$12:J$58,D385,1))))*100000000</f>
-        <v>3445.0395592810241</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C385,1)-INDEX(E0!J$12:J$57,D385,1))))*100000000</f>
+        <v>4348.2393863235366</v>
       </c>
       <c r="F385" s="32">
         <v>444.69</v>
@@ -20815,8 +20766,8 @@
         <v>33</v>
       </c>
       <c r="E386" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C386,1)-INDEX(E0!J$12:J$58,D386,1))))*100000000</f>
-        <v>4369.918883119497</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C386,1)-INDEX(E0!J$12:J$57,D386,1))))*100000000</f>
+        <v>6336.683517010154</v>
       </c>
       <c r="F386" s="32">
         <v>9166.6</v>
@@ -20863,8 +20814,8 @@
         <v>2</v>
       </c>
       <c r="E387" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C387,1)-INDEX(E0!J$12:J$58,D387,1))))*100000000</f>
-        <v>303.5171140067439</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C387,1)-INDEX(E0!J$12:J$57,D387,1))))*100000000</f>
+        <v>303.46070453912449</v>
       </c>
       <c r="F387" s="32">
         <v>11719000000</v>
@@ -20911,8 +20862,8 @@
         <v>21</v>
       </c>
       <c r="E388" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C388,1)-INDEX(E0!J$12:J$58,D388,1))))*100000000</f>
-        <v>2182.2532323107503</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C388,1)-INDEX(E0!J$12:J$57,D388,1))))*100000000</f>
+        <v>2189.729909651272</v>
       </c>
       <c r="F388" s="32">
         <v>649670</v>
@@ -20959,8 +20910,8 @@
         <v>23</v>
       </c>
       <c r="E389" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C389,1)-INDEX(E0!J$12:J$58,D389,1))))*100000000</f>
-        <v>2197.2230286146273</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C389,1)-INDEX(E0!J$12:J$57,D389,1))))*100000000</f>
+        <v>2584.8555700529246</v>
       </c>
       <c r="F389" s="32">
         <v>441.08</v>
@@ -21007,8 +20958,8 @@
         <v>24</v>
       </c>
       <c r="E390" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C390,1)-INDEX(E0!J$12:J$58,D390,1))))*100000000</f>
-        <v>2588.9540893655098</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C390,1)-INDEX(E0!J$12:J$57,D390,1))))*100000000</f>
+        <v>2794.9633342971588</v>
       </c>
       <c r="F390" s="32">
         <v>17026000</v>
@@ -21055,8 +21006,8 @@
         <v>27</v>
       </c>
       <c r="E391" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C391,1)-INDEX(E0!J$12:J$58,D391,1))))*100000000</f>
-        <v>2827.9887303100663</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C391,1)-INDEX(E0!J$12:J$57,D391,1))))*100000000</f>
+        <v>3116.5776617842662</v>
       </c>
       <c r="F391" s="32">
         <v>135130000</v>
@@ -21103,8 +21054,8 @@
         <v>30</v>
       </c>
       <c r="E392" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C392,1)-INDEX(E0!J$12:J$58,D392,1))))*100000000</f>
-        <v>3406.6949436094269</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C392,1)-INDEX(E0!J$12:J$57,D392,1))))*100000000</f>
+        <v>3409.1087832371945</v>
       </c>
       <c r="F392" s="32">
         <v>68456000</v>
@@ -21151,8 +21102,8 @@
         <v>3</v>
       </c>
       <c r="E393" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C393,1)-INDEX(E0!J$12:J$58,D393,1))))*100000000</f>
-        <v>303.63853572137663</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C393,1)-INDEX(E0!J$12:J$57,D393,1))))*100000000</f>
+        <v>301.64523869220778</v>
       </c>
       <c r="F393" s="32">
         <v>4854200</v>
@@ -21199,8 +21150,8 @@
         <v>4</v>
       </c>
       <c r="E394" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C394,1)-INDEX(E0!J$12:J$58,D394,1))))*100000000</f>
-        <v>323.23559518022626</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C394,1)-INDEX(E0!J$12:J$57,D394,1))))*100000000</f>
+        <v>320.97765394536952</v>
       </c>
       <c r="F394" s="32">
         <v>19706000000</v>
@@ -21247,8 +21198,8 @@
         <v>20</v>
       </c>
       <c r="E395" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C395,1)-INDEX(E0!J$12:J$58,D395,1))))*100000000</f>
-        <v>1767.9150721148678</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C395,1)-INDEX(E0!J$12:J$57,D395,1))))*100000000</f>
+        <v>2080.657090725937</v>
       </c>
       <c r="F395" s="32">
         <v>815.12</v>
@@ -21295,8 +21246,8 @@
         <v>25</v>
       </c>
       <c r="E396" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C396,1)-INDEX(E0!J$12:J$58,D396,1))))*100000000</f>
-        <v>2794.9633342971588</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C396,1)-INDEX(E0!J$12:J$57,D396,1))))*100000000</f>
+        <v>2644.2033778747873</v>
       </c>
       <c r="F396" s="32">
         <v>46595</v>
@@ -21343,8 +21294,8 @@
         <v>26</v>
       </c>
       <c r="E397" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C397,1)-INDEX(E0!J$12:J$58,D397,1))))*100000000</f>
-        <v>2805.6571166325034</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C397,1)-INDEX(E0!J$12:J$57,D397,1))))*100000000</f>
+        <v>2659.6902136932767</v>
       </c>
       <c r="F397" s="32">
         <v>7547.3</v>
@@ -21391,8 +21342,8 @@
         <v>28</v>
       </c>
       <c r="E398" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C398,1)-INDEX(E0!J$12:J$58,D398,1))))*100000000</f>
-        <v>3116.5776617842662</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C398,1)-INDEX(E0!J$12:J$57,D398,1))))*100000000</f>
+        <v>2982.6326491465979</v>
       </c>
       <c r="F398" s="32">
         <v>311650</v>
@@ -21439,8 +21390,8 @@
         <v>31</v>
       </c>
       <c r="E399" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C399,1)-INDEX(E0!J$12:J$58,D399,1))))*100000000</f>
-        <v>3409.1087832371945</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C399,1)-INDEX(E0!J$12:J$57,D399,1))))*100000000</f>
+        <v>3186.8568284396897</v>
       </c>
       <c r="F399" s="32">
         <v>1686.6</v>
@@ -21487,8 +21438,8 @@
         <v>32</v>
       </c>
       <c r="E400" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C400,1)-INDEX(E0!J$12:J$58,D400,1))))*100000000</f>
-        <v>3424.3548356280917</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C400,1)-INDEX(E0!J$12:J$57,D400,1))))*100000000</f>
+        <v>3962.6939750823849</v>
       </c>
       <c r="F400" s="32">
         <v>127720000</v>
@@ -21535,8 +21486,8 @@
         <v>1</v>
       </c>
       <c r="E401" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C401,1)-INDEX(E0!J$12:J$58,D401,1))))*100000000</f>
-        <v>301.36690876024733</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C401,1)-INDEX(E0!J$12:J$57,D401,1))))*100000000</f>
+        <v>300.49978834358853</v>
       </c>
       <c r="F401" s="32">
         <v>15678000</v>
@@ -21583,8 +21534,8 @@
         <v>2</v>
       </c>
       <c r="E402" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C402,1)-INDEX(E0!J$12:J$58,D402,1))))*100000000</f>
-        <v>301.46973398954486</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C402,1)-INDEX(E0!J$12:J$57,D402,1))))*100000000</f>
+        <v>300.60202260749355</v>
       </c>
       <c r="F402" s="32">
         <v>1169900</v>
@@ -21631,8 +21582,8 @@
         <v>3</v>
       </c>
       <c r="E403" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C403,1)-INDEX(E0!J$12:J$58,D403,1))))*100000000</f>
-        <v>301.64523869220778</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C403,1)-INDEX(E0!J$12:J$57,D403,1))))*100000000</f>
+        <v>300.77651817177883</v>
       </c>
       <c r="F403" s="32">
         <v>1371000</v>
@@ -21679,8 +21630,8 @@
         <v>4</v>
       </c>
       <c r="E404" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C404,1)-INDEX(E0!J$12:J$58,D404,1))))*100000000</f>
-        <v>320.97765394536952</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C404,1)-INDEX(E0!J$12:J$57,D404,1))))*100000000</f>
+        <v>319.99419422910751</v>
       </c>
       <c r="F404" s="32">
         <v>286240000</v>
@@ -21727,8 +21678,8 @@
         <v>5</v>
       </c>
       <c r="E405" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C405,1)-INDEX(E0!J$12:J$58,D405,1))))*100000000</f>
-        <v>301.36690876024733</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C405,1)-INDEX(E0!J$12:J$57,D405,1))))*100000000</f>
+        <v>345.31197715853426</v>
       </c>
       <c r="F405" s="32">
         <v>11803000000</v>
@@ -21775,8 +21726,8 @@
         <v>20</v>
       </c>
       <c r="E406" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C406,1)-INDEX(E0!J$12:J$58,D406,1))))*100000000</f>
-        <v>1702.4144606233813</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C406,1)-INDEX(E0!J$12:J$57,D406,1))))*100000000</f>
+        <v>2040.0152285847007</v>
       </c>
       <c r="F406" s="32">
         <v>109.6</v>
@@ -21823,8 +21774,8 @@
         <v>21</v>
       </c>
       <c r="E407" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C407,1)-INDEX(E0!J$12:J$58,D407,1))))*100000000</f>
-        <v>2080.657090725937</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C407,1)-INDEX(E0!J$12:J$57,D407,1))))*100000000</f>
+        <v>2049.1159128068457</v>
       </c>
       <c r="F407" s="32">
         <v>0.38351000000000002</v>
@@ -21871,8 +21822,8 @@
         <v>22</v>
       </c>
       <c r="E408" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C408,1)-INDEX(E0!J$12:J$58,D408,1))))*100000000</f>
-        <v>2090.1248421705468</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C408,1)-INDEX(E0!J$12:J$57,D408,1))))*100000000</f>
+        <v>2053.0913300469133</v>
       </c>
       <c r="F408" s="32">
         <v>816.04</v>
@@ -21919,8 +21870,8 @@
         <v>23</v>
       </c>
       <c r="E409" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C409,1)-INDEX(E0!J$12:J$58,D409,1))))*100000000</f>
-        <v>2094.26113218502</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C409,1)-INDEX(E0!J$12:J$57,D409,1))))*100000000</f>
+        <v>2391.1613585869959</v>
       </c>
       <c r="F409" s="32">
         <v>184420000</v>
@@ -21967,8 +21918,8 @@
         <v>24</v>
       </c>
       <c r="E410" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C410,1)-INDEX(E0!J$12:J$58,D410,1))))*100000000</f>
-        <v>2447.1908132656231</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C410,1)-INDEX(E0!J$12:J$57,D410,1))))*100000000</f>
+        <v>2569.8718530083952</v>
       </c>
       <c r="F410" s="32">
         <v>746780</v>
@@ -22015,8 +21966,8 @@
         <v>25</v>
       </c>
       <c r="E411" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C411,1)-INDEX(E0!J$12:J$58,D411,1))))*100000000</f>
-        <v>2634.7028632675178</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C411,1)-INDEX(E0!J$12:J$57,D411,1))))*100000000</f>
+        <v>2578.9097678668495</v>
       </c>
       <c r="F411" s="32">
         <v>437.43</v>
@@ -22063,8 +22014,8 @@
         <v>27</v>
       </c>
       <c r="E412" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C412,1)-INDEX(E0!J$12:J$58,D412,1))))*100000000</f>
-        <v>2659.6902136932767</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C412,1)-INDEX(E0!J$12:J$57,D412,1))))*100000000</f>
+        <v>2839.2733420540712</v>
       </c>
       <c r="F412" s="32">
         <v>345270</v>
@@ -22111,8 +22062,8 @@
         <v>28</v>
       </c>
       <c r="E413" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C413,1)-INDEX(E0!J$12:J$58,D413,1))))*100000000</f>
-        <v>2918.6192108358887</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C413,1)-INDEX(E0!J$12:J$57,D413,1))))*100000000</f>
+        <v>2899.8174399822465</v>
       </c>
       <c r="F413" s="32">
         <v>20186</v>
@@ -22159,8 +22110,8 @@
         <v>29</v>
       </c>
       <c r="E414" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C414,1)-INDEX(E0!J$12:J$58,D414,1))))*100000000</f>
-        <v>2982.6326491465979</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C414,1)-INDEX(E0!J$12:J$57,D414,1))))*100000000</f>
+        <v>3072.290098833776</v>
       </c>
       <c r="F414" s="32">
         <v>57294</v>
@@ -22207,8 +22158,8 @@
         <v>30</v>
       </c>
       <c r="E415" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C415,1)-INDEX(E0!J$12:J$58,D415,1))))*100000000</f>
-        <v>3165.4076501596805</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C415,1)-INDEX(E0!J$12:J$57,D415,1))))*100000000</f>
+        <v>3080.0523169872463</v>
       </c>
       <c r="F415" s="32">
         <v>29198</v>
@@ -22255,8 +22206,8 @@
         <v>31</v>
       </c>
       <c r="E416" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C416,1)-INDEX(E0!J$12:J$58,D416,1))))*100000000</f>
-        <v>3173.6481575803873</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C416,1)-INDEX(E0!J$12:J$57,D416,1))))*100000000</f>
+        <v>3092.4918605811208</v>
       </c>
       <c r="F416" s="32">
         <v>1896.7</v>
@@ -22303,8 +22254,8 @@
         <v>32</v>
       </c>
       <c r="E417" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C417,1)-INDEX(E0!J$12:J$58,D417,1))))*100000000</f>
-        <v>3186.8568284396897</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C417,1)-INDEX(E0!J$12:J$57,D417,1))))*100000000</f>
+        <v>3817.8343702604511</v>
       </c>
       <c r="F417" s="32">
         <v>7108900</v>
@@ -22351,8 +22302,8 @@
         <v>33</v>
       </c>
       <c r="E418" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C418,1)-INDEX(E0!J$12:J$58,D418,1))))*100000000</f>
-        <v>3962.6939750823849</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C418,1)-INDEX(E0!J$12:J$57,D418,1))))*100000000</f>
+        <v>5269.7668250656507</v>
       </c>
       <c r="F418" s="32">
         <v>34466000</v>
@@ -22399,8 +22350,8 @@
         <v>9</v>
       </c>
       <c r="E419" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C419,1)-INDEX(E0!J$12:J$58,D419,1))))*100000000</f>
-        <v>470.08928797902945</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C419,1)-INDEX(E0!J$12:J$57,D419,1))))*100000000</f>
+        <v>447.932226505156</v>
       </c>
       <c r="F419" s="32">
         <v>12054</v>
@@ -22447,8 +22398,8 @@
         <v>11</v>
       </c>
       <c r="E420" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C420,1)-INDEX(E0!J$12:J$58,D420,1))))*100000000</f>
-        <v>525.21573386692467</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C420,1)-INDEX(E0!J$12:J$57,D420,1))))*100000000</f>
+        <v>497.69932071166801</v>
       </c>
       <c r="F420" s="32">
         <v>79126</v>
@@ -22495,8 +22446,8 @@
         <v>14</v>
       </c>
       <c r="E421" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C421,1)-INDEX(E0!J$12:J$58,D421,1))))*100000000</f>
-        <v>686.22410869414625</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C421,1)-INDEX(E0!J$12:J$57,D421,1))))*100000000</f>
+        <v>683.90748006361082</v>
       </c>
       <c r="F421" s="32">
         <v>934160</v>
@@ -22543,8 +22494,8 @@
         <v>15</v>
       </c>
       <c r="E422" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C422,1)-INDEX(E0!J$12:J$58,D422,1))))*100000000</f>
-        <v>736.96710737829835</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C422,1)-INDEX(E0!J$12:J$57,D422,1))))*100000000</f>
+        <v>752.75990324452346</v>
       </c>
       <c r="F422" s="32">
         <v>5920600000</v>
@@ -22591,8 +22542,8 @@
         <v>17</v>
       </c>
       <c r="E423" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C423,1)-INDEX(E0!J$12:J$58,D423,1))))*100000000</f>
-        <v>1526.2463409310535</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C423,1)-INDEX(E0!J$12:J$57,D423,1))))*100000000</f>
+        <v>1317.0169139397758</v>
       </c>
       <c r="F423" s="32">
         <v>16111</v>
@@ -22639,8 +22590,8 @@
         <v>19</v>
       </c>
       <c r="E424" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C424,1)-INDEX(E0!J$12:J$58,D424,1))))*100000000</f>
-        <v>1535.0388280506024</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C424,1)-INDEX(E0!J$12:J$57,D424,1))))*100000000</f>
+        <v>1423.9953860301807</v>
       </c>
       <c r="F424" s="32">
         <v>13752000</v>
@@ -22687,8 +22638,8 @@
         <v>38</v>
       </c>
       <c r="E425" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C425,1)-INDEX(E0!J$12:J$58,D425,1))))*100000000</f>
-        <v>12432.732169523266</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C425,1)-INDEX(E0!J$12:J$57,D425,1))))*100000000</f>
+        <v>6220.0533535848117</v>
       </c>
       <c r="F425" s="32">
         <v>41.606999999999999</v>
@@ -22735,8 +22686,8 @@
         <v>42</v>
       </c>
       <c r="E426" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C426,1)-INDEX(E0!J$12:J$58,D426,1))))*100000000</f>
-        <v>30219.33439289088</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C426,1)-INDEX(E0!J$12:J$57,D426,1))))*100000000</f>
+        <v>7287.3613771950832</v>
       </c>
       <c r="F426" s="32">
         <v>28.222000000000001</v>
@@ -22783,8 +22734,8 @@
         <v>45</v>
       </c>
       <c r="E427" s="32">
-        <f ca="1">((1/(INDEX(E0!J$12:J$58,C427,1)-INDEX(E0!J$12:J$58,D427,1))))*100000000</f>
-        <v>104438.42695477794</v>
+        <f ca="1">((1/(INDEX(E0!J$12:J$57,C427,1)-INDEX(E0!J$12:J$57,D427,1))))*100000000</f>
+        <v>9499.0738307983229</v>
       </c>
       <c r="F427" s="32">
         <v>18304</v>
@@ -22819,18 +22770,18 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:F10"/>
   </mergeCells>
@@ -23043,13 +22994,13 @@
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="17"/>
@@ -23097,13 +23048,13 @@
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
     </row>
@@ -23114,13 +23065,13 @@
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
     </row>
@@ -23142,22 +23093,22 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62" t="s">
+      <c r="F12" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63" t="s">
+      <c r="I12" s="63"/>
+      <c r="J12" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64" t="s">
+      <c r="K12" s="64"/>
+      <c r="L12" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="64"/>
+      <c r="M12" s="60"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
@@ -50807,18 +50758,18 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A10:K10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A7:K7"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
   </mergeCells>
